--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.3 Plantilla_Eficiencia_energetica_comercial.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.3 Plantilla_Eficiencia_energetica_comercial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\Para MASIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F373B95-92E6-4A52-AB61-6256AB79A7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202D15D7-A806-446E-BE9E-A14B218B9B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{71D78059-0FA9-459A-8548-6759DAA3D3F6}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Año</t>
   </si>
@@ -760,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D889A0A-A55A-4B94-B1DD-C9998CB27541}">
-  <dimension ref="A1:K312"/>
+  <dimension ref="A1:J312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +844,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="19">
-        <f>VLOOKUP(D3,Tabla_BAU,2,)</f>
+        <f t="shared" ref="C3:C66" si="0">VLOOKUP(D3,Tabla_BAU,2,)</f>
         <v>1</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -854,7 +854,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2">
-        <f>VLOOKUP(G3,Tabla_INI,2,)</f>
+        <f t="shared" ref="F3:F66" si="1">VLOOKUP(G3,Tabla_INI,2,)</f>
         <v>1</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -864,7 +864,7 @@
         <v>100000</v>
       </c>
       <c r="I3" s="16">
-        <f t="shared" ref="I3:I64" si="0">VLOOKUP(J3,Tabla_Mes,2,)</f>
+        <f t="shared" ref="I3:I64" si="2">VLOOKUP(J3,Tabla_Mes,2,)</f>
         <v>4</v>
       </c>
       <c r="J3" s="9" t="s">
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="24">
-        <f>VLOOKUP(D4,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -889,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3">
-        <f>VLOOKUP(G4,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G4" s="14" t="s">
@@ -899,7 +899,7 @@
         <v>110000</v>
       </c>
       <c r="I4" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -914,7 +914,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="19">
-        <f>VLOOKUP(D5,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -924,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="3">
-        <f>VLOOKUP(G5,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -934,7 +934,7 @@
         <v>100000</v>
       </c>
       <c r="I5" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -942,64 +942,92 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="18" t="e">
-        <f>VLOOKUP(D6,Tabla_BAU,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="22" t="e">
-        <f>VLOOKUP(G6,Tabla_INI,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="6" t="e">
+      <c r="A6" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="12">
+        <v>44</v>
+      </c>
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="12">
+        <v>10</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="12">
+        <v>112000</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="19" t="e">
-        <f>VLOOKUP(D7,Tabla_BAU,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="22" t="e">
-        <f>VLOOKUP(G7,Tabla_INI,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="6" t="e">
+      <c r="A7" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="13">
+        <v>55</v>
+      </c>
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13">
+        <v>12</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="13">
+        <v>11300</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="12"/>
       <c r="C8" s="18" t="e">
-        <f>VLOOKUP(D8,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="22" t="e">
-        <f>VLOOKUP(G8,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J8" s="6"/>
@@ -1008,19 +1036,19 @@
       <c r="A9" s="6"/>
       <c r="B9" s="13"/>
       <c r="C9" s="19" t="e">
-        <f>VLOOKUP(D9,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="22" t="e">
-        <f>VLOOKUP(G9,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J9" s="6"/>
@@ -1029,19 +1057,19 @@
       <c r="A10" s="6"/>
       <c r="B10" s="12"/>
       <c r="C10" s="18" t="e">
-        <f>VLOOKUP(D10,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="22" t="e">
-        <f>VLOOKUP(G10,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J10" s="6"/>
@@ -1050,19 +1078,19 @@
       <c r="A11" s="6"/>
       <c r="B11" s="13"/>
       <c r="C11" s="19" t="e">
-        <f>VLOOKUP(D11,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="22" t="e">
-        <f>VLOOKUP(G11,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J11" s="6"/>
@@ -1071,19 +1099,19 @@
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
       <c r="C12" s="18" t="e">
-        <f>VLOOKUP(D12,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="22" t="e">
-        <f>VLOOKUP(G12,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J12" s="6"/>
@@ -1092,19 +1120,19 @@
       <c r="A13" s="6"/>
       <c r="B13" s="13"/>
       <c r="C13" s="19" t="e">
-        <f>VLOOKUP(D13,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="22" t="e">
-        <f>VLOOKUP(G13,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J13" s="6"/>
@@ -1113,19 +1141,19 @@
       <c r="A14" s="6"/>
       <c r="B14" s="12"/>
       <c r="C14" s="18" t="e">
-        <f>VLOOKUP(D14,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="22" t="e">
-        <f>VLOOKUP(G14,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J14" s="6"/>
@@ -1134,19 +1162,19 @@
       <c r="A15" s="6"/>
       <c r="B15" s="13"/>
       <c r="C15" s="19" t="e">
-        <f>VLOOKUP(D15,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="22" t="e">
-        <f>VLOOKUP(G15,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J15" s="6"/>
@@ -1155,19 +1183,19 @@
       <c r="A16" s="6"/>
       <c r="B16" s="12"/>
       <c r="C16" s="18" t="e">
-        <f>VLOOKUP(D16,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="22" t="e">
-        <f>VLOOKUP(G16,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J16" s="6"/>
@@ -1176,19 +1204,19 @@
       <c r="A17" s="6"/>
       <c r="B17" s="13"/>
       <c r="C17" s="19" t="e">
-        <f>VLOOKUP(D17,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="22" t="e">
-        <f>VLOOKUP(G17,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J17" s="6"/>
@@ -1197,19 +1225,19 @@
       <c r="A18" s="6"/>
       <c r="B18" s="12"/>
       <c r="C18" s="18" t="e">
-        <f>VLOOKUP(D18,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="22" t="e">
-        <f>VLOOKUP(G18,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J18" s="6"/>
@@ -1218,19 +1246,19 @@
       <c r="A19" s="6"/>
       <c r="B19" s="13"/>
       <c r="C19" s="19" t="e">
-        <f>VLOOKUP(D19,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="22" t="e">
-        <f>VLOOKUP(G19,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J19" s="6"/>
@@ -1239,19 +1267,19 @@
       <c r="A20" s="6"/>
       <c r="B20" s="12"/>
       <c r="C20" s="18" t="e">
-        <f>VLOOKUP(D20,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="22" t="e">
-        <f>VLOOKUP(G20,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J20" s="6"/>
@@ -1260,19 +1288,19 @@
       <c r="A21" s="6"/>
       <c r="B21" s="13"/>
       <c r="C21" s="19" t="e">
-        <f>VLOOKUP(D21,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="22" t="e">
-        <f>VLOOKUP(G21,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J21" s="6"/>
@@ -1281,19 +1309,19 @@
       <c r="A22" s="6"/>
       <c r="B22" s="12"/>
       <c r="C22" s="18" t="e">
-        <f>VLOOKUP(D22,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="22" t="e">
-        <f>VLOOKUP(G22,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J22" s="6"/>
@@ -1302,19 +1330,19 @@
       <c r="A23" s="6"/>
       <c r="B23" s="13"/>
       <c r="C23" s="19" t="e">
-        <f>VLOOKUP(D23,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="22" t="e">
-        <f>VLOOKUP(G23,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J23" s="6"/>
@@ -1323,19 +1351,19 @@
       <c r="A24" s="6"/>
       <c r="B24" s="12"/>
       <c r="C24" s="18" t="e">
-        <f>VLOOKUP(D24,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="22" t="e">
-        <f>VLOOKUP(G24,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J24" s="6"/>
@@ -1344,19 +1372,19 @@
       <c r="A25" s="6"/>
       <c r="B25" s="13"/>
       <c r="C25" s="19" t="e">
-        <f>VLOOKUP(D25,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="22" t="e">
-        <f>VLOOKUP(G25,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J25" s="6"/>
@@ -1365,19 +1393,19 @@
       <c r="A26" s="6"/>
       <c r="B26" s="12"/>
       <c r="C26" s="18" t="e">
-        <f>VLOOKUP(D26,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="22" t="e">
-        <f>VLOOKUP(G26,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J26" s="6"/>
@@ -1386,19 +1414,19 @@
       <c r="A27" s="6"/>
       <c r="B27" s="13"/>
       <c r="C27" s="19" t="e">
-        <f>VLOOKUP(D27,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="22" t="e">
-        <f>VLOOKUP(G27,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J27" s="6"/>
@@ -1407,19 +1435,19 @@
       <c r="A28" s="6"/>
       <c r="B28" s="12"/>
       <c r="C28" s="18" t="e">
-        <f>VLOOKUP(D28,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="22" t="e">
-        <f>VLOOKUP(G28,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J28" s="6"/>
@@ -1428,19 +1456,19 @@
       <c r="A29" s="6"/>
       <c r="B29" s="13"/>
       <c r="C29" s="19" t="e">
-        <f>VLOOKUP(D29,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="22" t="e">
-        <f>VLOOKUP(G29,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J29" s="6"/>
@@ -1449,19 +1477,19 @@
       <c r="A30" s="6"/>
       <c r="B30" s="12"/>
       <c r="C30" s="18" t="e">
-        <f>VLOOKUP(D30,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="22" t="e">
-        <f>VLOOKUP(G30,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J30" s="6"/>
@@ -1470,19 +1498,19 @@
       <c r="A31" s="6"/>
       <c r="B31" s="13"/>
       <c r="C31" s="19" t="e">
-        <f>VLOOKUP(D31,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="22" t="e">
-        <f>VLOOKUP(G31,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J31" s="6"/>
@@ -1491,19 +1519,19 @@
       <c r="A32" s="6"/>
       <c r="B32" s="12"/>
       <c r="C32" s="18" t="e">
-        <f>VLOOKUP(D32,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="22" t="e">
-        <f>VLOOKUP(G32,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J32" s="6"/>
@@ -1512,19 +1540,19 @@
       <c r="A33" s="6"/>
       <c r="B33" s="13"/>
       <c r="C33" s="19" t="e">
-        <f>VLOOKUP(D33,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="22" t="e">
-        <f>VLOOKUP(G33,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J33" s="6"/>
@@ -1533,19 +1561,19 @@
       <c r="A34" s="6"/>
       <c r="B34" s="12"/>
       <c r="C34" s="18" t="e">
-        <f>VLOOKUP(D34,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="22" t="e">
-        <f>VLOOKUP(G34,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J34" s="6"/>
@@ -1554,19 +1582,19 @@
       <c r="A35" s="6"/>
       <c r="B35" s="13"/>
       <c r="C35" s="19" t="e">
-        <f>VLOOKUP(D35,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="22" t="e">
-        <f>VLOOKUP(G35,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J35" s="6"/>
@@ -1575,19 +1603,19 @@
       <c r="A36" s="6"/>
       <c r="B36" s="12"/>
       <c r="C36" s="18" t="e">
-        <f>VLOOKUP(D36,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="22" t="e">
-        <f>VLOOKUP(G36,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J36" s="6"/>
@@ -1596,19 +1624,19 @@
       <c r="A37" s="6"/>
       <c r="B37" s="13"/>
       <c r="C37" s="19" t="e">
-        <f>VLOOKUP(D37,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="22" t="e">
-        <f>VLOOKUP(G37,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J37" s="6"/>
@@ -1617,19 +1645,19 @@
       <c r="A38" s="6"/>
       <c r="B38" s="12"/>
       <c r="C38" s="18" t="e">
-        <f>VLOOKUP(D38,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="22" t="e">
-        <f>VLOOKUP(G38,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J38" s="6"/>
@@ -1638,19 +1666,19 @@
       <c r="A39" s="6"/>
       <c r="B39" s="13"/>
       <c r="C39" s="19" t="e">
-        <f>VLOOKUP(D39,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="22" t="e">
-        <f>VLOOKUP(G39,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J39" s="6"/>
@@ -1659,19 +1687,19 @@
       <c r="A40" s="6"/>
       <c r="B40" s="12"/>
       <c r="C40" s="18" t="e">
-        <f>VLOOKUP(D40,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="22" t="e">
-        <f>VLOOKUP(G40,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J40" s="6"/>
@@ -1680,19 +1708,19 @@
       <c r="A41" s="6"/>
       <c r="B41" s="13"/>
       <c r="C41" s="19" t="e">
-        <f>VLOOKUP(D41,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="22" t="e">
-        <f>VLOOKUP(G41,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J41" s="6"/>
@@ -1701,19 +1729,19 @@
       <c r="A42" s="6"/>
       <c r="B42" s="12"/>
       <c r="C42" s="18" t="e">
-        <f>VLOOKUP(D42,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="22" t="e">
-        <f>VLOOKUP(G42,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J42" s="6"/>
@@ -1722,19 +1750,19 @@
       <c r="A43" s="6"/>
       <c r="B43" s="13"/>
       <c r="C43" s="19" t="e">
-        <f>VLOOKUP(D43,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="22" t="e">
-        <f>VLOOKUP(G43,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J43" s="6"/>
@@ -1743,19 +1771,19 @@
       <c r="A44" s="6"/>
       <c r="B44" s="12"/>
       <c r="C44" s="18" t="e">
-        <f>VLOOKUP(D44,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="22" t="e">
-        <f>VLOOKUP(G44,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J44" s="6"/>
@@ -1764,19 +1792,19 @@
       <c r="A45" s="6"/>
       <c r="B45" s="13"/>
       <c r="C45" s="19" t="e">
-        <f>VLOOKUP(D45,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="22" t="e">
-        <f>VLOOKUP(G45,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J45" s="6"/>
@@ -1785,19 +1813,19 @@
       <c r="A46" s="6"/>
       <c r="B46" s="12"/>
       <c r="C46" s="18" t="e">
-        <f>VLOOKUP(D46,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="22" t="e">
-        <f>VLOOKUP(G46,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J46" s="6"/>
@@ -1806,19 +1834,19 @@
       <c r="A47" s="6"/>
       <c r="B47" s="13"/>
       <c r="C47" s="19" t="e">
-        <f>VLOOKUP(D47,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="22" t="e">
-        <f>VLOOKUP(G47,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J47" s="6"/>
@@ -1827,19 +1855,19 @@
       <c r="A48" s="6"/>
       <c r="B48" s="12"/>
       <c r="C48" s="18" t="e">
-        <f>VLOOKUP(D48,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="22" t="e">
-        <f>VLOOKUP(G48,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J48" s="6"/>
@@ -1848,19 +1876,19 @@
       <c r="A49" s="6"/>
       <c r="B49" s="13"/>
       <c r="C49" s="19" t="e">
-        <f>VLOOKUP(D49,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="22" t="e">
-        <f>VLOOKUP(G49,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J49" s="6"/>
@@ -1869,19 +1897,19 @@
       <c r="A50" s="6"/>
       <c r="B50" s="12"/>
       <c r="C50" s="18" t="e">
-        <f>VLOOKUP(D50,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="22" t="e">
-        <f>VLOOKUP(G50,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J50" s="6"/>
@@ -1890,19 +1918,19 @@
       <c r="A51" s="6"/>
       <c r="B51" s="13"/>
       <c r="C51" s="19" t="e">
-        <f>VLOOKUP(D51,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="22" t="e">
-        <f>VLOOKUP(G51,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J51" s="6"/>
@@ -1911,19 +1939,19 @@
       <c r="A52" s="6"/>
       <c r="B52" s="12"/>
       <c r="C52" s="18" t="e">
-        <f>VLOOKUP(D52,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="22" t="e">
-        <f>VLOOKUP(G52,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J52" s="6"/>
@@ -1932,19 +1960,19 @@
       <c r="A53" s="6"/>
       <c r="B53" s="13"/>
       <c r="C53" s="19" t="e">
-        <f>VLOOKUP(D53,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="22" t="e">
-        <f>VLOOKUP(G53,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J53" s="6"/>
@@ -1953,19 +1981,19 @@
       <c r="A54" s="6"/>
       <c r="B54" s="12"/>
       <c r="C54" s="18" t="e">
-        <f>VLOOKUP(D54,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="22" t="e">
-        <f>VLOOKUP(G54,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J54" s="6"/>
@@ -1974,19 +2002,19 @@
       <c r="A55" s="6"/>
       <c r="B55" s="13"/>
       <c r="C55" s="19" t="e">
-        <f>VLOOKUP(D55,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="22" t="e">
-        <f>VLOOKUP(G55,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J55" s="6"/>
@@ -1995,19 +2023,19 @@
       <c r="A56" s="6"/>
       <c r="B56" s="12"/>
       <c r="C56" s="18" t="e">
-        <f>VLOOKUP(D56,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="22" t="e">
-        <f>VLOOKUP(G56,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
       <c r="I56" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J56" s="6"/>
@@ -2016,19 +2044,19 @@
       <c r="A57" s="6"/>
       <c r="B57" s="13"/>
       <c r="C57" s="19" t="e">
-        <f>VLOOKUP(D57,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="22" t="e">
-        <f>VLOOKUP(G57,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J57" s="6"/>
@@ -2037,19 +2065,19 @@
       <c r="A58" s="6"/>
       <c r="B58" s="12"/>
       <c r="C58" s="18" t="e">
-        <f>VLOOKUP(D58,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="22" t="e">
-        <f>VLOOKUP(G58,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J58" s="6"/>
@@ -2058,19 +2086,19 @@
       <c r="A59" s="6"/>
       <c r="B59" s="13"/>
       <c r="C59" s="19" t="e">
-        <f>VLOOKUP(D59,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="22" t="e">
-        <f>VLOOKUP(G59,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J59" s="6"/>
@@ -2079,19 +2107,19 @@
       <c r="A60" s="6"/>
       <c r="B60" s="12"/>
       <c r="C60" s="18" t="e">
-        <f>VLOOKUP(D60,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="22" t="e">
-        <f>VLOOKUP(G60,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J60" s="6"/>
@@ -2100,19 +2128,19 @@
       <c r="A61" s="6"/>
       <c r="B61" s="13"/>
       <c r="C61" s="19" t="e">
-        <f>VLOOKUP(D61,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="22" t="e">
-        <f>VLOOKUP(G61,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
       <c r="I61" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J61" s="6"/>
@@ -2121,19 +2149,19 @@
       <c r="A62" s="6"/>
       <c r="B62" s="12"/>
       <c r="C62" s="18" t="e">
-        <f>VLOOKUP(D62,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="22" t="e">
-        <f>VLOOKUP(G62,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J62" s="6"/>
@@ -2142,19 +2170,19 @@
       <c r="A63" s="6"/>
       <c r="B63" s="13"/>
       <c r="C63" s="19" t="e">
-        <f>VLOOKUP(D63,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="22" t="e">
-        <f>VLOOKUP(G63,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J63" s="6"/>
@@ -2163,19 +2191,19 @@
       <c r="A64" s="6"/>
       <c r="B64" s="12"/>
       <c r="C64" s="18" t="e">
-        <f>VLOOKUP(D64,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="22" t="e">
-        <f>VLOOKUP(G64,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J64" s="6"/>
@@ -2184,19 +2212,19 @@
       <c r="A65" s="6"/>
       <c r="B65" s="13"/>
       <c r="C65" s="19" t="e">
-        <f>VLOOKUP(D65,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="22" t="e">
-        <f>VLOOKUP(G65,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="6" t="e">
-        <f t="shared" ref="I65:I128" si="1">VLOOKUP(J65,Tabla_Mes,2,)</f>
+        <f t="shared" ref="I65:I128" si="3">VLOOKUP(J65,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="J65" s="6"/>
@@ -2205,19 +2233,19 @@
       <c r="A66" s="6"/>
       <c r="B66" s="12"/>
       <c r="C66" s="18" t="e">
-        <f>VLOOKUP(D66,Tabla_BAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="22" t="e">
-        <f>VLOOKUP(G66,Tabla_INI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J66" s="6"/>
@@ -2226,19 +2254,19 @@
       <c r="A67" s="6"/>
       <c r="B67" s="13"/>
       <c r="C67" s="19" t="e">
-        <f>VLOOKUP(D67,Tabla_BAU,2,)</f>
+        <f t="shared" ref="C67:C130" si="4">VLOOKUP(D67,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="22" t="e">
-        <f>VLOOKUP(G67,Tabla_INI,2,)</f>
+        <f t="shared" ref="F67:F130" si="5">VLOOKUP(G67,Tabla_INI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
       <c r="I67" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J67" s="6"/>
@@ -2247,19 +2275,19 @@
       <c r="A68" s="6"/>
       <c r="B68" s="12"/>
       <c r="C68" s="18" t="e">
-        <f>VLOOKUP(D68,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="22" t="e">
-        <f>VLOOKUP(G68,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J68" s="6"/>
@@ -2268,19 +2296,19 @@
       <c r="A69" s="6"/>
       <c r="B69" s="13"/>
       <c r="C69" s="19" t="e">
-        <f>VLOOKUP(D69,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="22" t="e">
-        <f>VLOOKUP(G69,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
       <c r="I69" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J69" s="6"/>
@@ -2289,19 +2317,19 @@
       <c r="A70" s="6"/>
       <c r="B70" s="12"/>
       <c r="C70" s="18" t="e">
-        <f>VLOOKUP(D70,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="22" t="e">
-        <f>VLOOKUP(G70,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J70" s="6"/>
@@ -2310,19 +2338,19 @@
       <c r="A71" s="6"/>
       <c r="B71" s="13"/>
       <c r="C71" s="19" t="e">
-        <f>VLOOKUP(D71,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="22" t="e">
-        <f>VLOOKUP(G71,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
       <c r="I71" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J71" s="6"/>
@@ -2331,19 +2359,19 @@
       <c r="A72" s="6"/>
       <c r="B72" s="12"/>
       <c r="C72" s="18" t="e">
-        <f>VLOOKUP(D72,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="22" t="e">
-        <f>VLOOKUP(G72,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
       <c r="I72" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J72" s="6"/>
@@ -2352,19 +2380,19 @@
       <c r="A73" s="6"/>
       <c r="B73" s="13"/>
       <c r="C73" s="19" t="e">
-        <f>VLOOKUP(D73,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="22" t="e">
-        <f>VLOOKUP(G73,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
       <c r="I73" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J73" s="6"/>
@@ -2373,19 +2401,19 @@
       <c r="A74" s="6"/>
       <c r="B74" s="12"/>
       <c r="C74" s="18" t="e">
-        <f>VLOOKUP(D74,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="22" t="e">
-        <f>VLOOKUP(G74,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J74" s="6"/>
@@ -2394,19 +2422,19 @@
       <c r="A75" s="6"/>
       <c r="B75" s="13"/>
       <c r="C75" s="19" t="e">
-        <f>VLOOKUP(D75,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="22" t="e">
-        <f>VLOOKUP(G75,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
       <c r="I75" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J75" s="6"/>
@@ -2415,19 +2443,19 @@
       <c r="A76" s="6"/>
       <c r="B76" s="12"/>
       <c r="C76" s="18" t="e">
-        <f>VLOOKUP(D76,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="22" t="e">
-        <f>VLOOKUP(G76,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
       <c r="I76" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J76" s="6"/>
@@ -2436,19 +2464,19 @@
       <c r="A77" s="6"/>
       <c r="B77" s="13"/>
       <c r="C77" s="19" t="e">
-        <f>VLOOKUP(D77,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="22" t="e">
-        <f>VLOOKUP(G77,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
       <c r="I77" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J77" s="6"/>
@@ -2457,19 +2485,19 @@
       <c r="A78" s="6"/>
       <c r="B78" s="12"/>
       <c r="C78" s="18" t="e">
-        <f>VLOOKUP(D78,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="22" t="e">
-        <f>VLOOKUP(G78,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J78" s="6"/>
@@ -2478,19 +2506,19 @@
       <c r="A79" s="6"/>
       <c r="B79" s="13"/>
       <c r="C79" s="19" t="e">
-        <f>VLOOKUP(D79,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="22" t="e">
-        <f>VLOOKUP(G79,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
       <c r="I79" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J79" s="6"/>
@@ -2499,19 +2527,19 @@
       <c r="A80" s="6"/>
       <c r="B80" s="12"/>
       <c r="C80" s="18" t="e">
-        <f>VLOOKUP(D80,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="22" t="e">
-        <f>VLOOKUP(G80,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J80" s="6"/>
@@ -2520,19 +2548,19 @@
       <c r="A81" s="6"/>
       <c r="B81" s="13"/>
       <c r="C81" s="19" t="e">
-        <f>VLOOKUP(D81,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="22" t="e">
-        <f>VLOOKUP(G81,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
       <c r="I81" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J81" s="6"/>
@@ -2541,19 +2569,19 @@
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
       <c r="C82" s="18" t="e">
-        <f>VLOOKUP(D82,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="22" t="e">
-        <f>VLOOKUP(G82,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J82" s="6"/>
@@ -2562,19 +2590,19 @@
       <c r="A83" s="6"/>
       <c r="B83" s="13"/>
       <c r="C83" s="19" t="e">
-        <f>VLOOKUP(D83,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="22" t="e">
-        <f>VLOOKUP(G83,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
       <c r="I83" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J83" s="6"/>
@@ -2583,19 +2611,19 @@
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
       <c r="C84" s="18" t="e">
-        <f>VLOOKUP(D84,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="22" t="e">
-        <f>VLOOKUP(G84,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="I84" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J84" s="6"/>
@@ -2604,19 +2632,19 @@
       <c r="A85" s="6"/>
       <c r="B85" s="13"/>
       <c r="C85" s="19" t="e">
-        <f>VLOOKUP(D85,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="22" t="e">
-        <f>VLOOKUP(G85,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
       <c r="I85" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J85" s="6"/>
@@ -2625,19 +2653,19 @@
       <c r="A86" s="6"/>
       <c r="B86" s="12"/>
       <c r="C86" s="18" t="e">
-        <f>VLOOKUP(D86,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="22" t="e">
-        <f>VLOOKUP(G86,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
       <c r="I86" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J86" s="6"/>
@@ -2646,19 +2674,19 @@
       <c r="A87" s="6"/>
       <c r="B87" s="13"/>
       <c r="C87" s="19" t="e">
-        <f>VLOOKUP(D87,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="22" t="e">
-        <f>VLOOKUP(G87,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
       <c r="I87" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J87" s="6"/>
@@ -2667,19 +2695,19 @@
       <c r="A88" s="6"/>
       <c r="B88" s="12"/>
       <c r="C88" s="18" t="e">
-        <f>VLOOKUP(D88,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="22" t="e">
-        <f>VLOOKUP(G88,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
       <c r="I88" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J88" s="6"/>
@@ -2688,19 +2716,19 @@
       <c r="A89" s="6"/>
       <c r="B89" s="13"/>
       <c r="C89" s="19" t="e">
-        <f>VLOOKUP(D89,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="22" t="e">
-        <f>VLOOKUP(G89,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
       <c r="I89" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J89" s="6"/>
@@ -2709,19 +2737,19 @@
       <c r="A90" s="6"/>
       <c r="B90" s="12"/>
       <c r="C90" s="18" t="e">
-        <f>VLOOKUP(D90,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="22" t="e">
-        <f>VLOOKUP(G90,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
       <c r="I90" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J90" s="6"/>
@@ -2730,19 +2758,19 @@
       <c r="A91" s="6"/>
       <c r="B91" s="13"/>
       <c r="C91" s="19" t="e">
-        <f>VLOOKUP(D91,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="22" t="e">
-        <f>VLOOKUP(G91,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
       <c r="I91" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J91" s="6"/>
@@ -2751,19 +2779,19 @@
       <c r="A92" s="6"/>
       <c r="B92" s="12"/>
       <c r="C92" s="18" t="e">
-        <f>VLOOKUP(D92,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="22" t="e">
-        <f>VLOOKUP(G92,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
       <c r="I92" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J92" s="6"/>
@@ -2772,19 +2800,19 @@
       <c r="A93" s="6"/>
       <c r="B93" s="13"/>
       <c r="C93" s="19" t="e">
-        <f>VLOOKUP(D93,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="22" t="e">
-        <f>VLOOKUP(G93,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
       <c r="I93" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J93" s="6"/>
@@ -2793,19 +2821,19 @@
       <c r="A94" s="6"/>
       <c r="B94" s="12"/>
       <c r="C94" s="18" t="e">
-        <f>VLOOKUP(D94,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="22" t="e">
-        <f>VLOOKUP(G94,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J94" s="6"/>
@@ -2814,19 +2842,19 @@
       <c r="A95" s="6"/>
       <c r="B95" s="13"/>
       <c r="C95" s="19" t="e">
-        <f>VLOOKUP(D95,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="22" t="e">
-        <f>VLOOKUP(G95,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
       <c r="I95" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J95" s="6"/>
@@ -2835,19 +2863,19 @@
       <c r="A96" s="6"/>
       <c r="B96" s="12"/>
       <c r="C96" s="18" t="e">
-        <f>VLOOKUP(D96,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="22" t="e">
-        <f>VLOOKUP(G96,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
       <c r="I96" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J96" s="6"/>
@@ -2856,19 +2884,19 @@
       <c r="A97" s="6"/>
       <c r="B97" s="13"/>
       <c r="C97" s="19" t="e">
-        <f>VLOOKUP(D97,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
       <c r="F97" s="22" t="e">
-        <f>VLOOKUP(G97,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
       <c r="I97" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J97" s="6"/>
@@ -2877,19 +2905,19 @@
       <c r="A98" s="6"/>
       <c r="B98" s="12"/>
       <c r="C98" s="18" t="e">
-        <f>VLOOKUP(D98,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="22" t="e">
-        <f>VLOOKUP(G98,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J98" s="6"/>
@@ -2898,19 +2926,19 @@
       <c r="A99" s="6"/>
       <c r="B99" s="13"/>
       <c r="C99" s="19" t="e">
-        <f>VLOOKUP(D99,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="22" t="e">
-        <f>VLOOKUP(G99,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
       <c r="I99" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J99" s="6"/>
@@ -2919,19 +2947,19 @@
       <c r="A100" s="6"/>
       <c r="B100" s="12"/>
       <c r="C100" s="18" t="e">
-        <f>VLOOKUP(D100,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="22" t="e">
-        <f>VLOOKUP(G100,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
       <c r="I100" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J100" s="6"/>
@@ -2940,19 +2968,19 @@
       <c r="A101" s="6"/>
       <c r="B101" s="13"/>
       <c r="C101" s="19" t="e">
-        <f>VLOOKUP(D101,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
       <c r="F101" s="22" t="e">
-        <f>VLOOKUP(G101,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
       <c r="I101" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J101" s="6"/>
@@ -2961,19 +2989,19 @@
       <c r="A102" s="6"/>
       <c r="B102" s="12"/>
       <c r="C102" s="18" t="e">
-        <f>VLOOKUP(D102,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="22" t="e">
-        <f>VLOOKUP(G102,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
       <c r="I102" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J102" s="6"/>
@@ -2982,19 +3010,19 @@
       <c r="A103" s="6"/>
       <c r="B103" s="13"/>
       <c r="C103" s="19" t="e">
-        <f>VLOOKUP(D103,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="22" t="e">
-        <f>VLOOKUP(G103,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
       <c r="I103" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J103" s="6"/>
@@ -3003,19 +3031,19 @@
       <c r="A104" s="6"/>
       <c r="B104" s="12"/>
       <c r="C104" s="18" t="e">
-        <f>VLOOKUP(D104,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="22" t="e">
-        <f>VLOOKUP(G104,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J104" s="6"/>
@@ -3024,19 +3052,19 @@
       <c r="A105" s="6"/>
       <c r="B105" s="13"/>
       <c r="C105" s="19" t="e">
-        <f>VLOOKUP(D105,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="22" t="e">
-        <f>VLOOKUP(G105,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
       <c r="I105" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J105" s="6"/>
@@ -3045,19 +3073,19 @@
       <c r="A106" s="6"/>
       <c r="B106" s="12"/>
       <c r="C106" s="18" t="e">
-        <f>VLOOKUP(D106,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="22" t="e">
-        <f>VLOOKUP(G106,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J106" s="6"/>
@@ -3066,19 +3094,19 @@
       <c r="A107" s="6"/>
       <c r="B107" s="13"/>
       <c r="C107" s="19" t="e">
-        <f>VLOOKUP(D107,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="22" t="e">
-        <f>VLOOKUP(G107,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
       <c r="I107" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J107" s="6"/>
@@ -3087,19 +3115,19 @@
       <c r="A108" s="6"/>
       <c r="B108" s="12"/>
       <c r="C108" s="18" t="e">
-        <f>VLOOKUP(D108,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="22" t="e">
-        <f>VLOOKUP(G108,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
       <c r="I108" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J108" s="6"/>
@@ -3108,19 +3136,19 @@
       <c r="A109" s="6"/>
       <c r="B109" s="13"/>
       <c r="C109" s="19" t="e">
-        <f>VLOOKUP(D109,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="22" t="e">
-        <f>VLOOKUP(G109,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
       <c r="I109" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J109" s="6"/>
@@ -3129,19 +3157,19 @@
       <c r="A110" s="6"/>
       <c r="B110" s="12"/>
       <c r="C110" s="18" t="e">
-        <f>VLOOKUP(D110,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="22" t="e">
-        <f>VLOOKUP(G110,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J110" s="6"/>
@@ -3150,19 +3178,19 @@
       <c r="A111" s="6"/>
       <c r="B111" s="13"/>
       <c r="C111" s="19" t="e">
-        <f>VLOOKUP(D111,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="22" t="e">
-        <f>VLOOKUP(G111,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
       <c r="I111" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J111" s="6"/>
@@ -3171,19 +3199,19 @@
       <c r="A112" s="6"/>
       <c r="B112" s="12"/>
       <c r="C112" s="18" t="e">
-        <f>VLOOKUP(D112,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="22" t="e">
-        <f>VLOOKUP(G112,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J112" s="6"/>
@@ -3192,19 +3220,19 @@
       <c r="A113" s="6"/>
       <c r="B113" s="13"/>
       <c r="C113" s="19" t="e">
-        <f>VLOOKUP(D113,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="22" t="e">
-        <f>VLOOKUP(G113,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
       <c r="I113" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J113" s="6"/>
@@ -3213,19 +3241,19 @@
       <c r="A114" s="6"/>
       <c r="B114" s="12"/>
       <c r="C114" s="18" t="e">
-        <f>VLOOKUP(D114,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="22" t="e">
-        <f>VLOOKUP(G114,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J114" s="6"/>
@@ -3234,19 +3262,19 @@
       <c r="A115" s="6"/>
       <c r="B115" s="13"/>
       <c r="C115" s="19" t="e">
-        <f>VLOOKUP(D115,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="22" t="e">
-        <f>VLOOKUP(G115,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
       <c r="I115" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J115" s="6"/>
@@ -3255,19 +3283,19 @@
       <c r="A116" s="6"/>
       <c r="B116" s="12"/>
       <c r="C116" s="18" t="e">
-        <f>VLOOKUP(D116,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="22" t="e">
-        <f>VLOOKUP(G116,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
       <c r="I116" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J116" s="6"/>
@@ -3276,19 +3304,19 @@
       <c r="A117" s="6"/>
       <c r="B117" s="13"/>
       <c r="C117" s="19" t="e">
-        <f>VLOOKUP(D117,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
       <c r="F117" s="22" t="e">
-        <f>VLOOKUP(G117,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
       <c r="I117" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J117" s="6"/>
@@ -3297,19 +3325,19 @@
       <c r="A118" s="6"/>
       <c r="B118" s="12"/>
       <c r="C118" s="18" t="e">
-        <f>VLOOKUP(D118,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="22" t="e">
-        <f>VLOOKUP(G118,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
       <c r="I118" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J118" s="6"/>
@@ -3318,19 +3346,19 @@
       <c r="A119" s="6"/>
       <c r="B119" s="13"/>
       <c r="C119" s="19" t="e">
-        <f>VLOOKUP(D119,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="22" t="e">
-        <f>VLOOKUP(G119,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G119" s="13"/>
       <c r="H119" s="13"/>
       <c r="I119" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J119" s="6"/>
@@ -3339,19 +3367,19 @@
       <c r="A120" s="6"/>
       <c r="B120" s="12"/>
       <c r="C120" s="18" t="e">
-        <f>VLOOKUP(D120,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="22" t="e">
-        <f>VLOOKUP(G120,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
       <c r="I120" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J120" s="6"/>
@@ -3360,19 +3388,19 @@
       <c r="A121" s="6"/>
       <c r="B121" s="13"/>
       <c r="C121" s="19" t="e">
-        <f>VLOOKUP(D121,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
       <c r="F121" s="22" t="e">
-        <f>VLOOKUP(G121,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G121" s="13"/>
       <c r="H121" s="13"/>
       <c r="I121" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J121" s="6"/>
@@ -3381,19 +3409,19 @@
       <c r="A122" s="6"/>
       <c r="B122" s="12"/>
       <c r="C122" s="18" t="e">
-        <f>VLOOKUP(D122,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="22" t="e">
-        <f>VLOOKUP(G122,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
       <c r="I122" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J122" s="6"/>
@@ -3402,19 +3430,19 @@
       <c r="A123" s="6"/>
       <c r="B123" s="13"/>
       <c r="C123" s="19" t="e">
-        <f>VLOOKUP(D123,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="22" t="e">
-        <f>VLOOKUP(G123,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G123" s="13"/>
       <c r="H123" s="13"/>
       <c r="I123" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J123" s="6"/>
@@ -3423,19 +3451,19 @@
       <c r="A124" s="6"/>
       <c r="B124" s="12"/>
       <c r="C124" s="18" t="e">
-        <f>VLOOKUP(D124,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
       <c r="F124" s="22" t="e">
-        <f>VLOOKUP(G124,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
       <c r="I124" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J124" s="6"/>
@@ -3444,19 +3472,19 @@
       <c r="A125" s="6"/>
       <c r="B125" s="13"/>
       <c r="C125" s="19" t="e">
-        <f>VLOOKUP(D125,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
       <c r="F125" s="22" t="e">
-        <f>VLOOKUP(G125,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G125" s="13"/>
       <c r="H125" s="13"/>
       <c r="I125" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J125" s="6"/>
@@ -3465,19 +3493,19 @@
       <c r="A126" s="6"/>
       <c r="B126" s="12"/>
       <c r="C126" s="18" t="e">
-        <f>VLOOKUP(D126,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="22" t="e">
-        <f>VLOOKUP(G126,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
       <c r="I126" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J126" s="6"/>
@@ -3486,19 +3514,19 @@
       <c r="A127" s="6"/>
       <c r="B127" s="13"/>
       <c r="C127" s="19" t="e">
-        <f>VLOOKUP(D127,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
       <c r="F127" s="22" t="e">
-        <f>VLOOKUP(G127,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G127" s="13"/>
       <c r="H127" s="13"/>
       <c r="I127" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J127" s="6"/>
@@ -3507,19 +3535,19 @@
       <c r="A128" s="6"/>
       <c r="B128" s="12"/>
       <c r="C128" s="18" t="e">
-        <f>VLOOKUP(D128,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
       <c r="F128" s="22" t="e">
-        <f>VLOOKUP(G128,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
       <c r="I128" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J128" s="6"/>
@@ -3528,19 +3556,19 @@
       <c r="A129" s="6"/>
       <c r="B129" s="13"/>
       <c r="C129" s="19" t="e">
-        <f>VLOOKUP(D129,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
       <c r="F129" s="22" t="e">
-        <f>VLOOKUP(G129,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G129" s="13"/>
       <c r="H129" s="13"/>
       <c r="I129" s="6" t="e">
-        <f t="shared" ref="I129:I192" si="2">VLOOKUP(J129,Tabla_Mes,2,)</f>
+        <f t="shared" ref="I129:I192" si="6">VLOOKUP(J129,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="J129" s="6"/>
@@ -3549,19 +3577,19 @@
       <c r="A130" s="6"/>
       <c r="B130" s="12"/>
       <c r="C130" s="18" t="e">
-        <f>VLOOKUP(D130,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
       <c r="F130" s="22" t="e">
-        <f>VLOOKUP(G130,Tabla_INI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
       <c r="I130" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J130" s="6"/>
@@ -3570,19 +3598,19 @@
       <c r="A131" s="6"/>
       <c r="B131" s="13"/>
       <c r="C131" s="19" t="e">
-        <f>VLOOKUP(D131,Tabla_BAU,2,)</f>
+        <f t="shared" ref="C131:C194" si="7">VLOOKUP(D131,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
       <c r="F131" s="22" t="e">
-        <f>VLOOKUP(G131,Tabla_INI,2,)</f>
+        <f t="shared" ref="F131:F194" si="8">VLOOKUP(G131,Tabla_INI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G131" s="13"/>
       <c r="H131" s="13"/>
       <c r="I131" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J131" s="6"/>
@@ -3591,19 +3619,19 @@
       <c r="A132" s="6"/>
       <c r="B132" s="12"/>
       <c r="C132" s="18" t="e">
-        <f>VLOOKUP(D132,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
       <c r="F132" s="22" t="e">
-        <f>VLOOKUP(G132,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
       <c r="I132" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J132" s="6"/>
@@ -3612,19 +3640,19 @@
       <c r="A133" s="6"/>
       <c r="B133" s="13"/>
       <c r="C133" s="19" t="e">
-        <f>VLOOKUP(D133,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
       <c r="F133" s="22" t="e">
-        <f>VLOOKUP(G133,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G133" s="13"/>
       <c r="H133" s="13"/>
       <c r="I133" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J133" s="6"/>
@@ -3633,19 +3661,19 @@
       <c r="A134" s="6"/>
       <c r="B134" s="12"/>
       <c r="C134" s="18" t="e">
-        <f>VLOOKUP(D134,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="22" t="e">
-        <f>VLOOKUP(G134,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
       <c r="I134" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J134" s="6"/>
@@ -3654,19 +3682,19 @@
       <c r="A135" s="6"/>
       <c r="B135" s="13"/>
       <c r="C135" s="19" t="e">
-        <f>VLOOKUP(D135,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
       <c r="F135" s="22" t="e">
-        <f>VLOOKUP(G135,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G135" s="13"/>
       <c r="H135" s="13"/>
       <c r="I135" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J135" s="6"/>
@@ -3675,19 +3703,19 @@
       <c r="A136" s="6"/>
       <c r="B136" s="12"/>
       <c r="C136" s="18" t="e">
-        <f>VLOOKUP(D136,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
       <c r="F136" s="22" t="e">
-        <f>VLOOKUP(G136,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
       <c r="I136" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J136" s="6"/>
@@ -3696,19 +3724,19 @@
       <c r="A137" s="6"/>
       <c r="B137" s="13"/>
       <c r="C137" s="19" t="e">
-        <f>VLOOKUP(D137,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
       <c r="F137" s="22" t="e">
-        <f>VLOOKUP(G137,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G137" s="13"/>
       <c r="H137" s="13"/>
       <c r="I137" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J137" s="6"/>
@@ -3717,19 +3745,19 @@
       <c r="A138" s="6"/>
       <c r="B138" s="12"/>
       <c r="C138" s="18" t="e">
-        <f>VLOOKUP(D138,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="22" t="e">
-        <f>VLOOKUP(G138,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
       <c r="I138" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J138" s="6"/>
@@ -3738,19 +3766,19 @@
       <c r="A139" s="6"/>
       <c r="B139" s="13"/>
       <c r="C139" s="19" t="e">
-        <f>VLOOKUP(D139,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
       <c r="F139" s="22" t="e">
-        <f>VLOOKUP(G139,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="13"/>
       <c r="I139" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J139" s="6"/>
@@ -3759,19 +3787,19 @@
       <c r="A140" s="6"/>
       <c r="B140" s="12"/>
       <c r="C140" s="18" t="e">
-        <f>VLOOKUP(D140,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="22" t="e">
-        <f>VLOOKUP(G140,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
       <c r="I140" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J140" s="6"/>
@@ -3780,19 +3808,19 @@
       <c r="A141" s="6"/>
       <c r="B141" s="13"/>
       <c r="C141" s="19" t="e">
-        <f>VLOOKUP(D141,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
       <c r="F141" s="22" t="e">
-        <f>VLOOKUP(G141,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G141" s="13"/>
       <c r="H141" s="13"/>
       <c r="I141" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J141" s="6"/>
@@ -3801,19 +3829,19 @@
       <c r="A142" s="6"/>
       <c r="B142" s="12"/>
       <c r="C142" s="18" t="e">
-        <f>VLOOKUP(D142,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
       <c r="F142" s="22" t="e">
-        <f>VLOOKUP(G142,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
       <c r="I142" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J142" s="6"/>
@@ -3822,19 +3850,19 @@
       <c r="A143" s="6"/>
       <c r="B143" s="13"/>
       <c r="C143" s="19" t="e">
-        <f>VLOOKUP(D143,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D143" s="13"/>
       <c r="E143" s="13"/>
       <c r="F143" s="22" t="e">
-        <f>VLOOKUP(G143,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G143" s="13"/>
       <c r="H143" s="13"/>
       <c r="I143" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J143" s="6"/>
@@ -3843,19 +3871,19 @@
       <c r="A144" s="6"/>
       <c r="B144" s="12"/>
       <c r="C144" s="18" t="e">
-        <f>VLOOKUP(D144,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
       <c r="F144" s="22" t="e">
-        <f>VLOOKUP(G144,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
       <c r="I144" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J144" s="6"/>
@@ -3864,19 +3892,19 @@
       <c r="A145" s="6"/>
       <c r="B145" s="13"/>
       <c r="C145" s="19" t="e">
-        <f>VLOOKUP(D145,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
       <c r="F145" s="22" t="e">
-        <f>VLOOKUP(G145,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G145" s="13"/>
       <c r="H145" s="13"/>
       <c r="I145" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J145" s="6"/>
@@ -3885,19 +3913,19 @@
       <c r="A146" s="6"/>
       <c r="B146" s="12"/>
       <c r="C146" s="18" t="e">
-        <f>VLOOKUP(D146,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
       <c r="F146" s="22" t="e">
-        <f>VLOOKUP(G146,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J146" s="6"/>
@@ -3906,19 +3934,19 @@
       <c r="A147" s="6"/>
       <c r="B147" s="13"/>
       <c r="C147" s="19" t="e">
-        <f>VLOOKUP(D147,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
       <c r="F147" s="22" t="e">
-        <f>VLOOKUP(G147,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G147" s="13"/>
       <c r="H147" s="13"/>
       <c r="I147" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J147" s="6"/>
@@ -3927,19 +3955,19 @@
       <c r="A148" s="6"/>
       <c r="B148" s="12"/>
       <c r="C148" s="18" t="e">
-        <f>VLOOKUP(D148,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
       <c r="F148" s="22" t="e">
-        <f>VLOOKUP(G148,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
       <c r="I148" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J148" s="6"/>
@@ -3948,19 +3976,19 @@
       <c r="A149" s="6"/>
       <c r="B149" s="13"/>
       <c r="C149" s="19" t="e">
-        <f>VLOOKUP(D149,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D149" s="13"/>
       <c r="E149" s="13"/>
       <c r="F149" s="22" t="e">
-        <f>VLOOKUP(G149,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G149" s="13"/>
       <c r="H149" s="13"/>
       <c r="I149" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J149" s="6"/>
@@ -3969,19 +3997,19 @@
       <c r="A150" s="6"/>
       <c r="B150" s="12"/>
       <c r="C150" s="18" t="e">
-        <f>VLOOKUP(D150,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
       <c r="F150" s="22" t="e">
-        <f>VLOOKUP(G150,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
       <c r="I150" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J150" s="6"/>
@@ -3990,19 +4018,19 @@
       <c r="A151" s="6"/>
       <c r="B151" s="13"/>
       <c r="C151" s="19" t="e">
-        <f>VLOOKUP(D151,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
       <c r="F151" s="22" t="e">
-        <f>VLOOKUP(G151,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G151" s="13"/>
       <c r="H151" s="13"/>
       <c r="I151" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J151" s="6"/>
@@ -4011,19 +4039,19 @@
       <c r="A152" s="6"/>
       <c r="B152" s="12"/>
       <c r="C152" s="18" t="e">
-        <f>VLOOKUP(D152,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
       <c r="F152" s="22" t="e">
-        <f>VLOOKUP(G152,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G152" s="12"/>
       <c r="H152" s="12"/>
       <c r="I152" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J152" s="6"/>
@@ -4032,19 +4060,19 @@
       <c r="A153" s="6"/>
       <c r="B153" s="13"/>
       <c r="C153" s="19" t="e">
-        <f>VLOOKUP(D153,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
       <c r="F153" s="22" t="e">
-        <f>VLOOKUP(G153,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G153" s="13"/>
       <c r="H153" s="13"/>
       <c r="I153" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J153" s="6"/>
@@ -4053,19 +4081,19 @@
       <c r="A154" s="6"/>
       <c r="B154" s="12"/>
       <c r="C154" s="18" t="e">
-        <f>VLOOKUP(D154,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
       <c r="F154" s="22" t="e">
-        <f>VLOOKUP(G154,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
       <c r="I154" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J154" s="6"/>
@@ -4074,19 +4102,19 @@
       <c r="A155" s="6"/>
       <c r="B155" s="13"/>
       <c r="C155" s="19" t="e">
-        <f>VLOOKUP(D155,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D155" s="13"/>
       <c r="E155" s="13"/>
       <c r="F155" s="22" t="e">
-        <f>VLOOKUP(G155,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G155" s="13"/>
       <c r="H155" s="13"/>
       <c r="I155" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J155" s="6"/>
@@ -4095,19 +4123,19 @@
       <c r="A156" s="6"/>
       <c r="B156" s="12"/>
       <c r="C156" s="18" t="e">
-        <f>VLOOKUP(D156,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D156" s="12"/>
       <c r="E156" s="12"/>
       <c r="F156" s="22" t="e">
-        <f>VLOOKUP(G156,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G156" s="12"/>
       <c r="H156" s="12"/>
       <c r="I156" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J156" s="6"/>
@@ -4116,19 +4144,19 @@
       <c r="A157" s="6"/>
       <c r="B157" s="13"/>
       <c r="C157" s="19" t="e">
-        <f>VLOOKUP(D157,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D157" s="13"/>
       <c r="E157" s="13"/>
       <c r="F157" s="22" t="e">
-        <f>VLOOKUP(G157,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G157" s="13"/>
       <c r="H157" s="13"/>
       <c r="I157" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J157" s="6"/>
@@ -4137,19 +4165,19 @@
       <c r="A158" s="6"/>
       <c r="B158" s="12"/>
       <c r="C158" s="18" t="e">
-        <f>VLOOKUP(D158,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
       <c r="F158" s="22" t="e">
-        <f>VLOOKUP(G158,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
       <c r="I158" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J158" s="6"/>
@@ -4158,19 +4186,19 @@
       <c r="A159" s="6"/>
       <c r="B159" s="13"/>
       <c r="C159" s="19" t="e">
-        <f>VLOOKUP(D159,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
       <c r="F159" s="22" t="e">
-        <f>VLOOKUP(G159,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G159" s="13"/>
       <c r="H159" s="13"/>
       <c r="I159" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J159" s="6"/>
@@ -4179,19 +4207,19 @@
       <c r="A160" s="6"/>
       <c r="B160" s="12"/>
       <c r="C160" s="18" t="e">
-        <f>VLOOKUP(D160,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
       <c r="F160" s="22" t="e">
-        <f>VLOOKUP(G160,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
       <c r="I160" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J160" s="6"/>
@@ -4200,19 +4228,19 @@
       <c r="A161" s="6"/>
       <c r="B161" s="13"/>
       <c r="C161" s="19" t="e">
-        <f>VLOOKUP(D161,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
       <c r="F161" s="22" t="e">
-        <f>VLOOKUP(G161,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G161" s="13"/>
       <c r="H161" s="13"/>
       <c r="I161" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J161" s="6"/>
@@ -4221,19 +4249,19 @@
       <c r="A162" s="6"/>
       <c r="B162" s="12"/>
       <c r="C162" s="18" t="e">
-        <f>VLOOKUP(D162,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
       <c r="F162" s="22" t="e">
-        <f>VLOOKUP(G162,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G162" s="12"/>
       <c r="H162" s="12"/>
       <c r="I162" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J162" s="6"/>
@@ -4242,19 +4270,19 @@
       <c r="A163" s="6"/>
       <c r="B163" s="13"/>
       <c r="C163" s="19" t="e">
-        <f>VLOOKUP(D163,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D163" s="13"/>
       <c r="E163" s="13"/>
       <c r="F163" s="22" t="e">
-        <f>VLOOKUP(G163,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G163" s="13"/>
       <c r="H163" s="13"/>
       <c r="I163" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J163" s="6"/>
@@ -4263,19 +4291,19 @@
       <c r="A164" s="6"/>
       <c r="B164" s="12"/>
       <c r="C164" s="18" t="e">
-        <f>VLOOKUP(D164,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
       <c r="F164" s="22" t="e">
-        <f>VLOOKUP(G164,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
       <c r="I164" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J164" s="6"/>
@@ -4284,19 +4312,19 @@
       <c r="A165" s="6"/>
       <c r="B165" s="13"/>
       <c r="C165" s="19" t="e">
-        <f>VLOOKUP(D165,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
       <c r="F165" s="22" t="e">
-        <f>VLOOKUP(G165,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G165" s="13"/>
       <c r="H165" s="13"/>
       <c r="I165" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J165" s="6"/>
@@ -4305,19 +4333,19 @@
       <c r="A166" s="6"/>
       <c r="B166" s="12"/>
       <c r="C166" s="18" t="e">
-        <f>VLOOKUP(D166,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
       <c r="F166" s="22" t="e">
-        <f>VLOOKUP(G166,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G166" s="12"/>
       <c r="H166" s="12"/>
       <c r="I166" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J166" s="6"/>
@@ -4326,19 +4354,19 @@
       <c r="A167" s="6"/>
       <c r="B167" s="13"/>
       <c r="C167" s="19" t="e">
-        <f>VLOOKUP(D167,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
       <c r="F167" s="22" t="e">
-        <f>VLOOKUP(G167,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G167" s="13"/>
       <c r="H167" s="13"/>
       <c r="I167" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J167" s="6"/>
@@ -4347,19 +4375,19 @@
       <c r="A168" s="6"/>
       <c r="B168" s="12"/>
       <c r="C168" s="18" t="e">
-        <f>VLOOKUP(D168,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
       <c r="F168" s="22" t="e">
-        <f>VLOOKUP(G168,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
       <c r="I168" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J168" s="6"/>
@@ -4368,19 +4396,19 @@
       <c r="A169" s="6"/>
       <c r="B169" s="13"/>
       <c r="C169" s="19" t="e">
-        <f>VLOOKUP(D169,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D169" s="13"/>
       <c r="E169" s="13"/>
       <c r="F169" s="22" t="e">
-        <f>VLOOKUP(G169,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G169" s="13"/>
       <c r="H169" s="13"/>
       <c r="I169" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J169" s="6"/>
@@ -4389,19 +4417,19 @@
       <c r="A170" s="6"/>
       <c r="B170" s="12"/>
       <c r="C170" s="18" t="e">
-        <f>VLOOKUP(D170,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
       <c r="F170" s="22" t="e">
-        <f>VLOOKUP(G170,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
       <c r="I170" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J170" s="6"/>
@@ -4410,19 +4438,19 @@
       <c r="A171" s="6"/>
       <c r="B171" s="13"/>
       <c r="C171" s="19" t="e">
-        <f>VLOOKUP(D171,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
       <c r="F171" s="22" t="e">
-        <f>VLOOKUP(G171,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G171" s="13"/>
       <c r="H171" s="13"/>
       <c r="I171" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J171" s="6"/>
@@ -4431,19 +4459,19 @@
       <c r="A172" s="6"/>
       <c r="B172" s="12"/>
       <c r="C172" s="18" t="e">
-        <f>VLOOKUP(D172,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
       <c r="F172" s="22" t="e">
-        <f>VLOOKUP(G172,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G172" s="12"/>
       <c r="H172" s="12"/>
       <c r="I172" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J172" s="6"/>
@@ -4452,19 +4480,19 @@
       <c r="A173" s="6"/>
       <c r="B173" s="13"/>
       <c r="C173" s="19" t="e">
-        <f>VLOOKUP(D173,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
       <c r="F173" s="22" t="e">
-        <f>VLOOKUP(G173,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G173" s="13"/>
       <c r="H173" s="13"/>
       <c r="I173" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J173" s="6"/>
@@ -4473,19 +4501,19 @@
       <c r="A174" s="6"/>
       <c r="B174" s="12"/>
       <c r="C174" s="18" t="e">
-        <f>VLOOKUP(D174,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D174" s="12"/>
       <c r="E174" s="12"/>
       <c r="F174" s="22" t="e">
-        <f>VLOOKUP(G174,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
       <c r="I174" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J174" s="6"/>
@@ -4494,19 +4522,19 @@
       <c r="A175" s="6"/>
       <c r="B175" s="13"/>
       <c r="C175" s="19" t="e">
-        <f>VLOOKUP(D175,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
       <c r="F175" s="22" t="e">
-        <f>VLOOKUP(G175,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G175" s="13"/>
       <c r="H175" s="13"/>
       <c r="I175" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J175" s="6"/>
@@ -4515,19 +4543,19 @@
       <c r="A176" s="6"/>
       <c r="B176" s="12"/>
       <c r="C176" s="18" t="e">
-        <f>VLOOKUP(D176,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D176" s="12"/>
       <c r="E176" s="12"/>
       <c r="F176" s="22" t="e">
-        <f>VLOOKUP(G176,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
       <c r="I176" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J176" s="6"/>
@@ -4536,19 +4564,19 @@
       <c r="A177" s="6"/>
       <c r="B177" s="13"/>
       <c r="C177" s="19" t="e">
-        <f>VLOOKUP(D177,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
       <c r="F177" s="22" t="e">
-        <f>VLOOKUP(G177,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G177" s="13"/>
       <c r="H177" s="13"/>
       <c r="I177" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J177" s="6"/>
@@ -4557,19 +4585,19 @@
       <c r="A178" s="6"/>
       <c r="B178" s="12"/>
       <c r="C178" s="18" t="e">
-        <f>VLOOKUP(D178,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D178" s="12"/>
       <c r="E178" s="12"/>
       <c r="F178" s="22" t="e">
-        <f>VLOOKUP(G178,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
       <c r="I178" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J178" s="6"/>
@@ -4578,19 +4606,19 @@
       <c r="A179" s="6"/>
       <c r="B179" s="13"/>
       <c r="C179" s="19" t="e">
-        <f>VLOOKUP(D179,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
       <c r="F179" s="22" t="e">
-        <f>VLOOKUP(G179,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G179" s="13"/>
       <c r="H179" s="13"/>
       <c r="I179" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J179" s="6"/>
@@ -4599,19 +4627,19 @@
       <c r="A180" s="6"/>
       <c r="B180" s="12"/>
       <c r="C180" s="18" t="e">
-        <f>VLOOKUP(D180,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D180" s="12"/>
       <c r="E180" s="12"/>
       <c r="F180" s="22" t="e">
-        <f>VLOOKUP(G180,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
       <c r="I180" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J180" s="6"/>
@@ -4620,19 +4648,19 @@
       <c r="A181" s="6"/>
       <c r="B181" s="13"/>
       <c r="C181" s="19" t="e">
-        <f>VLOOKUP(D181,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
       <c r="F181" s="22" t="e">
-        <f>VLOOKUP(G181,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G181" s="13"/>
       <c r="H181" s="13"/>
       <c r="I181" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J181" s="6"/>
@@ -4641,19 +4669,19 @@
       <c r="A182" s="6"/>
       <c r="B182" s="12"/>
       <c r="C182" s="18" t="e">
-        <f>VLOOKUP(D182,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D182" s="12"/>
       <c r="E182" s="12"/>
       <c r="F182" s="22" t="e">
-        <f>VLOOKUP(G182,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
       <c r="I182" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J182" s="6"/>
@@ -4662,19 +4690,19 @@
       <c r="A183" s="6"/>
       <c r="B183" s="13"/>
       <c r="C183" s="19" t="e">
-        <f>VLOOKUP(D183,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
       <c r="F183" s="22" t="e">
-        <f>VLOOKUP(G183,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G183" s="13"/>
       <c r="H183" s="13"/>
       <c r="I183" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J183" s="6"/>
@@ -4683,19 +4711,19 @@
       <c r="A184" s="6"/>
       <c r="B184" s="12"/>
       <c r="C184" s="18" t="e">
-        <f>VLOOKUP(D184,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D184" s="12"/>
       <c r="E184" s="12"/>
       <c r="F184" s="22" t="e">
-        <f>VLOOKUP(G184,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
       <c r="I184" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J184" s="6"/>
@@ -4704,19 +4732,19 @@
       <c r="A185" s="6"/>
       <c r="B185" s="13"/>
       <c r="C185" s="19" t="e">
-        <f>VLOOKUP(D185,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
       <c r="F185" s="22" t="e">
-        <f>VLOOKUP(G185,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G185" s="13"/>
       <c r="H185" s="13"/>
       <c r="I185" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J185" s="6"/>
@@ -4725,19 +4753,19 @@
       <c r="A186" s="6"/>
       <c r="B186" s="12"/>
       <c r="C186" s="18" t="e">
-        <f>VLOOKUP(D186,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D186" s="12"/>
       <c r="E186" s="12"/>
       <c r="F186" s="22" t="e">
-        <f>VLOOKUP(G186,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
       <c r="I186" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J186" s="6"/>
@@ -4746,19 +4774,19 @@
       <c r="A187" s="6"/>
       <c r="B187" s="13"/>
       <c r="C187" s="19" t="e">
-        <f>VLOOKUP(D187,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D187" s="13"/>
       <c r="E187" s="13"/>
       <c r="F187" s="22" t="e">
-        <f>VLOOKUP(G187,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G187" s="13"/>
       <c r="H187" s="13"/>
       <c r="I187" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J187" s="6"/>
@@ -4767,19 +4795,19 @@
       <c r="A188" s="6"/>
       <c r="B188" s="12"/>
       <c r="C188" s="18" t="e">
-        <f>VLOOKUP(D188,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
       <c r="F188" s="22" t="e">
-        <f>VLOOKUP(G188,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
       <c r="I188" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J188" s="6"/>
@@ -4788,19 +4816,19 @@
       <c r="A189" s="6"/>
       <c r="B189" s="13"/>
       <c r="C189" s="19" t="e">
-        <f>VLOOKUP(D189,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D189" s="13"/>
       <c r="E189" s="13"/>
       <c r="F189" s="22" t="e">
-        <f>VLOOKUP(G189,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G189" s="13"/>
       <c r="H189" s="13"/>
       <c r="I189" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J189" s="6"/>
@@ -4809,19 +4837,19 @@
       <c r="A190" s="6"/>
       <c r="B190" s="12"/>
       <c r="C190" s="18" t="e">
-        <f>VLOOKUP(D190,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D190" s="12"/>
       <c r="E190" s="12"/>
       <c r="F190" s="22" t="e">
-        <f>VLOOKUP(G190,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
       <c r="I190" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J190" s="6"/>
@@ -4830,19 +4858,19 @@
       <c r="A191" s="6"/>
       <c r="B191" s="13"/>
       <c r="C191" s="19" t="e">
-        <f>VLOOKUP(D191,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
       <c r="F191" s="22" t="e">
-        <f>VLOOKUP(G191,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G191" s="13"/>
       <c r="H191" s="13"/>
       <c r="I191" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J191" s="6"/>
@@ -4851,19 +4879,19 @@
       <c r="A192" s="6"/>
       <c r="B192" s="12"/>
       <c r="C192" s="18" t="e">
-        <f>VLOOKUP(D192,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
       <c r="F192" s="22" t="e">
-        <f>VLOOKUP(G192,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G192" s="12"/>
       <c r="H192" s="12"/>
       <c r="I192" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J192" s="6"/>
@@ -4872,19 +4900,19 @@
       <c r="A193" s="6"/>
       <c r="B193" s="13"/>
       <c r="C193" s="19" t="e">
-        <f>VLOOKUP(D193,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D193" s="13"/>
       <c r="E193" s="13"/>
       <c r="F193" s="22" t="e">
-        <f>VLOOKUP(G193,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G193" s="13"/>
       <c r="H193" s="13"/>
       <c r="I193" s="6" t="e">
-        <f t="shared" ref="I193:I256" si="3">VLOOKUP(J193,Tabla_Mes,2,)</f>
+        <f t="shared" ref="I193:I256" si="9">VLOOKUP(J193,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="J193" s="6"/>
@@ -4893,19 +4921,19 @@
       <c r="A194" s="6"/>
       <c r="B194" s="12"/>
       <c r="C194" s="18" t="e">
-        <f>VLOOKUP(D194,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D194" s="12"/>
       <c r="E194" s="12"/>
       <c r="F194" s="22" t="e">
-        <f>VLOOKUP(G194,Tabla_INI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
       <c r="I194" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J194" s="6"/>
@@ -4914,19 +4942,19 @@
       <c r="A195" s="6"/>
       <c r="B195" s="13"/>
       <c r="C195" s="19" t="e">
-        <f>VLOOKUP(D195,Tabla_BAU,2,)</f>
+        <f t="shared" ref="C195:C258" si="10">VLOOKUP(D195,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
       <c r="F195" s="22" t="e">
-        <f>VLOOKUP(G195,Tabla_INI,2,)</f>
+        <f t="shared" ref="F195:F258" si="11">VLOOKUP(G195,Tabla_INI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G195" s="13"/>
       <c r="H195" s="13"/>
       <c r="I195" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J195" s="6"/>
@@ -4935,19 +4963,19 @@
       <c r="A196" s="6"/>
       <c r="B196" s="12"/>
       <c r="C196" s="18" t="e">
-        <f>VLOOKUP(D196,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D196" s="12"/>
       <c r="E196" s="12"/>
       <c r="F196" s="22" t="e">
-        <f>VLOOKUP(G196,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
       <c r="I196" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J196" s="6"/>
@@ -4956,19 +4984,19 @@
       <c r="A197" s="6"/>
       <c r="B197" s="13"/>
       <c r="C197" s="19" t="e">
-        <f>VLOOKUP(D197,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
       <c r="F197" s="22" t="e">
-        <f>VLOOKUP(G197,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G197" s="13"/>
       <c r="H197" s="13"/>
       <c r="I197" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J197" s="6"/>
@@ -4977,19 +5005,19 @@
       <c r="A198" s="6"/>
       <c r="B198" s="12"/>
       <c r="C198" s="18" t="e">
-        <f>VLOOKUP(D198,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
       <c r="F198" s="22" t="e">
-        <f>VLOOKUP(G198,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
       <c r="I198" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J198" s="6"/>
@@ -4998,19 +5026,19 @@
       <c r="A199" s="6"/>
       <c r="B199" s="13"/>
       <c r="C199" s="19" t="e">
-        <f>VLOOKUP(D199,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D199" s="13"/>
       <c r="E199" s="13"/>
       <c r="F199" s="22" t="e">
-        <f>VLOOKUP(G199,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G199" s="13"/>
       <c r="H199" s="13"/>
       <c r="I199" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J199" s="6"/>
@@ -5019,19 +5047,19 @@
       <c r="A200" s="6"/>
       <c r="B200" s="12"/>
       <c r="C200" s="18" t="e">
-        <f>VLOOKUP(D200,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D200" s="12"/>
       <c r="E200" s="12"/>
       <c r="F200" s="22" t="e">
-        <f>VLOOKUP(G200,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
       <c r="I200" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J200" s="6"/>
@@ -5040,19 +5068,19 @@
       <c r="A201" s="6"/>
       <c r="B201" s="13"/>
       <c r="C201" s="19" t="e">
-        <f>VLOOKUP(D201,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D201" s="13"/>
       <c r="E201" s="13"/>
       <c r="F201" s="22" t="e">
-        <f>VLOOKUP(G201,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G201" s="13"/>
       <c r="H201" s="13"/>
       <c r="I201" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J201" s="6"/>
@@ -5061,19 +5089,19 @@
       <c r="A202" s="6"/>
       <c r="B202" s="12"/>
       <c r="C202" s="18" t="e">
-        <f>VLOOKUP(D202,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D202" s="12"/>
       <c r="E202" s="12"/>
       <c r="F202" s="22" t="e">
-        <f>VLOOKUP(G202,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
       <c r="I202" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J202" s="6"/>
@@ -5082,19 +5110,19 @@
       <c r="A203" s="6"/>
       <c r="B203" s="13"/>
       <c r="C203" s="19" t="e">
-        <f>VLOOKUP(D203,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D203" s="13"/>
       <c r="E203" s="13"/>
       <c r="F203" s="22" t="e">
-        <f>VLOOKUP(G203,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G203" s="13"/>
       <c r="H203" s="13"/>
       <c r="I203" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J203" s="6"/>
@@ -5103,19 +5131,19 @@
       <c r="A204" s="6"/>
       <c r="B204" s="12"/>
       <c r="C204" s="18" t="e">
-        <f>VLOOKUP(D204,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D204" s="12"/>
       <c r="E204" s="12"/>
       <c r="F204" s="22" t="e">
-        <f>VLOOKUP(G204,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G204" s="12"/>
       <c r="H204" s="12"/>
       <c r="I204" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J204" s="6"/>
@@ -5124,19 +5152,19 @@
       <c r="A205" s="6"/>
       <c r="B205" s="13"/>
       <c r="C205" s="19" t="e">
-        <f>VLOOKUP(D205,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D205" s="13"/>
       <c r="E205" s="13"/>
       <c r="F205" s="22" t="e">
-        <f>VLOOKUP(G205,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G205" s="13"/>
       <c r="H205" s="13"/>
       <c r="I205" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J205" s="6"/>
@@ -5145,19 +5173,19 @@
       <c r="A206" s="6"/>
       <c r="B206" s="12"/>
       <c r="C206" s="18" t="e">
-        <f>VLOOKUP(D206,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D206" s="12"/>
       <c r="E206" s="12"/>
       <c r="F206" s="22" t="e">
-        <f>VLOOKUP(G206,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G206" s="12"/>
       <c r="H206" s="12"/>
       <c r="I206" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J206" s="6"/>
@@ -5166,19 +5194,19 @@
       <c r="A207" s="6"/>
       <c r="B207" s="13"/>
       <c r="C207" s="19" t="e">
-        <f>VLOOKUP(D207,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D207" s="13"/>
       <c r="E207" s="13"/>
       <c r="F207" s="22" t="e">
-        <f>VLOOKUP(G207,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G207" s="13"/>
       <c r="H207" s="13"/>
       <c r="I207" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J207" s="6"/>
@@ -5187,19 +5215,19 @@
       <c r="A208" s="6"/>
       <c r="B208" s="12"/>
       <c r="C208" s="18" t="e">
-        <f>VLOOKUP(D208,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D208" s="12"/>
       <c r="E208" s="12"/>
       <c r="F208" s="22" t="e">
-        <f>VLOOKUP(G208,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G208" s="12"/>
       <c r="H208" s="12"/>
       <c r="I208" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J208" s="6"/>
@@ -5208,19 +5236,19 @@
       <c r="A209" s="6"/>
       <c r="B209" s="13"/>
       <c r="C209" s="19" t="e">
-        <f>VLOOKUP(D209,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D209" s="13"/>
       <c r="E209" s="13"/>
       <c r="F209" s="22" t="e">
-        <f>VLOOKUP(G209,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G209" s="13"/>
       <c r="H209" s="13"/>
       <c r="I209" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J209" s="6"/>
@@ -5229,19 +5257,19 @@
       <c r="A210" s="6"/>
       <c r="B210" s="12"/>
       <c r="C210" s="18" t="e">
-        <f>VLOOKUP(D210,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D210" s="12"/>
       <c r="E210" s="12"/>
       <c r="F210" s="22" t="e">
-        <f>VLOOKUP(G210,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G210" s="12"/>
       <c r="H210" s="12"/>
       <c r="I210" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J210" s="6"/>
@@ -5250,19 +5278,19 @@
       <c r="A211" s="6"/>
       <c r="B211" s="13"/>
       <c r="C211" s="19" t="e">
-        <f>VLOOKUP(D211,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D211" s="13"/>
       <c r="E211" s="13"/>
       <c r="F211" s="22" t="e">
-        <f>VLOOKUP(G211,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G211" s="13"/>
       <c r="H211" s="13"/>
       <c r="I211" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J211" s="6"/>
@@ -5271,19 +5299,19 @@
       <c r="A212" s="6"/>
       <c r="B212" s="12"/>
       <c r="C212" s="18" t="e">
-        <f>VLOOKUP(D212,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="22" t="e">
-        <f>VLOOKUP(G212,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G212" s="12"/>
       <c r="H212" s="12"/>
       <c r="I212" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J212" s="6"/>
@@ -5292,19 +5320,19 @@
       <c r="A213" s="6"/>
       <c r="B213" s="13"/>
       <c r="C213" s="19" t="e">
-        <f>VLOOKUP(D213,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D213" s="13"/>
       <c r="E213" s="13"/>
       <c r="F213" s="22" t="e">
-        <f>VLOOKUP(G213,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G213" s="13"/>
       <c r="H213" s="13"/>
       <c r="I213" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J213" s="6"/>
@@ -5313,19 +5341,19 @@
       <c r="A214" s="6"/>
       <c r="B214" s="12"/>
       <c r="C214" s="18" t="e">
-        <f>VLOOKUP(D214,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
       <c r="F214" s="22" t="e">
-        <f>VLOOKUP(G214,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G214" s="12"/>
       <c r="H214" s="12"/>
       <c r="I214" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J214" s="6"/>
@@ -5334,19 +5362,19 @@
       <c r="A215" s="6"/>
       <c r="B215" s="13"/>
       <c r="C215" s="19" t="e">
-        <f>VLOOKUP(D215,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
       <c r="F215" s="22" t="e">
-        <f>VLOOKUP(G215,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G215" s="13"/>
       <c r="H215" s="13"/>
       <c r="I215" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J215" s="6"/>
@@ -5355,19 +5383,19 @@
       <c r="A216" s="6"/>
       <c r="B216" s="12"/>
       <c r="C216" s="18" t="e">
-        <f>VLOOKUP(D216,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D216" s="12"/>
       <c r="E216" s="12"/>
       <c r="F216" s="22" t="e">
-        <f>VLOOKUP(G216,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G216" s="12"/>
       <c r="H216" s="12"/>
       <c r="I216" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J216" s="6"/>
@@ -5376,19 +5404,19 @@
       <c r="A217" s="6"/>
       <c r="B217" s="13"/>
       <c r="C217" s="19" t="e">
-        <f>VLOOKUP(D217,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
       <c r="F217" s="22" t="e">
-        <f>VLOOKUP(G217,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G217" s="13"/>
       <c r="H217" s="13"/>
       <c r="I217" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J217" s="6"/>
@@ -5397,19 +5425,19 @@
       <c r="A218" s="6"/>
       <c r="B218" s="12"/>
       <c r="C218" s="18" t="e">
-        <f>VLOOKUP(D218,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D218" s="12"/>
       <c r="E218" s="12"/>
       <c r="F218" s="22" t="e">
-        <f>VLOOKUP(G218,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G218" s="12"/>
       <c r="H218" s="12"/>
       <c r="I218" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J218" s="6"/>
@@ -5418,19 +5446,19 @@
       <c r="A219" s="6"/>
       <c r="B219" s="13"/>
       <c r="C219" s="19" t="e">
-        <f>VLOOKUP(D219,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D219" s="13"/>
       <c r="E219" s="13"/>
       <c r="F219" s="22" t="e">
-        <f>VLOOKUP(G219,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G219" s="13"/>
       <c r="H219" s="13"/>
       <c r="I219" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J219" s="6"/>
@@ -5439,19 +5467,19 @@
       <c r="A220" s="6"/>
       <c r="B220" s="12"/>
       <c r="C220" s="18" t="e">
-        <f>VLOOKUP(D220,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D220" s="12"/>
       <c r="E220" s="12"/>
       <c r="F220" s="22" t="e">
-        <f>VLOOKUP(G220,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G220" s="12"/>
       <c r="H220" s="12"/>
       <c r="I220" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J220" s="6"/>
@@ -5460,19 +5488,19 @@
       <c r="A221" s="6"/>
       <c r="B221" s="13"/>
       <c r="C221" s="19" t="e">
-        <f>VLOOKUP(D221,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D221" s="13"/>
       <c r="E221" s="13"/>
       <c r="F221" s="22" t="e">
-        <f>VLOOKUP(G221,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G221" s="13"/>
       <c r="H221" s="13"/>
       <c r="I221" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J221" s="6"/>
@@ -5481,19 +5509,19 @@
       <c r="A222" s="6"/>
       <c r="B222" s="12"/>
       <c r="C222" s="18" t="e">
-        <f>VLOOKUP(D222,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D222" s="12"/>
       <c r="E222" s="12"/>
       <c r="F222" s="22" t="e">
-        <f>VLOOKUP(G222,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G222" s="12"/>
       <c r="H222" s="12"/>
       <c r="I222" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J222" s="6"/>
@@ -5502,19 +5530,19 @@
       <c r="A223" s="6"/>
       <c r="B223" s="13"/>
       <c r="C223" s="19" t="e">
-        <f>VLOOKUP(D223,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D223" s="13"/>
       <c r="E223" s="13"/>
       <c r="F223" s="22" t="e">
-        <f>VLOOKUP(G223,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G223" s="13"/>
       <c r="H223" s="13"/>
       <c r="I223" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J223" s="6"/>
@@ -5523,19 +5551,19 @@
       <c r="A224" s="6"/>
       <c r="B224" s="12"/>
       <c r="C224" s="18" t="e">
-        <f>VLOOKUP(D224,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D224" s="12"/>
       <c r="E224" s="12"/>
       <c r="F224" s="22" t="e">
-        <f>VLOOKUP(G224,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G224" s="12"/>
       <c r="H224" s="12"/>
       <c r="I224" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J224" s="6"/>
@@ -5544,19 +5572,19 @@
       <c r="A225" s="6"/>
       <c r="B225" s="13"/>
       <c r="C225" s="19" t="e">
-        <f>VLOOKUP(D225,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D225" s="13"/>
       <c r="E225" s="13"/>
       <c r="F225" s="22" t="e">
-        <f>VLOOKUP(G225,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G225" s="13"/>
       <c r="H225" s="13"/>
       <c r="I225" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J225" s="6"/>
@@ -5565,19 +5593,19 @@
       <c r="A226" s="6"/>
       <c r="B226" s="12"/>
       <c r="C226" s="18" t="e">
-        <f>VLOOKUP(D226,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D226" s="12"/>
       <c r="E226" s="12"/>
       <c r="F226" s="22" t="e">
-        <f>VLOOKUP(G226,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G226" s="12"/>
       <c r="H226" s="12"/>
       <c r="I226" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J226" s="6"/>
@@ -5586,19 +5614,19 @@
       <c r="A227" s="6"/>
       <c r="B227" s="13"/>
       <c r="C227" s="19" t="e">
-        <f>VLOOKUP(D227,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D227" s="13"/>
       <c r="E227" s="13"/>
       <c r="F227" s="22" t="e">
-        <f>VLOOKUP(G227,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G227" s="13"/>
       <c r="H227" s="13"/>
       <c r="I227" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J227" s="6"/>
@@ -5607,19 +5635,19 @@
       <c r="A228" s="6"/>
       <c r="B228" s="12"/>
       <c r="C228" s="18" t="e">
-        <f>VLOOKUP(D228,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D228" s="12"/>
       <c r="E228" s="12"/>
       <c r="F228" s="22" t="e">
-        <f>VLOOKUP(G228,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G228" s="12"/>
       <c r="H228" s="12"/>
       <c r="I228" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J228" s="6"/>
@@ -5628,19 +5656,19 @@
       <c r="A229" s="6"/>
       <c r="B229" s="13"/>
       <c r="C229" s="19" t="e">
-        <f>VLOOKUP(D229,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D229" s="13"/>
       <c r="E229" s="13"/>
       <c r="F229" s="22" t="e">
-        <f>VLOOKUP(G229,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G229" s="13"/>
       <c r="H229" s="13"/>
       <c r="I229" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J229" s="6"/>
@@ -5649,19 +5677,19 @@
       <c r="A230" s="6"/>
       <c r="B230" s="12"/>
       <c r="C230" s="18" t="e">
-        <f>VLOOKUP(D230,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D230" s="12"/>
       <c r="E230" s="12"/>
       <c r="F230" s="22" t="e">
-        <f>VLOOKUP(G230,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G230" s="12"/>
       <c r="H230" s="12"/>
       <c r="I230" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J230" s="6"/>
@@ -5670,19 +5698,19 @@
       <c r="A231" s="6"/>
       <c r="B231" s="13"/>
       <c r="C231" s="19" t="e">
-        <f>VLOOKUP(D231,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D231" s="13"/>
       <c r="E231" s="13"/>
       <c r="F231" s="22" t="e">
-        <f>VLOOKUP(G231,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G231" s="13"/>
       <c r="H231" s="13"/>
       <c r="I231" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J231" s="6"/>
@@ -5691,19 +5719,19 @@
       <c r="A232" s="6"/>
       <c r="B232" s="12"/>
       <c r="C232" s="18" t="e">
-        <f>VLOOKUP(D232,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D232" s="12"/>
       <c r="E232" s="12"/>
       <c r="F232" s="22" t="e">
-        <f>VLOOKUP(G232,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G232" s="12"/>
       <c r="H232" s="12"/>
       <c r="I232" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J232" s="6"/>
@@ -5712,19 +5740,19 @@
       <c r="A233" s="6"/>
       <c r="B233" s="13"/>
       <c r="C233" s="19" t="e">
-        <f>VLOOKUP(D233,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D233" s="13"/>
       <c r="E233" s="13"/>
       <c r="F233" s="22" t="e">
-        <f>VLOOKUP(G233,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G233" s="13"/>
       <c r="H233" s="13"/>
       <c r="I233" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J233" s="6"/>
@@ -5733,19 +5761,19 @@
       <c r="A234" s="6"/>
       <c r="B234" s="12"/>
       <c r="C234" s="18" t="e">
-        <f>VLOOKUP(D234,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D234" s="12"/>
       <c r="E234" s="12"/>
       <c r="F234" s="22" t="e">
-        <f>VLOOKUP(G234,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G234" s="12"/>
       <c r="H234" s="12"/>
       <c r="I234" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J234" s="6"/>
@@ -5754,19 +5782,19 @@
       <c r="A235" s="6"/>
       <c r="B235" s="13"/>
       <c r="C235" s="19" t="e">
-        <f>VLOOKUP(D235,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D235" s="13"/>
       <c r="E235" s="13"/>
       <c r="F235" s="22" t="e">
-        <f>VLOOKUP(G235,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G235" s="13"/>
       <c r="H235" s="13"/>
       <c r="I235" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J235" s="6"/>
@@ -5775,19 +5803,19 @@
       <c r="A236" s="6"/>
       <c r="B236" s="12"/>
       <c r="C236" s="18" t="e">
-        <f>VLOOKUP(D236,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
       <c r="F236" s="22" t="e">
-        <f>VLOOKUP(G236,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G236" s="12"/>
       <c r="H236" s="12"/>
       <c r="I236" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J236" s="6"/>
@@ -5796,19 +5824,19 @@
       <c r="A237" s="6"/>
       <c r="B237" s="13"/>
       <c r="C237" s="19" t="e">
-        <f>VLOOKUP(D237,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D237" s="13"/>
       <c r="E237" s="13"/>
       <c r="F237" s="22" t="e">
-        <f>VLOOKUP(G237,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G237" s="13"/>
       <c r="H237" s="13"/>
       <c r="I237" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J237" s="6"/>
@@ -5817,19 +5845,19 @@
       <c r="A238" s="6"/>
       <c r="B238" s="12"/>
       <c r="C238" s="18" t="e">
-        <f>VLOOKUP(D238,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D238" s="12"/>
       <c r="E238" s="12"/>
       <c r="F238" s="22" t="e">
-        <f>VLOOKUP(G238,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G238" s="12"/>
       <c r="H238" s="12"/>
       <c r="I238" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J238" s="6"/>
@@ -5838,19 +5866,19 @@
       <c r="A239" s="6"/>
       <c r="B239" s="13"/>
       <c r="C239" s="19" t="e">
-        <f>VLOOKUP(D239,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D239" s="13"/>
       <c r="E239" s="13"/>
       <c r="F239" s="22" t="e">
-        <f>VLOOKUP(G239,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G239" s="13"/>
       <c r="H239" s="13"/>
       <c r="I239" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J239" s="6"/>
@@ -5859,19 +5887,19 @@
       <c r="A240" s="6"/>
       <c r="B240" s="12"/>
       <c r="C240" s="18" t="e">
-        <f>VLOOKUP(D240,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D240" s="12"/>
       <c r="E240" s="12"/>
       <c r="F240" s="22" t="e">
-        <f>VLOOKUP(G240,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G240" s="12"/>
       <c r="H240" s="12"/>
       <c r="I240" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J240" s="6"/>
@@ -5880,19 +5908,19 @@
       <c r="A241" s="6"/>
       <c r="B241" s="13"/>
       <c r="C241" s="19" t="e">
-        <f>VLOOKUP(D241,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D241" s="13"/>
       <c r="E241" s="13"/>
       <c r="F241" s="22" t="e">
-        <f>VLOOKUP(G241,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G241" s="13"/>
       <c r="H241" s="13"/>
       <c r="I241" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J241" s="6"/>
@@ -5901,19 +5929,19 @@
       <c r="A242" s="6"/>
       <c r="B242" s="12"/>
       <c r="C242" s="18" t="e">
-        <f>VLOOKUP(D242,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D242" s="12"/>
       <c r="E242" s="12"/>
       <c r="F242" s="22" t="e">
-        <f>VLOOKUP(G242,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G242" s="12"/>
       <c r="H242" s="12"/>
       <c r="I242" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J242" s="6"/>
@@ -5922,19 +5950,19 @@
       <c r="A243" s="6"/>
       <c r="B243" s="13"/>
       <c r="C243" s="19" t="e">
-        <f>VLOOKUP(D243,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D243" s="13"/>
       <c r="E243" s="13"/>
       <c r="F243" s="22" t="e">
-        <f>VLOOKUP(G243,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G243" s="13"/>
       <c r="H243" s="13"/>
       <c r="I243" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J243" s="6"/>
@@ -5943,19 +5971,19 @@
       <c r="A244" s="6"/>
       <c r="B244" s="12"/>
       <c r="C244" s="18" t="e">
-        <f>VLOOKUP(D244,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D244" s="12"/>
       <c r="E244" s="12"/>
       <c r="F244" s="22" t="e">
-        <f>VLOOKUP(G244,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G244" s="12"/>
       <c r="H244" s="12"/>
       <c r="I244" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J244" s="6"/>
@@ -5964,19 +5992,19 @@
       <c r="A245" s="6"/>
       <c r="B245" s="13"/>
       <c r="C245" s="19" t="e">
-        <f>VLOOKUP(D245,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D245" s="13"/>
       <c r="E245" s="13"/>
       <c r="F245" s="22" t="e">
-        <f>VLOOKUP(G245,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G245" s="13"/>
       <c r="H245" s="13"/>
       <c r="I245" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J245" s="6"/>
@@ -5985,19 +6013,19 @@
       <c r="A246" s="6"/>
       <c r="B246" s="12"/>
       <c r="C246" s="18" t="e">
-        <f>VLOOKUP(D246,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D246" s="12"/>
       <c r="E246" s="12"/>
       <c r="F246" s="22" t="e">
-        <f>VLOOKUP(G246,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G246" s="12"/>
       <c r="H246" s="12"/>
       <c r="I246" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J246" s="6"/>
@@ -6006,19 +6034,19 @@
       <c r="A247" s="6"/>
       <c r="B247" s="13"/>
       <c r="C247" s="19" t="e">
-        <f>VLOOKUP(D247,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D247" s="13"/>
       <c r="E247" s="13"/>
       <c r="F247" s="22" t="e">
-        <f>VLOOKUP(G247,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G247" s="13"/>
       <c r="H247" s="13"/>
       <c r="I247" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J247" s="6"/>
@@ -6027,19 +6055,19 @@
       <c r="A248" s="6"/>
       <c r="B248" s="12"/>
       <c r="C248" s="18" t="e">
-        <f>VLOOKUP(D248,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
       <c r="F248" s="22" t="e">
-        <f>VLOOKUP(G248,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G248" s="12"/>
       <c r="H248" s="12"/>
       <c r="I248" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J248" s="6"/>
@@ -6048,19 +6076,19 @@
       <c r="A249" s="6"/>
       <c r="B249" s="13"/>
       <c r="C249" s="19" t="e">
-        <f>VLOOKUP(D249,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D249" s="13"/>
       <c r="E249" s="13"/>
       <c r="F249" s="22" t="e">
-        <f>VLOOKUP(G249,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G249" s="13"/>
       <c r="H249" s="13"/>
       <c r="I249" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J249" s="6"/>
@@ -6069,19 +6097,19 @@
       <c r="A250" s="6"/>
       <c r="B250" s="12"/>
       <c r="C250" s="18" t="e">
-        <f>VLOOKUP(D250,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D250" s="12"/>
       <c r="E250" s="12"/>
       <c r="F250" s="22" t="e">
-        <f>VLOOKUP(G250,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G250" s="12"/>
       <c r="H250" s="12"/>
       <c r="I250" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J250" s="6"/>
@@ -6090,19 +6118,19 @@
       <c r="A251" s="6"/>
       <c r="B251" s="13"/>
       <c r="C251" s="19" t="e">
-        <f>VLOOKUP(D251,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D251" s="13"/>
       <c r="E251" s="13"/>
       <c r="F251" s="22" t="e">
-        <f>VLOOKUP(G251,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G251" s="13"/>
       <c r="H251" s="13"/>
       <c r="I251" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J251" s="6"/>
@@ -6111,19 +6139,19 @@
       <c r="A252" s="6"/>
       <c r="B252" s="12"/>
       <c r="C252" s="18" t="e">
-        <f>VLOOKUP(D252,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D252" s="12"/>
       <c r="E252" s="12"/>
       <c r="F252" s="22" t="e">
-        <f>VLOOKUP(G252,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G252" s="12"/>
       <c r="H252" s="12"/>
       <c r="I252" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J252" s="6"/>
@@ -6132,19 +6160,19 @@
       <c r="A253" s="6"/>
       <c r="B253" s="13"/>
       <c r="C253" s="19" t="e">
-        <f>VLOOKUP(D253,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D253" s="13"/>
       <c r="E253" s="13"/>
       <c r="F253" s="22" t="e">
-        <f>VLOOKUP(G253,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G253" s="13"/>
       <c r="H253" s="13"/>
       <c r="I253" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J253" s="6"/>
@@ -6153,19 +6181,19 @@
       <c r="A254" s="6"/>
       <c r="B254" s="12"/>
       <c r="C254" s="18" t="e">
-        <f>VLOOKUP(D254,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D254" s="12"/>
       <c r="E254" s="12"/>
       <c r="F254" s="22" t="e">
-        <f>VLOOKUP(G254,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G254" s="12"/>
       <c r="H254" s="12"/>
       <c r="I254" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J254" s="6"/>
@@ -6174,19 +6202,19 @@
       <c r="A255" s="6"/>
       <c r="B255" s="13"/>
       <c r="C255" s="19" t="e">
-        <f>VLOOKUP(D255,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D255" s="13"/>
       <c r="E255" s="13"/>
       <c r="F255" s="22" t="e">
-        <f>VLOOKUP(G255,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G255" s="13"/>
       <c r="H255" s="13"/>
       <c r="I255" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J255" s="6"/>
@@ -6195,19 +6223,19 @@
       <c r="A256" s="6"/>
       <c r="B256" s="12"/>
       <c r="C256" s="18" t="e">
-        <f>VLOOKUP(D256,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D256" s="12"/>
       <c r="E256" s="12"/>
       <c r="F256" s="22" t="e">
-        <f>VLOOKUP(G256,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G256" s="12"/>
       <c r="H256" s="12"/>
       <c r="I256" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J256" s="6"/>
@@ -6216,19 +6244,19 @@
       <c r="A257" s="6"/>
       <c r="B257" s="13"/>
       <c r="C257" s="19" t="e">
-        <f>VLOOKUP(D257,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D257" s="13"/>
       <c r="E257" s="13"/>
       <c r="F257" s="22" t="e">
-        <f>VLOOKUP(G257,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G257" s="13"/>
       <c r="H257" s="13"/>
       <c r="I257" s="6" t="e">
-        <f t="shared" ref="I257:I309" si="4">VLOOKUP(J257,Tabla_Mes,2,)</f>
+        <f t="shared" ref="I257:I309" si="12">VLOOKUP(J257,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="J257" s="6"/>
@@ -6237,19 +6265,19 @@
       <c r="A258" s="6"/>
       <c r="B258" s="12"/>
       <c r="C258" s="18" t="e">
-        <f>VLOOKUP(D258,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
       <c r="F258" s="22" t="e">
-        <f>VLOOKUP(G258,Tabla_INI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G258" s="12"/>
       <c r="H258" s="12"/>
       <c r="I258" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J258" s="6"/>
@@ -6258,19 +6286,19 @@
       <c r="A259" s="6"/>
       <c r="B259" s="13"/>
       <c r="C259" s="19" t="e">
-        <f>VLOOKUP(D259,Tabla_BAU,2,)</f>
+        <f t="shared" ref="C259:C322" si="13">VLOOKUP(D259,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D259" s="13"/>
       <c r="E259" s="13"/>
       <c r="F259" s="22" t="e">
-        <f>VLOOKUP(G259,Tabla_INI,2,)</f>
+        <f t="shared" ref="F259:F322" si="14">VLOOKUP(G259,Tabla_INI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G259" s="13"/>
       <c r="H259" s="13"/>
       <c r="I259" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J259" s="6"/>
@@ -6279,19 +6307,19 @@
       <c r="A260" s="6"/>
       <c r="B260" s="12"/>
       <c r="C260" s="18" t="e">
-        <f>VLOOKUP(D260,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D260" s="12"/>
       <c r="E260" s="12"/>
       <c r="F260" s="22" t="e">
-        <f>VLOOKUP(G260,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G260" s="12"/>
       <c r="H260" s="12"/>
       <c r="I260" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J260" s="6"/>
@@ -6300,19 +6328,19 @@
       <c r="A261" s="6"/>
       <c r="B261" s="13"/>
       <c r="C261" s="19" t="e">
-        <f>VLOOKUP(D261,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D261" s="13"/>
       <c r="E261" s="13"/>
       <c r="F261" s="22" t="e">
-        <f>VLOOKUP(G261,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G261" s="13"/>
       <c r="H261" s="13"/>
       <c r="I261" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J261" s="6"/>
@@ -6321,19 +6349,19 @@
       <c r="A262" s="6"/>
       <c r="B262" s="12"/>
       <c r="C262" s="18" t="e">
-        <f>VLOOKUP(D262,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D262" s="12"/>
       <c r="E262" s="12"/>
       <c r="F262" s="22" t="e">
-        <f>VLOOKUP(G262,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G262" s="12"/>
       <c r="H262" s="12"/>
       <c r="I262" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J262" s="6"/>
@@ -6342,19 +6370,19 @@
       <c r="A263" s="6"/>
       <c r="B263" s="13"/>
       <c r="C263" s="19" t="e">
-        <f>VLOOKUP(D263,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D263" s="13"/>
       <c r="E263" s="13"/>
       <c r="F263" s="22" t="e">
-        <f>VLOOKUP(G263,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G263" s="13"/>
       <c r="H263" s="13"/>
       <c r="I263" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J263" s="6"/>
@@ -6363,19 +6391,19 @@
       <c r="A264" s="6"/>
       <c r="B264" s="12"/>
       <c r="C264" s="18" t="e">
-        <f>VLOOKUP(D264,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D264" s="12"/>
       <c r="E264" s="12"/>
       <c r="F264" s="22" t="e">
-        <f>VLOOKUP(G264,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G264" s="12"/>
       <c r="H264" s="12"/>
       <c r="I264" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J264" s="6"/>
@@ -6384,19 +6412,19 @@
       <c r="A265" s="6"/>
       <c r="B265" s="13"/>
       <c r="C265" s="19" t="e">
-        <f>VLOOKUP(D265,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D265" s="13"/>
       <c r="E265" s="13"/>
       <c r="F265" s="22" t="e">
-        <f>VLOOKUP(G265,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G265" s="13"/>
       <c r="H265" s="13"/>
       <c r="I265" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J265" s="6"/>
@@ -6405,19 +6433,19 @@
       <c r="A266" s="6"/>
       <c r="B266" s="12"/>
       <c r="C266" s="18" t="e">
-        <f>VLOOKUP(D266,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D266" s="12"/>
       <c r="E266" s="12"/>
       <c r="F266" s="22" t="e">
-        <f>VLOOKUP(G266,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G266" s="12"/>
       <c r="H266" s="12"/>
       <c r="I266" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J266" s="6"/>
@@ -6426,19 +6454,19 @@
       <c r="A267" s="6"/>
       <c r="B267" s="13"/>
       <c r="C267" s="19" t="e">
-        <f>VLOOKUP(D267,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D267" s="13"/>
       <c r="E267" s="13"/>
       <c r="F267" s="22" t="e">
-        <f>VLOOKUP(G267,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G267" s="13"/>
       <c r="H267" s="13"/>
       <c r="I267" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J267" s="6"/>
@@ -6447,19 +6475,19 @@
       <c r="A268" s="6"/>
       <c r="B268" s="12"/>
       <c r="C268" s="18" t="e">
-        <f>VLOOKUP(D268,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D268" s="12"/>
       <c r="E268" s="12"/>
       <c r="F268" s="22" t="e">
-        <f>VLOOKUP(G268,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G268" s="12"/>
       <c r="H268" s="12"/>
       <c r="I268" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J268" s="6"/>
@@ -6468,19 +6496,19 @@
       <c r="A269" s="6"/>
       <c r="B269" s="13"/>
       <c r="C269" s="19" t="e">
-        <f>VLOOKUP(D269,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D269" s="13"/>
       <c r="E269" s="13"/>
       <c r="F269" s="22" t="e">
-        <f>VLOOKUP(G269,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G269" s="13"/>
       <c r="H269" s="13"/>
       <c r="I269" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J269" s="6"/>
@@ -6489,19 +6517,19 @@
       <c r="A270" s="6"/>
       <c r="B270" s="12"/>
       <c r="C270" s="18" t="e">
-        <f>VLOOKUP(D270,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D270" s="12"/>
       <c r="E270" s="12"/>
       <c r="F270" s="22" t="e">
-        <f>VLOOKUP(G270,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G270" s="12"/>
       <c r="H270" s="12"/>
       <c r="I270" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J270" s="6"/>
@@ -6510,19 +6538,19 @@
       <c r="A271" s="6"/>
       <c r="B271" s="13"/>
       <c r="C271" s="19" t="e">
-        <f>VLOOKUP(D271,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D271" s="13"/>
       <c r="E271" s="13"/>
       <c r="F271" s="22" t="e">
-        <f>VLOOKUP(G271,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G271" s="13"/>
       <c r="H271" s="13"/>
       <c r="I271" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J271" s="6"/>
@@ -6531,19 +6559,19 @@
       <c r="A272" s="6"/>
       <c r="B272" s="12"/>
       <c r="C272" s="18" t="e">
-        <f>VLOOKUP(D272,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D272" s="12"/>
       <c r="E272" s="12"/>
       <c r="F272" s="22" t="e">
-        <f>VLOOKUP(G272,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G272" s="12"/>
       <c r="H272" s="12"/>
       <c r="I272" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J272" s="6"/>
@@ -6552,19 +6580,19 @@
       <c r="A273" s="6"/>
       <c r="B273" s="13"/>
       <c r="C273" s="19" t="e">
-        <f>VLOOKUP(D273,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D273" s="13"/>
       <c r="E273" s="13"/>
       <c r="F273" s="22" t="e">
-        <f>VLOOKUP(G273,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G273" s="13"/>
       <c r="H273" s="13"/>
       <c r="I273" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J273" s="6"/>
@@ -6573,19 +6601,19 @@
       <c r="A274" s="6"/>
       <c r="B274" s="12"/>
       <c r="C274" s="18" t="e">
-        <f>VLOOKUP(D274,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D274" s="12"/>
       <c r="E274" s="12"/>
       <c r="F274" s="22" t="e">
-        <f>VLOOKUP(G274,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G274" s="12"/>
       <c r="H274" s="12"/>
       <c r="I274" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J274" s="6"/>
@@ -6594,19 +6622,19 @@
       <c r="A275" s="6"/>
       <c r="B275" s="13"/>
       <c r="C275" s="19" t="e">
-        <f>VLOOKUP(D275,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D275" s="13"/>
       <c r="E275" s="13"/>
       <c r="F275" s="22" t="e">
-        <f>VLOOKUP(G275,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G275" s="13"/>
       <c r="H275" s="13"/>
       <c r="I275" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J275" s="6"/>
@@ -6615,19 +6643,19 @@
       <c r="A276" s="6"/>
       <c r="B276" s="12"/>
       <c r="C276" s="18" t="e">
-        <f>VLOOKUP(D276,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D276" s="12"/>
       <c r="E276" s="12"/>
       <c r="F276" s="22" t="e">
-        <f>VLOOKUP(G276,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G276" s="12"/>
       <c r="H276" s="12"/>
       <c r="I276" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J276" s="6"/>
@@ -6636,19 +6664,19 @@
       <c r="A277" s="6"/>
       <c r="B277" s="13"/>
       <c r="C277" s="19" t="e">
-        <f>VLOOKUP(D277,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D277" s="13"/>
       <c r="E277" s="13"/>
       <c r="F277" s="22" t="e">
-        <f>VLOOKUP(G277,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G277" s="13"/>
       <c r="H277" s="13"/>
       <c r="I277" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J277" s="6"/>
@@ -6657,19 +6685,19 @@
       <c r="A278" s="6"/>
       <c r="B278" s="12"/>
       <c r="C278" s="18" t="e">
-        <f>VLOOKUP(D278,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D278" s="12"/>
       <c r="E278" s="12"/>
       <c r="F278" s="22" t="e">
-        <f>VLOOKUP(G278,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G278" s="12"/>
       <c r="H278" s="12"/>
       <c r="I278" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J278" s="6"/>
@@ -6678,19 +6706,19 @@
       <c r="A279" s="6"/>
       <c r="B279" s="13"/>
       <c r="C279" s="19" t="e">
-        <f>VLOOKUP(D279,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D279" s="13"/>
       <c r="E279" s="13"/>
       <c r="F279" s="22" t="e">
-        <f>VLOOKUP(G279,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G279" s="13"/>
       <c r="H279" s="13"/>
       <c r="I279" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J279" s="6"/>
@@ -6699,19 +6727,19 @@
       <c r="A280" s="6"/>
       <c r="B280" s="12"/>
       <c r="C280" s="18" t="e">
-        <f>VLOOKUP(D280,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
       <c r="F280" s="22" t="e">
-        <f>VLOOKUP(G280,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G280" s="12"/>
       <c r="H280" s="12"/>
       <c r="I280" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J280" s="6"/>
@@ -6720,19 +6748,19 @@
       <c r="A281" s="6"/>
       <c r="B281" s="13"/>
       <c r="C281" s="19" t="e">
-        <f>VLOOKUP(D281,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D281" s="13"/>
       <c r="E281" s="13"/>
       <c r="F281" s="22" t="e">
-        <f>VLOOKUP(G281,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G281" s="13"/>
       <c r="H281" s="13"/>
       <c r="I281" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J281" s="6"/>
@@ -6741,19 +6769,19 @@
       <c r="A282" s="6"/>
       <c r="B282" s="12"/>
       <c r="C282" s="18" t="e">
-        <f>VLOOKUP(D282,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D282" s="12"/>
       <c r="E282" s="12"/>
       <c r="F282" s="22" t="e">
-        <f>VLOOKUP(G282,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G282" s="12"/>
       <c r="H282" s="12"/>
       <c r="I282" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J282" s="6"/>
@@ -6762,19 +6790,19 @@
       <c r="A283" s="6"/>
       <c r="B283" s="13"/>
       <c r="C283" s="19" t="e">
-        <f>VLOOKUP(D283,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D283" s="13"/>
       <c r="E283" s="13"/>
       <c r="F283" s="22" t="e">
-        <f>VLOOKUP(G283,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G283" s="13"/>
       <c r="H283" s="13"/>
       <c r="I283" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J283" s="6"/>
@@ -6783,19 +6811,19 @@
       <c r="A284" s="6"/>
       <c r="B284" s="12"/>
       <c r="C284" s="18" t="e">
-        <f>VLOOKUP(D284,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="22" t="e">
-        <f>VLOOKUP(G284,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G284" s="12"/>
       <c r="H284" s="12"/>
       <c r="I284" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J284" s="6"/>
@@ -6804,19 +6832,19 @@
       <c r="A285" s="6"/>
       <c r="B285" s="13"/>
       <c r="C285" s="19" t="e">
-        <f>VLOOKUP(D285,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D285" s="13"/>
       <c r="E285" s="13"/>
       <c r="F285" s="22" t="e">
-        <f>VLOOKUP(G285,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G285" s="13"/>
       <c r="H285" s="13"/>
       <c r="I285" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J285" s="6"/>
@@ -6825,19 +6853,19 @@
       <c r="A286" s="6"/>
       <c r="B286" s="12"/>
       <c r="C286" s="18" t="e">
-        <f>VLOOKUP(D286,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D286" s="12"/>
       <c r="E286" s="12"/>
       <c r="F286" s="22" t="e">
-        <f>VLOOKUP(G286,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G286" s="12"/>
       <c r="H286" s="12"/>
       <c r="I286" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J286" s="6"/>
@@ -6846,19 +6874,19 @@
       <c r="A287" s="6"/>
       <c r="B287" s="13"/>
       <c r="C287" s="19" t="e">
-        <f>VLOOKUP(D287,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D287" s="13"/>
       <c r="E287" s="13"/>
       <c r="F287" s="22" t="e">
-        <f>VLOOKUP(G287,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G287" s="13"/>
       <c r="H287" s="13"/>
       <c r="I287" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J287" s="6"/>
@@ -6867,19 +6895,19 @@
       <c r="A288" s="6"/>
       <c r="B288" s="12"/>
       <c r="C288" s="18" t="e">
-        <f>VLOOKUP(D288,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D288" s="12"/>
       <c r="E288" s="12"/>
       <c r="F288" s="22" t="e">
-        <f>VLOOKUP(G288,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G288" s="12"/>
       <c r="H288" s="12"/>
       <c r="I288" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J288" s="6"/>
@@ -6888,19 +6916,19 @@
       <c r="A289" s="6"/>
       <c r="B289" s="13"/>
       <c r="C289" s="19" t="e">
-        <f>VLOOKUP(D289,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D289" s="13"/>
       <c r="E289" s="13"/>
       <c r="F289" s="22" t="e">
-        <f>VLOOKUP(G289,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G289" s="13"/>
       <c r="H289" s="13"/>
       <c r="I289" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J289" s="6"/>
@@ -6909,19 +6937,19 @@
       <c r="A290" s="6"/>
       <c r="B290" s="12"/>
       <c r="C290" s="18" t="e">
-        <f>VLOOKUP(D290,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D290" s="12"/>
       <c r="E290" s="12"/>
       <c r="F290" s="22" t="e">
-        <f>VLOOKUP(G290,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G290" s="12"/>
       <c r="H290" s="12"/>
       <c r="I290" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J290" s="6"/>
@@ -6930,19 +6958,19 @@
       <c r="A291" s="6"/>
       <c r="B291" s="13"/>
       <c r="C291" s="19" t="e">
-        <f>VLOOKUP(D291,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D291" s="13"/>
       <c r="E291" s="13"/>
       <c r="F291" s="22" t="e">
-        <f>VLOOKUP(G291,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G291" s="13"/>
       <c r="H291" s="13"/>
       <c r="I291" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J291" s="6"/>
@@ -6951,19 +6979,19 @@
       <c r="A292" s="6"/>
       <c r="B292" s="12"/>
       <c r="C292" s="18" t="e">
-        <f>VLOOKUP(D292,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D292" s="12"/>
       <c r="E292" s="12"/>
       <c r="F292" s="22" t="e">
-        <f>VLOOKUP(G292,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G292" s="12"/>
       <c r="H292" s="12"/>
       <c r="I292" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J292" s="6"/>
@@ -6972,19 +7000,19 @@
       <c r="A293" s="6"/>
       <c r="B293" s="13"/>
       <c r="C293" s="19" t="e">
-        <f>VLOOKUP(D293,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D293" s="13"/>
       <c r="E293" s="13"/>
       <c r="F293" s="22" t="e">
-        <f>VLOOKUP(G293,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G293" s="13"/>
       <c r="H293" s="13"/>
       <c r="I293" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J293" s="6"/>
@@ -6993,19 +7021,19 @@
       <c r="A294" s="6"/>
       <c r="B294" s="12"/>
       <c r="C294" s="18" t="e">
-        <f>VLOOKUP(D294,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D294" s="12"/>
       <c r="E294" s="12"/>
       <c r="F294" s="22" t="e">
-        <f>VLOOKUP(G294,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G294" s="12"/>
       <c r="H294" s="12"/>
       <c r="I294" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J294" s="6"/>
@@ -7014,19 +7042,19 @@
       <c r="A295" s="6"/>
       <c r="B295" s="13"/>
       <c r="C295" s="19" t="e">
-        <f>VLOOKUP(D295,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D295" s="13"/>
       <c r="E295" s="13"/>
       <c r="F295" s="22" t="e">
-        <f>VLOOKUP(G295,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G295" s="13"/>
       <c r="H295" s="13"/>
       <c r="I295" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J295" s="6"/>
@@ -7035,19 +7063,19 @@
       <c r="A296" s="6"/>
       <c r="B296" s="12"/>
       <c r="C296" s="18" t="e">
-        <f>VLOOKUP(D296,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D296" s="12"/>
       <c r="E296" s="12"/>
       <c r="F296" s="22" t="e">
-        <f>VLOOKUP(G296,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G296" s="12"/>
       <c r="H296" s="12"/>
       <c r="I296" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J296" s="6"/>
@@ -7056,19 +7084,19 @@
       <c r="A297" s="6"/>
       <c r="B297" s="13"/>
       <c r="C297" s="19" t="e">
-        <f>VLOOKUP(D297,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D297" s="13"/>
       <c r="E297" s="13"/>
       <c r="F297" s="22" t="e">
-        <f>VLOOKUP(G297,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G297" s="13"/>
       <c r="H297" s="13"/>
       <c r="I297" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J297" s="6"/>
@@ -7077,19 +7105,19 @@
       <c r="A298" s="6"/>
       <c r="B298" s="12"/>
       <c r="C298" s="18" t="e">
-        <f>VLOOKUP(D298,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D298" s="12"/>
       <c r="E298" s="12"/>
       <c r="F298" s="22" t="e">
-        <f>VLOOKUP(G298,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G298" s="12"/>
       <c r="H298" s="12"/>
       <c r="I298" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J298" s="6"/>
@@ -7098,19 +7126,19 @@
       <c r="A299" s="6"/>
       <c r="B299" s="13"/>
       <c r="C299" s="19" t="e">
-        <f>VLOOKUP(D299,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D299" s="13"/>
       <c r="E299" s="13"/>
       <c r="F299" s="22" t="e">
-        <f>VLOOKUP(G299,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G299" s="13"/>
       <c r="H299" s="13"/>
       <c r="I299" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J299" s="6"/>
@@ -7119,19 +7147,19 @@
       <c r="A300" s="6"/>
       <c r="B300" s="12"/>
       <c r="C300" s="18" t="e">
-        <f>VLOOKUP(D300,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D300" s="12"/>
       <c r="E300" s="12"/>
       <c r="F300" s="22" t="e">
-        <f>VLOOKUP(G300,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G300" s="12"/>
       <c r="H300" s="12"/>
       <c r="I300" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J300" s="6"/>
@@ -7140,19 +7168,19 @@
       <c r="A301" s="6"/>
       <c r="B301" s="13"/>
       <c r="C301" s="19" t="e">
-        <f>VLOOKUP(D301,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D301" s="13"/>
       <c r="E301" s="13"/>
       <c r="F301" s="22" t="e">
-        <f>VLOOKUP(G301,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G301" s="13"/>
       <c r="H301" s="13"/>
       <c r="I301" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J301" s="6"/>
@@ -7161,19 +7189,19 @@
       <c r="A302" s="6"/>
       <c r="B302" s="12"/>
       <c r="C302" s="18" t="e">
-        <f>VLOOKUP(D302,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
       <c r="F302" s="22" t="e">
-        <f>VLOOKUP(G302,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G302" s="12"/>
       <c r="H302" s="12"/>
       <c r="I302" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J302" s="6"/>
@@ -7182,19 +7210,19 @@
       <c r="A303" s="6"/>
       <c r="B303" s="13"/>
       <c r="C303" s="19" t="e">
-        <f>VLOOKUP(D303,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D303" s="13"/>
       <c r="E303" s="13"/>
       <c r="F303" s="22" t="e">
-        <f>VLOOKUP(G303,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G303" s="13"/>
       <c r="H303" s="13"/>
       <c r="I303" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J303" s="6"/>
@@ -7203,19 +7231,19 @@
       <c r="A304" s="6"/>
       <c r="B304" s="12"/>
       <c r="C304" s="18" t="e">
-        <f>VLOOKUP(D304,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D304" s="12"/>
       <c r="E304" s="12"/>
       <c r="F304" s="22" t="e">
-        <f>VLOOKUP(G304,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G304" s="12"/>
       <c r="H304" s="12"/>
       <c r="I304" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J304" s="6"/>
@@ -7224,19 +7252,19 @@
       <c r="A305" s="6"/>
       <c r="B305" s="13"/>
       <c r="C305" s="19" t="e">
-        <f>VLOOKUP(D305,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D305" s="13"/>
       <c r="E305" s="13"/>
       <c r="F305" s="22" t="e">
-        <f>VLOOKUP(G305,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G305" s="13"/>
       <c r="H305" s="13"/>
       <c r="I305" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J305" s="6"/>
@@ -7245,19 +7273,19 @@
       <c r="A306" s="6"/>
       <c r="B306" s="12"/>
       <c r="C306" s="18" t="e">
-        <f>VLOOKUP(D306,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D306" s="12"/>
       <c r="E306" s="12"/>
       <c r="F306" s="22" t="e">
-        <f>VLOOKUP(G306,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G306" s="12"/>
       <c r="H306" s="12"/>
       <c r="I306" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J306" s="6"/>
@@ -7266,19 +7294,19 @@
       <c r="A307" s="6"/>
       <c r="B307" s="13"/>
       <c r="C307" s="19" t="e">
-        <f>VLOOKUP(D307,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D307" s="13"/>
       <c r="E307" s="13"/>
       <c r="F307" s="22" t="e">
-        <f>VLOOKUP(G307,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G307" s="13"/>
       <c r="H307" s="13"/>
       <c r="I307" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J307" s="6"/>
@@ -7287,19 +7315,19 @@
       <c r="A308" s="6"/>
       <c r="B308" s="12"/>
       <c r="C308" s="18" t="e">
-        <f>VLOOKUP(D308,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D308" s="12"/>
       <c r="E308" s="12"/>
       <c r="F308" s="22" t="e">
-        <f>VLOOKUP(G308,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G308" s="12"/>
       <c r="H308" s="12"/>
       <c r="I308" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J308" s="6"/>
@@ -7308,19 +7336,19 @@
       <c r="A309" s="6"/>
       <c r="B309" s="13"/>
       <c r="C309" s="19" t="e">
-        <f>VLOOKUP(D309,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D309" s="13"/>
       <c r="E309" s="13"/>
       <c r="F309" s="22" t="e">
-        <f>VLOOKUP(G309,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G309" s="13"/>
       <c r="H309" s="13"/>
       <c r="I309" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J309" s="6"/>
@@ -7328,13 +7356,13 @@
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B310" s="12"/>
       <c r="C310" s="18" t="e">
-        <f>VLOOKUP(D310,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
       <c r="F310" s="22" t="e">
-        <f>VLOOKUP(G310,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G310" s="12"/>
@@ -7342,24 +7370,24 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C311" s="19" t="e">
-        <f>VLOOKUP(D311,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D311" s="13"/>
       <c r="F311" s="22" t="e">
-        <f>VLOOKUP(G311,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G311" s="13"/>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C312" s="18" t="e">
-        <f>VLOOKUP(D312,Tabla_BAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D312" s="12"/>
       <c r="F312" s="22" t="e">
-        <f>VLOOKUP(G312,Tabla_INI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G312" s="12"/>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.3 Plantilla_Eficiencia_energetica_comercial.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.3 Plantilla_Eficiencia_energetica_comercial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\Para MASIVOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202D15D7-A806-446E-BE9E-A14B218B9B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81CD9B83-3885-4361-8075-449ECA241B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{71D78059-0FA9-459A-8548-6759DAA3D3F6}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <author>Dell</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2FB31DAC-4FE2-4BD6-9557-271E4E6C3A10}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{40F47104-B50E-4A73-AE56-D1CD4F95ADA4}">
       <text>
         <r>
           <rPr>
@@ -56,67 +56,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Año al que corresponde el registro.
-</t>
+          <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
         </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5FEF0996-077B-4871-9E7E-57B45836DC1D}">
-      <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Potencia antes de la implementación.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0F4C4441-4874-48B9-BECE-5E1E6D37016F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Potencia posterior a la implementación.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{DE32605F-657C-4454-B96B-72ECCED43AD8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Número de unidades de este tipo o clase.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{6962FB95-5979-47D1-99D6-D5E152FBC19B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Mes en el que se compraron las lámparas.
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -126,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Año</t>
   </si>
@@ -182,21 +131,6 @@
     <t>Diciembre</t>
   </si>
   <si>
-    <t>Año al que corresponde el registro.</t>
-  </si>
-  <si>
-    <t>Potencia antes de la implementación.</t>
-  </si>
-  <si>
-    <t>Potencia posterior a la implementación.</t>
-  </si>
-  <si>
-    <t>Número de unidades de este tipo o clase.</t>
-  </si>
-  <si>
-    <t>Mes en el que se compraron las lámparas.</t>
-  </si>
-  <si>
     <t>Tipo BAU</t>
   </si>
   <si>
@@ -212,9 +146,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Especificación de la lámpara</t>
-  </si>
-  <si>
     <t>Potencia Iniciativa(W)</t>
   </si>
   <si>
@@ -223,12 +154,36 @@
   <si>
     <t>LED</t>
   </si>
+  <si>
+    <t>Año en que se compró equipo. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Potencia de lámpara BAU. Inserte su dato</t>
+  </si>
+  <si>
+    <t>Tipo de lámpara BAU. Seleccione de la lista desplegable</t>
+  </si>
+  <si>
+    <t>Potencia de lámpara Iniciativa. Inserte su dato</t>
+  </si>
+  <si>
+    <t>Tipo de lámpara Iniciativa. Seleccione desplegable</t>
+  </si>
+  <si>
+    <t>Número de unidades de este tipo o clase. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Mes en el que se compraron las lámparas. Seleccione de la lista desplegable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +227,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +250,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -392,34 +359,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -439,10 +382,65 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -763,21 +761,21 @@
   <dimension ref="A1:J312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="19" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
     <col min="9" max="9" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -788,19 +786,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>2</v>
@@ -812,430 +810,376 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="28">
         <v>2012</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="29">
         <v>36</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="30">
         <f t="shared" ref="C3:C66" si="0">VLOOKUP(D3,Tabla_BAU,2,)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="15">
+      <c r="D3" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="31">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="32">
         <f t="shared" ref="F3:F66" si="1">VLOOKUP(G3,Tabla_INI,2,)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="G3" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="29">
         <v>100000</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="33">
         <f t="shared" ref="I3:I64" si="2">VLOOKUP(J3,Tabla_Mes,2,)</f>
         <v>4</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>2013</v>
-      </c>
-      <c r="B4" s="14">
-        <v>35</v>
-      </c>
-      <c r="C4" s="24">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="14">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="10">
-        <v>110000</v>
-      </c>
-      <c r="I4" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="e">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>2012</v>
-      </c>
-      <c r="B5" s="14">
-        <v>36</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="24" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="14">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="10">
-        <v>100000</v>
-      </c>
-      <c r="I5" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22" t="e">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B6" s="12">
-        <v>44</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="19" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="12">
-        <v>10</v>
-      </c>
-      <c r="F6" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="12">
-        <v>112000</v>
-      </c>
-      <c r="I6" s="6">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="25" t="e">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="13">
-        <v>55</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="24" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="13">
-        <v>12</v>
-      </c>
-      <c r="F7" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="13">
-        <v>11300</v>
-      </c>
-      <c r="I7" s="6">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25" t="e">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="18" t="e">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="22" t="e">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="6" t="e">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="25" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="19" t="e">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="22" t="e">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="6" t="e">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="25" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="18" t="e">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="22" t="e">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="6" t="e">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="25" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="19" t="e">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="22" t="e">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="6" t="e">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="18" t="e">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="22" t="e">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="6" t="e">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="19" t="e">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="22" t="e">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="6" t="e">
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="18" t="e">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="22" t="e">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="6" t="e">
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="25" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="19" t="e">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="22" t="e">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="6" t="e">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="25" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="18" t="e">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="22" t="e">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="6" t="e">
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="25" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="19" t="e">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="22" t="e">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="6" t="e">
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="25" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="18" t="e">
+      <c r="B18" s="9"/>
+      <c r="C18" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="22" t="e">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1244,19 +1188,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="19" t="e">
+      <c r="B19" s="10"/>
+      <c r="C19" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="22" t="e">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1265,19 +1209,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="18" t="e">
+      <c r="B20" s="9"/>
+      <c r="C20" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="22" t="e">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1286,19 +1230,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="19" t="e">
+      <c r="B21" s="10"/>
+      <c r="C21" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="22" t="e">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1307,19 +1251,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="18" t="e">
+      <c r="B22" s="9"/>
+      <c r="C22" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="22" t="e">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1328,19 +1272,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="19" t="e">
+      <c r="B23" s="10"/>
+      <c r="C23" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="22" t="e">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1349,19 +1293,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="18" t="e">
+      <c r="B24" s="9"/>
+      <c r="C24" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="22" t="e">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1370,19 +1314,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="19" t="e">
+      <c r="B25" s="10"/>
+      <c r="C25" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="22" t="e">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1391,19 +1335,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="18" t="e">
+      <c r="B26" s="9"/>
+      <c r="C26" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="22" t="e">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1412,19 +1356,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="19" t="e">
+      <c r="B27" s="10"/>
+      <c r="C27" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="22" t="e">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1433,19 +1377,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="18" t="e">
+      <c r="B28" s="9"/>
+      <c r="C28" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="22" t="e">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1454,19 +1398,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="19" t="e">
+      <c r="B29" s="10"/>
+      <c r="C29" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="22" t="e">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1475,19 +1419,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="18" t="e">
+      <c r="B30" s="9"/>
+      <c r="C30" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="22" t="e">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1496,19 +1440,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="19" t="e">
+      <c r="B31" s="10"/>
+      <c r="C31" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="22" t="e">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1517,19 +1461,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="18" t="e">
+      <c r="B32" s="9"/>
+      <c r="C32" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="22" t="e">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1538,19 +1482,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="19" t="e">
+      <c r="B33" s="10"/>
+      <c r="C33" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="22" t="e">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1559,19 +1503,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="18" t="e">
+      <c r="B34" s="9"/>
+      <c r="C34" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="22" t="e">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1580,19 +1524,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="19" t="e">
+      <c r="B35" s="10"/>
+      <c r="C35" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="22" t="e">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1601,19 +1545,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="18" t="e">
+      <c r="B36" s="9"/>
+      <c r="C36" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="22" t="e">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1622,19 +1566,19 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="19" t="e">
+      <c r="B37" s="10"/>
+      <c r="C37" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="22" t="e">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1643,19 +1587,19 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="18" t="e">
+      <c r="B38" s="9"/>
+      <c r="C38" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="22" t="e">
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1664,19 +1608,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="19" t="e">
+      <c r="B39" s="10"/>
+      <c r="C39" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="22" t="e">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1685,19 +1629,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="18" t="e">
+      <c r="B40" s="9"/>
+      <c r="C40" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="22" t="e">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1706,19 +1650,19 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="19" t="e">
+      <c r="B41" s="10"/>
+      <c r="C41" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="22" t="e">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1727,19 +1671,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="18" t="e">
+      <c r="B42" s="9"/>
+      <c r="C42" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="22" t="e">
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1748,19 +1692,19 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="19" t="e">
+      <c r="B43" s="10"/>
+      <c r="C43" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="22" t="e">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1769,19 +1713,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="18" t="e">
+      <c r="B44" s="9"/>
+      <c r="C44" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="22" t="e">
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1790,19 +1734,19 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="19" t="e">
+      <c r="B45" s="10"/>
+      <c r="C45" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="22" t="e">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1811,19 +1755,19 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="18" t="e">
+      <c r="B46" s="9"/>
+      <c r="C46" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="22" t="e">
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1832,19 +1776,19 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="19" t="e">
+      <c r="B47" s="10"/>
+      <c r="C47" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="22" t="e">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1853,19 +1797,19 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="18" t="e">
+      <c r="B48" s="9"/>
+      <c r="C48" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="22" t="e">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1874,19 +1818,19 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="19" t="e">
+      <c r="B49" s="10"/>
+      <c r="C49" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="22" t="e">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
       <c r="I49" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1895,19 +1839,19 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="18" t="e">
+      <c r="B50" s="9"/>
+      <c r="C50" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="22" t="e">
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1916,19 +1860,19 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="19" t="e">
+      <c r="B51" s="10"/>
+      <c r="C51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="22" t="e">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1937,19 +1881,19 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="18" t="e">
+      <c r="B52" s="9"/>
+      <c r="C52" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="22" t="e">
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1958,19 +1902,19 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="19" t="e">
+      <c r="B53" s="10"/>
+      <c r="C53" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="22" t="e">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
       <c r="I53" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -1979,19 +1923,19 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="18" t="e">
+      <c r="B54" s="9"/>
+      <c r="C54" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="22" t="e">
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2000,19 +1944,19 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="19" t="e">
+      <c r="B55" s="10"/>
+      <c r="C55" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="22" t="e">
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2021,19 +1965,19 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="18" t="e">
+      <c r="B56" s="9"/>
+      <c r="C56" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="22" t="e">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2042,19 +1986,19 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="19" t="e">
+      <c r="B57" s="10"/>
+      <c r="C57" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="22" t="e">
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
       <c r="I57" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2063,19 +2007,19 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="18" t="e">
+      <c r="B58" s="9"/>
+      <c r="C58" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="22" t="e">
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2084,19 +2028,19 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="19" t="e">
+      <c r="B59" s="10"/>
+      <c r="C59" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="22" t="e">
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
       <c r="I59" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2105,19 +2049,19 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="18" t="e">
+      <c r="B60" s="9"/>
+      <c r="C60" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="22" t="e">
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2126,19 +2070,19 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="19" t="e">
+      <c r="B61" s="10"/>
+      <c r="C61" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="22" t="e">
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2147,19 +2091,19 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="18" t="e">
+      <c r="B62" s="9"/>
+      <c r="C62" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="22" t="e">
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
       <c r="I62" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2168,19 +2112,19 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="19" t="e">
+      <c r="B63" s="10"/>
+      <c r="C63" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="22" t="e">
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
       <c r="I63" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2189,19 +2133,19 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="18" t="e">
+      <c r="B64" s="9"/>
+      <c r="C64" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="22" t="e">
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
       <c r="I64" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2210,19 +2154,19 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="19" t="e">
+      <c r="B65" s="10"/>
+      <c r="C65" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="22" t="e">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
       <c r="I65" s="6" t="e">
         <f t="shared" ref="I65:I128" si="3">VLOOKUP(J65,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -2231,19 +2175,19 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="18" t="e">
+      <c r="B66" s="9"/>
+      <c r="C66" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="22" t="e">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
       <c r="I66" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2252,19 +2196,19 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="19" t="e">
+      <c r="B67" s="10"/>
+      <c r="C67" s="13" t="e">
         <f t="shared" ref="C67:C130" si="4">VLOOKUP(D67,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="22" t="e">
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="16" t="e">
         <f t="shared" ref="F67:F130" si="5">VLOOKUP(G67,Tabla_INI,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
       <c r="I67" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2273,19 +2217,19 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="18" t="e">
+      <c r="B68" s="9"/>
+      <c r="C68" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="22" t="e">
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
       <c r="I68" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2294,19 +2238,19 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="19" t="e">
+      <c r="B69" s="10"/>
+      <c r="C69" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="22" t="e">
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
       <c r="I69" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2315,19 +2259,19 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="18" t="e">
+      <c r="B70" s="9"/>
+      <c r="C70" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="22" t="e">
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2336,19 +2280,19 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="19" t="e">
+      <c r="B71" s="10"/>
+      <c r="C71" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="22" t="e">
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
       <c r="I71" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2357,19 +2301,19 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="18" t="e">
+      <c r="B72" s="9"/>
+      <c r="C72" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="22" t="e">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2378,19 +2322,19 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="19" t="e">
+      <c r="B73" s="10"/>
+      <c r="C73" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="22" t="e">
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
       <c r="I73" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2399,19 +2343,19 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="18" t="e">
+      <c r="B74" s="9"/>
+      <c r="C74" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="22" t="e">
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2420,19 +2364,19 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="19" t="e">
+      <c r="B75" s="10"/>
+      <c r="C75" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="22" t="e">
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
       <c r="I75" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2441,19 +2385,19 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="18" t="e">
+      <c r="B76" s="9"/>
+      <c r="C76" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="22" t="e">
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2462,19 +2406,19 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="19" t="e">
+      <c r="B77" s="10"/>
+      <c r="C77" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="22" t="e">
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
       <c r="I77" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2483,19 +2427,19 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="18" t="e">
+      <c r="B78" s="9"/>
+      <c r="C78" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="22" t="e">
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2504,19 +2448,19 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="19" t="e">
+      <c r="B79" s="10"/>
+      <c r="C79" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="22" t="e">
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
       <c r="I79" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2525,19 +2469,19 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="18" t="e">
+      <c r="B80" s="9"/>
+      <c r="C80" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="22" t="e">
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2546,19 +2490,19 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="19" t="e">
+      <c r="B81" s="10"/>
+      <c r="C81" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="22" t="e">
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
       <c r="I81" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2567,19 +2511,19 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="18" t="e">
+      <c r="B82" s="9"/>
+      <c r="C82" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="22" t="e">
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2588,19 +2532,19 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="19" t="e">
+      <c r="B83" s="10"/>
+      <c r="C83" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="22" t="e">
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
       <c r="I83" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2609,19 +2553,19 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="18" t="e">
+      <c r="B84" s="9"/>
+      <c r="C84" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="22" t="e">
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2630,19 +2574,19 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="19" t="e">
+      <c r="B85" s="10"/>
+      <c r="C85" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="22" t="e">
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2651,19 +2595,19 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="18" t="e">
+      <c r="B86" s="9"/>
+      <c r="C86" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="22" t="e">
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2672,19 +2616,19 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="19" t="e">
+      <c r="B87" s="10"/>
+      <c r="C87" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="22" t="e">
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
       <c r="I87" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2693,19 +2637,19 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="18" t="e">
+      <c r="B88" s="9"/>
+      <c r="C88" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="22" t="e">
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2714,19 +2658,19 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="19" t="e">
+      <c r="B89" s="10"/>
+      <c r="C89" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="22" t="e">
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
       <c r="I89" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2735,19 +2679,19 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="18" t="e">
+      <c r="B90" s="9"/>
+      <c r="C90" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="22" t="e">
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2756,19 +2700,19 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="19" t="e">
+      <c r="B91" s="10"/>
+      <c r="C91" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="22" t="e">
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
       <c r="I91" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2777,19 +2721,19 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="18" t="e">
+      <c r="B92" s="9"/>
+      <c r="C92" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="22" t="e">
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
       <c r="I92" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2798,19 +2742,19 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="19" t="e">
+      <c r="B93" s="10"/>
+      <c r="C93" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="22" t="e">
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
       <c r="I93" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2819,19 +2763,19 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="18" t="e">
+      <c r="B94" s="9"/>
+      <c r="C94" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="22" t="e">
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2840,19 +2784,19 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="19" t="e">
+      <c r="B95" s="10"/>
+      <c r="C95" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="22" t="e">
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
       <c r="I95" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2861,19 +2805,19 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="18" t="e">
+      <c r="B96" s="9"/>
+      <c r="C96" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="22" t="e">
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2882,19 +2826,19 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="19" t="e">
+      <c r="B97" s="10"/>
+      <c r="C97" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="22" t="e">
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
       <c r="I97" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2903,19 +2847,19 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="18" t="e">
+      <c r="B98" s="9"/>
+      <c r="C98" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="22" t="e">
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2924,19 +2868,19 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="19" t="e">
+      <c r="B99" s="10"/>
+      <c r="C99" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="22" t="e">
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
       <c r="I99" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2945,19 +2889,19 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="18" t="e">
+      <c r="B100" s="9"/>
+      <c r="C100" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="22" t="e">
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2966,19 +2910,19 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="19" t="e">
+      <c r="B101" s="10"/>
+      <c r="C101" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="22" t="e">
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
       <c r="I101" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2987,19 +2931,19 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="18" t="e">
+      <c r="B102" s="9"/>
+      <c r="C102" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="22" t="e">
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3008,19 +2952,19 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="19" t="e">
+      <c r="B103" s="10"/>
+      <c r="C103" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="22" t="e">
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
       <c r="I103" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3029,19 +2973,19 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="18" t="e">
+      <c r="B104" s="9"/>
+      <c r="C104" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="22" t="e">
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
       <c r="I104" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3050,19 +2994,19 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="19" t="e">
+      <c r="B105" s="10"/>
+      <c r="C105" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="22" t="e">
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
       <c r="I105" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3071,19 +3015,19 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="18" t="e">
+      <c r="B106" s="9"/>
+      <c r="C106" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="22" t="e">
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3092,19 +3036,19 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="19" t="e">
+      <c r="B107" s="10"/>
+      <c r="C107" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="22" t="e">
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
       <c r="I107" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3113,19 +3057,19 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="18" t="e">
+      <c r="B108" s="9"/>
+      <c r="C108" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="22" t="e">
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
       <c r="I108" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3134,19 +3078,19 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="19" t="e">
+      <c r="B109" s="10"/>
+      <c r="C109" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="22" t="e">
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
       <c r="I109" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3155,19 +3099,19 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="18" t="e">
+      <c r="B110" s="9"/>
+      <c r="C110" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="22" t="e">
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
       <c r="I110" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3176,19 +3120,19 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="19" t="e">
+      <c r="B111" s="10"/>
+      <c r="C111" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="22" t="e">
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
       <c r="I111" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3197,19 +3141,19 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="18" t="e">
+      <c r="B112" s="9"/>
+      <c r="C112" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="22" t="e">
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
       <c r="I112" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3218,19 +3162,19 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="19" t="e">
+      <c r="B113" s="10"/>
+      <c r="C113" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="22" t="e">
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
       <c r="I113" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3239,19 +3183,19 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="18" t="e">
+      <c r="B114" s="9"/>
+      <c r="C114" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="22" t="e">
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
       <c r="I114" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3260,19 +3204,19 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="19" t="e">
+      <c r="B115" s="10"/>
+      <c r="C115" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="22" t="e">
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
       <c r="I115" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3281,19 +3225,19 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="18" t="e">
+      <c r="B116" s="9"/>
+      <c r="C116" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="22" t="e">
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
       <c r="I116" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3302,19 +3246,19 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="19" t="e">
+      <c r="B117" s="10"/>
+      <c r="C117" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="22" t="e">
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
       <c r="I117" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3323,19 +3267,19 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="18" t="e">
+      <c r="B118" s="9"/>
+      <c r="C118" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="22" t="e">
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
       <c r="I118" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3344,19 +3288,19 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="19" t="e">
+      <c r="B119" s="10"/>
+      <c r="C119" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="22" t="e">
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
       <c r="I119" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3365,19 +3309,19 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="18" t="e">
+      <c r="B120" s="9"/>
+      <c r="C120" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="22" t="e">
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
       <c r="I120" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3386,19 +3330,19 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="19" t="e">
+      <c r="B121" s="10"/>
+      <c r="C121" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="22" t="e">
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
       <c r="I121" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3407,19 +3351,19 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="18" t="e">
+      <c r="B122" s="9"/>
+      <c r="C122" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="22" t="e">
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
       <c r="I122" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3428,19 +3372,19 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="19" t="e">
+      <c r="B123" s="10"/>
+      <c r="C123" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="22" t="e">
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
       <c r="I123" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3449,19 +3393,19 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="18" t="e">
+      <c r="B124" s="9"/>
+      <c r="C124" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="22" t="e">
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
       <c r="I124" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3470,19 +3414,19 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="19" t="e">
+      <c r="B125" s="10"/>
+      <c r="C125" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="22" t="e">
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
       <c r="I125" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3491,19 +3435,19 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="18" t="e">
+      <c r="B126" s="9"/>
+      <c r="C126" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="22" t="e">
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
       <c r="I126" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3512,19 +3456,19 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="19" t="e">
+      <c r="B127" s="10"/>
+      <c r="C127" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="22" t="e">
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
       <c r="I127" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3533,19 +3477,19 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="18" t="e">
+      <c r="B128" s="9"/>
+      <c r="C128" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="22" t="e">
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3554,19 +3498,19 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="19" t="e">
+      <c r="B129" s="10"/>
+      <c r="C129" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="22" t="e">
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
       <c r="I129" s="6" t="e">
         <f t="shared" ref="I129:I192" si="6">VLOOKUP(J129,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -3575,19 +3519,19 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="18" t="e">
+      <c r="B130" s="9"/>
+      <c r="C130" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="22" t="e">
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
       <c r="I130" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3596,19 +3540,19 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
-      <c r="B131" s="13"/>
-      <c r="C131" s="19" t="e">
+      <c r="B131" s="10"/>
+      <c r="C131" s="13" t="e">
         <f t="shared" ref="C131:C194" si="7">VLOOKUP(D131,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="22" t="e">
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="16" t="e">
         <f t="shared" ref="F131:F194" si="8">VLOOKUP(G131,Tabla_INI,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
       <c r="I131" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3617,19 +3561,19 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="18" t="e">
+      <c r="B132" s="9"/>
+      <c r="C132" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="22" t="e">
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
       <c r="I132" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3638,19 +3582,19 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
-      <c r="B133" s="13"/>
-      <c r="C133" s="19" t="e">
+      <c r="B133" s="10"/>
+      <c r="C133" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="22" t="e">
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
       <c r="I133" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3659,19 +3603,19 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="18" t="e">
+      <c r="B134" s="9"/>
+      <c r="C134" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="22" t="e">
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
       <c r="I134" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3680,19 +3624,19 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
-      <c r="B135" s="13"/>
-      <c r="C135" s="19" t="e">
+      <c r="B135" s="10"/>
+      <c r="C135" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="22" t="e">
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
       <c r="I135" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3701,19 +3645,19 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="18" t="e">
+      <c r="B136" s="9"/>
+      <c r="C136" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="22" t="e">
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
       <c r="I136" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3722,19 +3666,19 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
-      <c r="B137" s="13"/>
-      <c r="C137" s="19" t="e">
+      <c r="B137" s="10"/>
+      <c r="C137" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="22" t="e">
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
       <c r="I137" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3743,19 +3687,19 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="18" t="e">
+      <c r="B138" s="9"/>
+      <c r="C138" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="22" t="e">
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
       <c r="I138" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3764,19 +3708,19 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
-      <c r="B139" s="13"/>
-      <c r="C139" s="19" t="e">
+      <c r="B139" s="10"/>
+      <c r="C139" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="22" t="e">
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
       <c r="I139" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3785,19 +3729,19 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="18" t="e">
+      <c r="B140" s="9"/>
+      <c r="C140" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="22" t="e">
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
       <c r="I140" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3806,19 +3750,19 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
-      <c r="B141" s="13"/>
-      <c r="C141" s="19" t="e">
+      <c r="B141" s="10"/>
+      <c r="C141" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="22" t="e">
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
       <c r="I141" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3827,19 +3771,19 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="18" t="e">
+      <c r="B142" s="9"/>
+      <c r="C142" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="22" t="e">
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
       <c r="I142" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3848,19 +3792,19 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="19" t="e">
+      <c r="B143" s="10"/>
+      <c r="C143" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="22" t="e">
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G143" s="13"/>
-      <c r="H143" s="13"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
       <c r="I143" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3869,19 +3813,19 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="18" t="e">
+      <c r="B144" s="9"/>
+      <c r="C144" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="22" t="e">
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
       <c r="I144" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3890,19 +3834,19 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
-      <c r="B145" s="13"/>
-      <c r="C145" s="19" t="e">
+      <c r="B145" s="10"/>
+      <c r="C145" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="22" t="e">
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G145" s="13"/>
-      <c r="H145" s="13"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
       <c r="I145" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3911,19 +3855,19 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="18" t="e">
+      <c r="B146" s="9"/>
+      <c r="C146" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="22" t="e">
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
       <c r="I146" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3932,19 +3876,19 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="19" t="e">
+      <c r="B147" s="10"/>
+      <c r="C147" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="22" t="e">
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G147" s="13"/>
-      <c r="H147" s="13"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
       <c r="I147" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3953,19 +3897,19 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="18" t="e">
+      <c r="B148" s="9"/>
+      <c r="C148" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="22" t="e">
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
       <c r="I148" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3974,19 +3918,19 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
-      <c r="B149" s="13"/>
-      <c r="C149" s="19" t="e">
+      <c r="B149" s="10"/>
+      <c r="C149" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="22" t="e">
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G149" s="13"/>
-      <c r="H149" s="13"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
       <c r="I149" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3995,19 +3939,19 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="18" t="e">
+      <c r="B150" s="9"/>
+      <c r="C150" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="22" t="e">
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
       <c r="I150" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4016,19 +3960,19 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
-      <c r="B151" s="13"/>
-      <c r="C151" s="19" t="e">
+      <c r="B151" s="10"/>
+      <c r="C151" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="22" t="e">
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G151" s="13"/>
-      <c r="H151" s="13"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
       <c r="I151" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4037,19 +3981,19 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="18" t="e">
+      <c r="B152" s="9"/>
+      <c r="C152" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="22" t="e">
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
       <c r="I152" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4058,19 +4002,19 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
-      <c r="B153" s="13"/>
-      <c r="C153" s="19" t="e">
+      <c r="B153" s="10"/>
+      <c r="C153" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="22" t="e">
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G153" s="13"/>
-      <c r="H153" s="13"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
       <c r="I153" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4079,19 +4023,19 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="18" t="e">
+      <c r="B154" s="9"/>
+      <c r="C154" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="22" t="e">
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
       <c r="I154" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4100,19 +4044,19 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
-      <c r="B155" s="13"/>
-      <c r="C155" s="19" t="e">
+      <c r="B155" s="10"/>
+      <c r="C155" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="22" t="e">
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G155" s="13"/>
-      <c r="H155" s="13"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
       <c r="I155" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4121,19 +4065,19 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="18" t="e">
+      <c r="B156" s="9"/>
+      <c r="C156" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="22" t="e">
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
       <c r="I156" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4142,19 +4086,19 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
-      <c r="B157" s="13"/>
-      <c r="C157" s="19" t="e">
+      <c r="B157" s="10"/>
+      <c r="C157" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="22" t="e">
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G157" s="13"/>
-      <c r="H157" s="13"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
       <c r="I157" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4163,19 +4107,19 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="18" t="e">
+      <c r="B158" s="9"/>
+      <c r="C158" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="22" t="e">
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
       <c r="I158" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4184,19 +4128,19 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
-      <c r="B159" s="13"/>
-      <c r="C159" s="19" t="e">
+      <c r="B159" s="10"/>
+      <c r="C159" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="22" t="e">
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G159" s="13"/>
-      <c r="H159" s="13"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
       <c r="I159" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4205,19 +4149,19 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="18" t="e">
+      <c r="B160" s="9"/>
+      <c r="C160" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="22" t="e">
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G160" s="12"/>
-      <c r="H160" s="12"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
       <c r="I160" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4226,19 +4170,19 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
-      <c r="B161" s="13"/>
-      <c r="C161" s="19" t="e">
+      <c r="B161" s="10"/>
+      <c r="C161" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="22" t="e">
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G161" s="13"/>
-      <c r="H161" s="13"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
       <c r="I161" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4247,19 +4191,19 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="18" t="e">
+      <c r="B162" s="9"/>
+      <c r="C162" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="22" t="e">
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
       <c r="I162" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4268,19 +4212,19 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
-      <c r="B163" s="13"/>
-      <c r="C163" s="19" t="e">
+      <c r="B163" s="10"/>
+      <c r="C163" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="22" t="e">
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G163" s="13"/>
-      <c r="H163" s="13"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
       <c r="I163" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4289,19 +4233,19 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="18" t="e">
+      <c r="B164" s="9"/>
+      <c r="C164" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="22" t="e">
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G164" s="12"/>
-      <c r="H164" s="12"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
       <c r="I164" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4310,19 +4254,19 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
-      <c r="B165" s="13"/>
-      <c r="C165" s="19" t="e">
+      <c r="B165" s="10"/>
+      <c r="C165" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="22" t="e">
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G165" s="13"/>
-      <c r="H165" s="13"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
       <c r="I165" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4331,19 +4275,19 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="18" t="e">
+      <c r="B166" s="9"/>
+      <c r="C166" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="22" t="e">
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G166" s="12"/>
-      <c r="H166" s="12"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
       <c r="I166" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4352,19 +4296,19 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
-      <c r="B167" s="13"/>
-      <c r="C167" s="19" t="e">
+      <c r="B167" s="10"/>
+      <c r="C167" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="22" t="e">
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G167" s="13"/>
-      <c r="H167" s="13"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
       <c r="I167" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4373,19 +4317,19 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="18" t="e">
+      <c r="B168" s="9"/>
+      <c r="C168" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="22" t="e">
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
       <c r="I168" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4394,19 +4338,19 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
-      <c r="B169" s="13"/>
-      <c r="C169" s="19" t="e">
+      <c r="B169" s="10"/>
+      <c r="C169" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="22" t="e">
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G169" s="13"/>
-      <c r="H169" s="13"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
       <c r="I169" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4415,19 +4359,19 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="18" t="e">
+      <c r="B170" s="9"/>
+      <c r="C170" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="22" t="e">
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G170" s="12"/>
-      <c r="H170" s="12"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
       <c r="I170" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4436,19 +4380,19 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
-      <c r="B171" s="13"/>
-      <c r="C171" s="19" t="e">
+      <c r="B171" s="10"/>
+      <c r="C171" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="22" t="e">
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
       <c r="I171" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4457,19 +4401,19 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="18" t="e">
+      <c r="B172" s="9"/>
+      <c r="C172" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="22" t="e">
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G172" s="12"/>
-      <c r="H172" s="12"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
       <c r="I172" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4478,19 +4422,19 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
-      <c r="B173" s="13"/>
-      <c r="C173" s="19" t="e">
+      <c r="B173" s="10"/>
+      <c r="C173" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="22" t="e">
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G173" s="13"/>
-      <c r="H173" s="13"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10"/>
       <c r="I173" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4499,19 +4443,19 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="18" t="e">
+      <c r="B174" s="9"/>
+      <c r="C174" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="22" t="e">
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G174" s="12"/>
-      <c r="H174" s="12"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
       <c r="I174" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4520,19 +4464,19 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
-      <c r="B175" s="13"/>
-      <c r="C175" s="19" t="e">
+      <c r="B175" s="10"/>
+      <c r="C175" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="22" t="e">
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G175" s="13"/>
-      <c r="H175" s="13"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10"/>
       <c r="I175" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4541,19 +4485,19 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="18" t="e">
+      <c r="B176" s="9"/>
+      <c r="C176" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="22" t="e">
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G176" s="12"/>
-      <c r="H176" s="12"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
       <c r="I176" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4562,19 +4506,19 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
-      <c r="B177" s="13"/>
-      <c r="C177" s="19" t="e">
+      <c r="B177" s="10"/>
+      <c r="C177" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="22" t="e">
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G177" s="13"/>
-      <c r="H177" s="13"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
       <c r="I177" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4583,19 +4527,19 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="18" t="e">
+      <c r="B178" s="9"/>
+      <c r="C178" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D178" s="12"/>
-      <c r="E178" s="12"/>
-      <c r="F178" s="22" t="e">
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G178" s="12"/>
-      <c r="H178" s="12"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
       <c r="I178" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4604,19 +4548,19 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
-      <c r="B179" s="13"/>
-      <c r="C179" s="19" t="e">
+      <c r="B179" s="10"/>
+      <c r="C179" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="22" t="e">
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G179" s="13"/>
-      <c r="H179" s="13"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
       <c r="I179" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4625,19 +4569,19 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="18" t="e">
+      <c r="B180" s="9"/>
+      <c r="C180" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="22" t="e">
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G180" s="12"/>
-      <c r="H180" s="12"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
       <c r="I180" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4646,19 +4590,19 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
-      <c r="B181" s="13"/>
-      <c r="C181" s="19" t="e">
+      <c r="B181" s="10"/>
+      <c r="C181" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="22" t="e">
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G181" s="13"/>
-      <c r="H181" s="13"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
       <c r="I181" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4667,19 +4611,19 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="18" t="e">
+      <c r="B182" s="9"/>
+      <c r="C182" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
-      <c r="F182" s="22" t="e">
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G182" s="12"/>
-      <c r="H182" s="12"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
       <c r="I182" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4688,19 +4632,19 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
-      <c r="B183" s="13"/>
-      <c r="C183" s="19" t="e">
+      <c r="B183" s="10"/>
+      <c r="C183" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="22" t="e">
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G183" s="13"/>
-      <c r="H183" s="13"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="10"/>
       <c r="I183" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4709,19 +4653,19 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="18" t="e">
+      <c r="B184" s="9"/>
+      <c r="C184" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="22" t="e">
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G184" s="12"/>
-      <c r="H184" s="12"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
       <c r="I184" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4730,19 +4674,19 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
-      <c r="B185" s="13"/>
-      <c r="C185" s="19" t="e">
+      <c r="B185" s="10"/>
+      <c r="C185" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
-      <c r="F185" s="22" t="e">
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G185" s="13"/>
-      <c r="H185" s="13"/>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
       <c r="I185" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4751,19 +4695,19 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="18" t="e">
+      <c r="B186" s="9"/>
+      <c r="C186" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="22" t="e">
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G186" s="12"/>
-      <c r="H186" s="12"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
       <c r="I186" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4772,19 +4716,19 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
-      <c r="B187" s="13"/>
-      <c r="C187" s="19" t="e">
+      <c r="B187" s="10"/>
+      <c r="C187" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="22" t="e">
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G187" s="13"/>
-      <c r="H187" s="13"/>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
       <c r="I187" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4793,19 +4737,19 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="18" t="e">
+      <c r="B188" s="9"/>
+      <c r="C188" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="22" t="e">
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G188" s="12"/>
-      <c r="H188" s="12"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
       <c r="I188" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4814,19 +4758,19 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
-      <c r="B189" s="13"/>
-      <c r="C189" s="19" t="e">
+      <c r="B189" s="10"/>
+      <c r="C189" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="22" t="e">
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G189" s="13"/>
-      <c r="H189" s="13"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
       <c r="I189" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4835,19 +4779,19 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="18" t="e">
+      <c r="B190" s="9"/>
+      <c r="C190" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="22" t="e">
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G190" s="12"/>
-      <c r="H190" s="12"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
       <c r="I190" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4856,19 +4800,19 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
-      <c r="B191" s="13"/>
-      <c r="C191" s="19" t="e">
+      <c r="B191" s="10"/>
+      <c r="C191" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D191" s="13"/>
-      <c r="E191" s="13"/>
-      <c r="F191" s="22" t="e">
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G191" s="13"/>
-      <c r="H191" s="13"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
       <c r="I191" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4877,19 +4821,19 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="18" t="e">
+      <c r="B192" s="9"/>
+      <c r="C192" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="22" t="e">
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G192" s="12"/>
-      <c r="H192" s="12"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
       <c r="I192" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4898,19 +4842,19 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
-      <c r="B193" s="13"/>
-      <c r="C193" s="19" t="e">
+      <c r="B193" s="10"/>
+      <c r="C193" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="22" t="e">
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G193" s="13"/>
-      <c r="H193" s="13"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
       <c r="I193" s="6" t="e">
         <f t="shared" ref="I193:I256" si="9">VLOOKUP(J193,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -4919,19 +4863,19 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
-      <c r="B194" s="12"/>
-      <c r="C194" s="18" t="e">
+      <c r="B194" s="9"/>
+      <c r="C194" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="22" t="e">
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G194" s="12"/>
-      <c r="H194" s="12"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
       <c r="I194" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4940,19 +4884,19 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
-      <c r="B195" s="13"/>
-      <c r="C195" s="19" t="e">
+      <c r="B195" s="10"/>
+      <c r="C195" s="13" t="e">
         <f t="shared" ref="C195:C258" si="10">VLOOKUP(D195,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
-      <c r="F195" s="22" t="e">
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="16" t="e">
         <f t="shared" ref="F195:F258" si="11">VLOOKUP(G195,Tabla_INI,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G195" s="13"/>
-      <c r="H195" s="13"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
       <c r="I195" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4961,19 +4905,19 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="18" t="e">
+      <c r="B196" s="9"/>
+      <c r="C196" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="22" t="e">
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G196" s="12"/>
-      <c r="H196" s="12"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
       <c r="I196" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4982,19 +4926,19 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
-      <c r="B197" s="13"/>
-      <c r="C197" s="19" t="e">
+      <c r="B197" s="10"/>
+      <c r="C197" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D197" s="13"/>
-      <c r="E197" s="13"/>
-      <c r="F197" s="22" t="e">
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G197" s="13"/>
-      <c r="H197" s="13"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
       <c r="I197" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5003,19 +4947,19 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="18" t="e">
+      <c r="B198" s="9"/>
+      <c r="C198" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
-      <c r="F198" s="22" t="e">
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G198" s="12"/>
-      <c r="H198" s="12"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
       <c r="I198" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5024,19 +4968,19 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
-      <c r="B199" s="13"/>
-      <c r="C199" s="19" t="e">
+      <c r="B199" s="10"/>
+      <c r="C199" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
-      <c r="F199" s="22" t="e">
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G199" s="13"/>
-      <c r="H199" s="13"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
       <c r="I199" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5045,19 +4989,19 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="18" t="e">
+      <c r="B200" s="9"/>
+      <c r="C200" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D200" s="12"/>
-      <c r="E200" s="12"/>
-      <c r="F200" s="22" t="e">
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G200" s="12"/>
-      <c r="H200" s="12"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
       <c r="I200" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5066,19 +5010,19 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
-      <c r="B201" s="13"/>
-      <c r="C201" s="19" t="e">
+      <c r="B201" s="10"/>
+      <c r="C201" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
-      <c r="F201" s="22" t="e">
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G201" s="13"/>
-      <c r="H201" s="13"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
       <c r="I201" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5087,19 +5031,19 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
-      <c r="B202" s="12"/>
-      <c r="C202" s="18" t="e">
+      <c r="B202" s="9"/>
+      <c r="C202" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="22" t="e">
+      <c r="D202" s="9"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G202" s="12"/>
-      <c r="H202" s="12"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
       <c r="I202" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5108,19 +5052,19 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
-      <c r="B203" s="13"/>
-      <c r="C203" s="19" t="e">
+      <c r="B203" s="10"/>
+      <c r="C203" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D203" s="13"/>
-      <c r="E203" s="13"/>
-      <c r="F203" s="22" t="e">
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G203" s="13"/>
-      <c r="H203" s="13"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
       <c r="I203" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5129,19 +5073,19 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
-      <c r="B204" s="12"/>
-      <c r="C204" s="18" t="e">
+      <c r="B204" s="9"/>
+      <c r="C204" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="22" t="e">
+      <c r="D204" s="9"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G204" s="12"/>
-      <c r="H204" s="12"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="9"/>
       <c r="I204" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5150,19 +5094,19 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
-      <c r="B205" s="13"/>
-      <c r="C205" s="19" t="e">
+      <c r="B205" s="10"/>
+      <c r="C205" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
-      <c r="F205" s="22" t="e">
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G205" s="13"/>
-      <c r="H205" s="13"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="10"/>
       <c r="I205" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5171,19 +5115,19 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
-      <c r="B206" s="12"/>
-      <c r="C206" s="18" t="e">
+      <c r="B206" s="9"/>
+      <c r="C206" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D206" s="12"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="22" t="e">
+      <c r="D206" s="9"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G206" s="12"/>
-      <c r="H206" s="12"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="9"/>
       <c r="I206" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5192,19 +5136,19 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
-      <c r="B207" s="13"/>
-      <c r="C207" s="19" t="e">
+      <c r="B207" s="10"/>
+      <c r="C207" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
-      <c r="F207" s="22" t="e">
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G207" s="13"/>
-      <c r="H207" s="13"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="10"/>
       <c r="I207" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5213,19 +5157,19 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
-      <c r="B208" s="12"/>
-      <c r="C208" s="18" t="e">
+      <c r="B208" s="9"/>
+      <c r="C208" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D208" s="12"/>
-      <c r="E208" s="12"/>
-      <c r="F208" s="22" t="e">
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G208" s="12"/>
-      <c r="H208" s="12"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
       <c r="I208" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5234,19 +5178,19 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
-      <c r="B209" s="13"/>
-      <c r="C209" s="19" t="e">
+      <c r="B209" s="10"/>
+      <c r="C209" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="22" t="e">
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G209" s="13"/>
-      <c r="H209" s="13"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="10"/>
       <c r="I209" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5255,19 +5199,19 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
-      <c r="B210" s="12"/>
-      <c r="C210" s="18" t="e">
+      <c r="B210" s="9"/>
+      <c r="C210" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D210" s="12"/>
-      <c r="E210" s="12"/>
-      <c r="F210" s="22" t="e">
+      <c r="D210" s="9"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G210" s="12"/>
-      <c r="H210" s="12"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
       <c r="I210" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5276,19 +5220,19 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
-      <c r="B211" s="13"/>
-      <c r="C211" s="19" t="e">
+      <c r="B211" s="10"/>
+      <c r="C211" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
-      <c r="F211" s="22" t="e">
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G211" s="13"/>
-      <c r="H211" s="13"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="10"/>
       <c r="I211" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5297,19 +5241,19 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="18" t="e">
+      <c r="B212" s="9"/>
+      <c r="C212" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D212" s="12"/>
-      <c r="E212" s="12"/>
-      <c r="F212" s="22" t="e">
+      <c r="D212" s="9"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G212" s="12"/>
-      <c r="H212" s="12"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="9"/>
       <c r="I212" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5318,19 +5262,19 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
-      <c r="B213" s="13"/>
-      <c r="C213" s="19" t="e">
+      <c r="B213" s="10"/>
+      <c r="C213" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D213" s="13"/>
-      <c r="E213" s="13"/>
-      <c r="F213" s="22" t="e">
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G213" s="13"/>
-      <c r="H213" s="13"/>
+      <c r="G213" s="10"/>
+      <c r="H213" s="10"/>
       <c r="I213" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5339,19 +5283,19 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
-      <c r="B214" s="12"/>
-      <c r="C214" s="18" t="e">
+      <c r="B214" s="9"/>
+      <c r="C214" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D214" s="12"/>
-      <c r="E214" s="12"/>
-      <c r="F214" s="22" t="e">
+      <c r="D214" s="9"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G214" s="12"/>
-      <c r="H214" s="12"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
       <c r="I214" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5360,19 +5304,19 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
-      <c r="B215" s="13"/>
-      <c r="C215" s="19" t="e">
+      <c r="B215" s="10"/>
+      <c r="C215" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D215" s="13"/>
-      <c r="E215" s="13"/>
-      <c r="F215" s="22" t="e">
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G215" s="13"/>
-      <c r="H215" s="13"/>
+      <c r="G215" s="10"/>
+      <c r="H215" s="10"/>
       <c r="I215" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5381,19 +5325,19 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
-      <c r="B216" s="12"/>
-      <c r="C216" s="18" t="e">
+      <c r="B216" s="9"/>
+      <c r="C216" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D216" s="12"/>
-      <c r="E216" s="12"/>
-      <c r="F216" s="22" t="e">
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G216" s="12"/>
-      <c r="H216" s="12"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="9"/>
       <c r="I216" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5402,19 +5346,19 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
-      <c r="B217" s="13"/>
-      <c r="C217" s="19" t="e">
+      <c r="B217" s="10"/>
+      <c r="C217" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D217" s="13"/>
-      <c r="E217" s="13"/>
-      <c r="F217" s="22" t="e">
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G217" s="13"/>
-      <c r="H217" s="13"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
       <c r="I217" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5423,19 +5367,19 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
-      <c r="B218" s="12"/>
-      <c r="C218" s="18" t="e">
+      <c r="B218" s="9"/>
+      <c r="C218" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D218" s="12"/>
-      <c r="E218" s="12"/>
-      <c r="F218" s="22" t="e">
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G218" s="12"/>
-      <c r="H218" s="12"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
       <c r="I218" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5444,19 +5388,19 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
-      <c r="B219" s="13"/>
-      <c r="C219" s="19" t="e">
+      <c r="B219" s="10"/>
+      <c r="C219" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D219" s="13"/>
-      <c r="E219" s="13"/>
-      <c r="F219" s="22" t="e">
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G219" s="13"/>
-      <c r="H219" s="13"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="10"/>
       <c r="I219" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5465,19 +5409,19 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
-      <c r="B220" s="12"/>
-      <c r="C220" s="18" t="e">
+      <c r="B220" s="9"/>
+      <c r="C220" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="22" t="e">
+      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G220" s="12"/>
-      <c r="H220" s="12"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="9"/>
       <c r="I220" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5486,19 +5430,19 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
-      <c r="B221" s="13"/>
-      <c r="C221" s="19" t="e">
+      <c r="B221" s="10"/>
+      <c r="C221" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D221" s="13"/>
-      <c r="E221" s="13"/>
-      <c r="F221" s="22" t="e">
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G221" s="13"/>
-      <c r="H221" s="13"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="10"/>
       <c r="I221" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5507,19 +5451,19 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
-      <c r="B222" s="12"/>
-      <c r="C222" s="18" t="e">
+      <c r="B222" s="9"/>
+      <c r="C222" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D222" s="12"/>
-      <c r="E222" s="12"/>
-      <c r="F222" s="22" t="e">
+      <c r="D222" s="9"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G222" s="12"/>
-      <c r="H222" s="12"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
       <c r="I222" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5528,19 +5472,19 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
-      <c r="B223" s="13"/>
-      <c r="C223" s="19" t="e">
+      <c r="B223" s="10"/>
+      <c r="C223" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D223" s="13"/>
-      <c r="E223" s="13"/>
-      <c r="F223" s="22" t="e">
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G223" s="13"/>
-      <c r="H223" s="13"/>
+      <c r="G223" s="10"/>
+      <c r="H223" s="10"/>
       <c r="I223" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5549,19 +5493,19 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
-      <c r="B224" s="12"/>
-      <c r="C224" s="18" t="e">
+      <c r="B224" s="9"/>
+      <c r="C224" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D224" s="12"/>
-      <c r="E224" s="12"/>
-      <c r="F224" s="22" t="e">
+      <c r="D224" s="9"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G224" s="12"/>
-      <c r="H224" s="12"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
       <c r="I224" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5570,19 +5514,19 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
-      <c r="B225" s="13"/>
-      <c r="C225" s="19" t="e">
+      <c r="B225" s="10"/>
+      <c r="C225" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D225" s="13"/>
-      <c r="E225" s="13"/>
-      <c r="F225" s="22" t="e">
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G225" s="13"/>
-      <c r="H225" s="13"/>
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
       <c r="I225" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5591,19 +5535,19 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
-      <c r="B226" s="12"/>
-      <c r="C226" s="18" t="e">
+      <c r="B226" s="9"/>
+      <c r="C226" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D226" s="12"/>
-      <c r="E226" s="12"/>
-      <c r="F226" s="22" t="e">
+      <c r="D226" s="9"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G226" s="12"/>
-      <c r="H226" s="12"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="9"/>
       <c r="I226" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5612,19 +5556,19 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
-      <c r="B227" s="13"/>
-      <c r="C227" s="19" t="e">
+      <c r="B227" s="10"/>
+      <c r="C227" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D227" s="13"/>
-      <c r="E227" s="13"/>
-      <c r="F227" s="22" t="e">
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G227" s="13"/>
-      <c r="H227" s="13"/>
+      <c r="G227" s="10"/>
+      <c r="H227" s="10"/>
       <c r="I227" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5633,19 +5577,19 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
-      <c r="B228" s="12"/>
-      <c r="C228" s="18" t="e">
+      <c r="B228" s="9"/>
+      <c r="C228" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D228" s="12"/>
-      <c r="E228" s="12"/>
-      <c r="F228" s="22" t="e">
+      <c r="D228" s="9"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G228" s="12"/>
-      <c r="H228" s="12"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="9"/>
       <c r="I228" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5654,19 +5598,19 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
-      <c r="B229" s="13"/>
-      <c r="C229" s="19" t="e">
+      <c r="B229" s="10"/>
+      <c r="C229" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D229" s="13"/>
-      <c r="E229" s="13"/>
-      <c r="F229" s="22" t="e">
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G229" s="13"/>
-      <c r="H229" s="13"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="10"/>
       <c r="I229" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5675,19 +5619,19 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
-      <c r="B230" s="12"/>
-      <c r="C230" s="18" t="e">
+      <c r="B230" s="9"/>
+      <c r="C230" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D230" s="12"/>
-      <c r="E230" s="12"/>
-      <c r="F230" s="22" t="e">
+      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G230" s="12"/>
-      <c r="H230" s="12"/>
+      <c r="G230" s="9"/>
+      <c r="H230" s="9"/>
       <c r="I230" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5696,19 +5640,19 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
-      <c r="B231" s="13"/>
-      <c r="C231" s="19" t="e">
+      <c r="B231" s="10"/>
+      <c r="C231" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D231" s="13"/>
-      <c r="E231" s="13"/>
-      <c r="F231" s="22" t="e">
+      <c r="D231" s="10"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G231" s="13"/>
-      <c r="H231" s="13"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="10"/>
       <c r="I231" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5717,19 +5661,19 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
-      <c r="B232" s="12"/>
-      <c r="C232" s="18" t="e">
+      <c r="B232" s="9"/>
+      <c r="C232" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D232" s="12"/>
-      <c r="E232" s="12"/>
-      <c r="F232" s="22" t="e">
+      <c r="D232" s="9"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G232" s="12"/>
-      <c r="H232" s="12"/>
+      <c r="G232" s="9"/>
+      <c r="H232" s="9"/>
       <c r="I232" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5738,19 +5682,19 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
-      <c r="B233" s="13"/>
-      <c r="C233" s="19" t="e">
+      <c r="B233" s="10"/>
+      <c r="C233" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D233" s="13"/>
-      <c r="E233" s="13"/>
-      <c r="F233" s="22" t="e">
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G233" s="13"/>
-      <c r="H233" s="13"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
       <c r="I233" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5759,19 +5703,19 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
-      <c r="B234" s="12"/>
-      <c r="C234" s="18" t="e">
+      <c r="B234" s="9"/>
+      <c r="C234" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D234" s="12"/>
-      <c r="E234" s="12"/>
-      <c r="F234" s="22" t="e">
+      <c r="D234" s="9"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G234" s="12"/>
-      <c r="H234" s="12"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="9"/>
       <c r="I234" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5780,19 +5724,19 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
-      <c r="B235" s="13"/>
-      <c r="C235" s="19" t="e">
+      <c r="B235" s="10"/>
+      <c r="C235" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D235" s="13"/>
-      <c r="E235" s="13"/>
-      <c r="F235" s="22" t="e">
+      <c r="D235" s="10"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G235" s="13"/>
-      <c r="H235" s="13"/>
+      <c r="G235" s="10"/>
+      <c r="H235" s="10"/>
       <c r="I235" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5801,19 +5745,19 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
-      <c r="B236" s="12"/>
-      <c r="C236" s="18" t="e">
+      <c r="B236" s="9"/>
+      <c r="C236" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D236" s="12"/>
-      <c r="E236" s="12"/>
-      <c r="F236" s="22" t="e">
+      <c r="D236" s="9"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G236" s="12"/>
-      <c r="H236" s="12"/>
+      <c r="G236" s="9"/>
+      <c r="H236" s="9"/>
       <c r="I236" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5822,19 +5766,19 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
-      <c r="B237" s="13"/>
-      <c r="C237" s="19" t="e">
+      <c r="B237" s="10"/>
+      <c r="C237" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D237" s="13"/>
-      <c r="E237" s="13"/>
-      <c r="F237" s="22" t="e">
+      <c r="D237" s="10"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G237" s="13"/>
-      <c r="H237" s="13"/>
+      <c r="G237" s="10"/>
+      <c r="H237" s="10"/>
       <c r="I237" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5843,19 +5787,19 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
-      <c r="B238" s="12"/>
-      <c r="C238" s="18" t="e">
+      <c r="B238" s="9"/>
+      <c r="C238" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D238" s="12"/>
-      <c r="E238" s="12"/>
-      <c r="F238" s="22" t="e">
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G238" s="12"/>
-      <c r="H238" s="12"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
       <c r="I238" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5864,19 +5808,19 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
-      <c r="B239" s="13"/>
-      <c r="C239" s="19" t="e">
+      <c r="B239" s="10"/>
+      <c r="C239" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D239" s="13"/>
-      <c r="E239" s="13"/>
-      <c r="F239" s="22" t="e">
+      <c r="D239" s="10"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G239" s="13"/>
-      <c r="H239" s="13"/>
+      <c r="G239" s="10"/>
+      <c r="H239" s="10"/>
       <c r="I239" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5885,19 +5829,19 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
-      <c r="B240" s="12"/>
-      <c r="C240" s="18" t="e">
+      <c r="B240" s="9"/>
+      <c r="C240" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D240" s="12"/>
-      <c r="E240" s="12"/>
-      <c r="F240" s="22" t="e">
+      <c r="D240" s="9"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G240" s="12"/>
-      <c r="H240" s="12"/>
+      <c r="G240" s="9"/>
+      <c r="H240" s="9"/>
       <c r="I240" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5906,19 +5850,19 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
-      <c r="B241" s="13"/>
-      <c r="C241" s="19" t="e">
+      <c r="B241" s="10"/>
+      <c r="C241" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D241" s="13"/>
-      <c r="E241" s="13"/>
-      <c r="F241" s="22" t="e">
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G241" s="13"/>
-      <c r="H241" s="13"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="10"/>
       <c r="I241" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5927,19 +5871,19 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
-      <c r="B242" s="12"/>
-      <c r="C242" s="18" t="e">
+      <c r="B242" s="9"/>
+      <c r="C242" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D242" s="12"/>
-      <c r="E242" s="12"/>
-      <c r="F242" s="22" t="e">
+      <c r="D242" s="9"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G242" s="12"/>
-      <c r="H242" s="12"/>
+      <c r="G242" s="9"/>
+      <c r="H242" s="9"/>
       <c r="I242" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5948,19 +5892,19 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
-      <c r="B243" s="13"/>
-      <c r="C243" s="19" t="e">
+      <c r="B243" s="10"/>
+      <c r="C243" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D243" s="13"/>
-      <c r="E243" s="13"/>
-      <c r="F243" s="22" t="e">
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G243" s="13"/>
-      <c r="H243" s="13"/>
+      <c r="G243" s="10"/>
+      <c r="H243" s="10"/>
       <c r="I243" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5969,19 +5913,19 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
-      <c r="B244" s="12"/>
-      <c r="C244" s="18" t="e">
+      <c r="B244" s="9"/>
+      <c r="C244" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D244" s="12"/>
-      <c r="E244" s="12"/>
-      <c r="F244" s="22" t="e">
+      <c r="D244" s="9"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G244" s="12"/>
-      <c r="H244" s="12"/>
+      <c r="G244" s="9"/>
+      <c r="H244" s="9"/>
       <c r="I244" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -5990,19 +5934,19 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
-      <c r="B245" s="13"/>
-      <c r="C245" s="19" t="e">
+      <c r="B245" s="10"/>
+      <c r="C245" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D245" s="13"/>
-      <c r="E245" s="13"/>
-      <c r="F245" s="22" t="e">
+      <c r="D245" s="10"/>
+      <c r="E245" s="10"/>
+      <c r="F245" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G245" s="13"/>
-      <c r="H245" s="13"/>
+      <c r="G245" s="10"/>
+      <c r="H245" s="10"/>
       <c r="I245" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -6011,19 +5955,19 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
-      <c r="B246" s="12"/>
-      <c r="C246" s="18" t="e">
+      <c r="B246" s="9"/>
+      <c r="C246" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D246" s="12"/>
-      <c r="E246" s="12"/>
-      <c r="F246" s="22" t="e">
+      <c r="D246" s="9"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G246" s="12"/>
-      <c r="H246" s="12"/>
+      <c r="G246" s="9"/>
+      <c r="H246" s="9"/>
       <c r="I246" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -6032,19 +5976,19 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
-      <c r="B247" s="13"/>
-      <c r="C247" s="19" t="e">
+      <c r="B247" s="10"/>
+      <c r="C247" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D247" s="13"/>
-      <c r="E247" s="13"/>
-      <c r="F247" s="22" t="e">
+      <c r="D247" s="10"/>
+      <c r="E247" s="10"/>
+      <c r="F247" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G247" s="13"/>
-      <c r="H247" s="13"/>
+      <c r="G247" s="10"/>
+      <c r="H247" s="10"/>
       <c r="I247" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -6053,19 +5997,19 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
-      <c r="B248" s="12"/>
-      <c r="C248" s="18" t="e">
+      <c r="B248" s="9"/>
+      <c r="C248" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D248" s="12"/>
-      <c r="E248" s="12"/>
-      <c r="F248" s="22" t="e">
+      <c r="D248" s="9"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G248" s="12"/>
-      <c r="H248" s="12"/>
+      <c r="G248" s="9"/>
+      <c r="H248" s="9"/>
       <c r="I248" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -6074,19 +6018,19 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
-      <c r="B249" s="13"/>
-      <c r="C249" s="19" t="e">
+      <c r="B249" s="10"/>
+      <c r="C249" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D249" s="13"/>
-      <c r="E249" s="13"/>
-      <c r="F249" s="22" t="e">
+      <c r="D249" s="10"/>
+      <c r="E249" s="10"/>
+      <c r="F249" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G249" s="13"/>
-      <c r="H249" s="13"/>
+      <c r="G249" s="10"/>
+      <c r="H249" s="10"/>
       <c r="I249" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -6095,19 +6039,19 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
-      <c r="B250" s="12"/>
-      <c r="C250" s="18" t="e">
+      <c r="B250" s="9"/>
+      <c r="C250" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D250" s="12"/>
-      <c r="E250" s="12"/>
-      <c r="F250" s="22" t="e">
+      <c r="D250" s="9"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G250" s="12"/>
-      <c r="H250" s="12"/>
+      <c r="G250" s="9"/>
+      <c r="H250" s="9"/>
       <c r="I250" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -6116,19 +6060,19 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
-      <c r="B251" s="13"/>
-      <c r="C251" s="19" t="e">
+      <c r="B251" s="10"/>
+      <c r="C251" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D251" s="13"/>
-      <c r="E251" s="13"/>
-      <c r="F251" s="22" t="e">
+      <c r="D251" s="10"/>
+      <c r="E251" s="10"/>
+      <c r="F251" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G251" s="13"/>
-      <c r="H251" s="13"/>
+      <c r="G251" s="10"/>
+      <c r="H251" s="10"/>
       <c r="I251" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -6137,19 +6081,19 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
-      <c r="B252" s="12"/>
-      <c r="C252" s="18" t="e">
+      <c r="B252" s="9"/>
+      <c r="C252" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D252" s="12"/>
-      <c r="E252" s="12"/>
-      <c r="F252" s="22" t="e">
+      <c r="D252" s="9"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G252" s="12"/>
-      <c r="H252" s="12"/>
+      <c r="G252" s="9"/>
+      <c r="H252" s="9"/>
       <c r="I252" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -6158,19 +6102,19 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
-      <c r="B253" s="13"/>
-      <c r="C253" s="19" t="e">
+      <c r="B253" s="10"/>
+      <c r="C253" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D253" s="13"/>
-      <c r="E253" s="13"/>
-      <c r="F253" s="22" t="e">
+      <c r="D253" s="10"/>
+      <c r="E253" s="10"/>
+      <c r="F253" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G253" s="13"/>
-      <c r="H253" s="13"/>
+      <c r="G253" s="10"/>
+      <c r="H253" s="10"/>
       <c r="I253" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -6179,19 +6123,19 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
-      <c r="B254" s="12"/>
-      <c r="C254" s="18" t="e">
+      <c r="B254" s="9"/>
+      <c r="C254" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D254" s="12"/>
-      <c r="E254" s="12"/>
-      <c r="F254" s="22" t="e">
+      <c r="D254" s="9"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G254" s="12"/>
-      <c r="H254" s="12"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="9"/>
       <c r="I254" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -6200,19 +6144,19 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
-      <c r="B255" s="13"/>
-      <c r="C255" s="19" t="e">
+      <c r="B255" s="10"/>
+      <c r="C255" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
-      <c r="F255" s="22" t="e">
+      <c r="D255" s="10"/>
+      <c r="E255" s="10"/>
+      <c r="F255" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G255" s="13"/>
-      <c r="H255" s="13"/>
+      <c r="G255" s="10"/>
+      <c r="H255" s="10"/>
       <c r="I255" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -6221,19 +6165,19 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
-      <c r="B256" s="12"/>
-      <c r="C256" s="18" t="e">
+      <c r="B256" s="9"/>
+      <c r="C256" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D256" s="12"/>
-      <c r="E256" s="12"/>
-      <c r="F256" s="22" t="e">
+      <c r="D256" s="9"/>
+      <c r="E256" s="9"/>
+      <c r="F256" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G256" s="12"/>
-      <c r="H256" s="12"/>
+      <c r="G256" s="9"/>
+      <c r="H256" s="9"/>
       <c r="I256" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -6242,19 +6186,19 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
-      <c r="B257" s="13"/>
-      <c r="C257" s="19" t="e">
+      <c r="B257" s="10"/>
+      <c r="C257" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D257" s="13"/>
-      <c r="E257" s="13"/>
-      <c r="F257" s="22" t="e">
+      <c r="D257" s="10"/>
+      <c r="E257" s="10"/>
+      <c r="F257" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G257" s="13"/>
-      <c r="H257" s="13"/>
+      <c r="G257" s="10"/>
+      <c r="H257" s="10"/>
       <c r="I257" s="6" t="e">
         <f t="shared" ref="I257:I309" si="12">VLOOKUP(J257,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -6263,19 +6207,19 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
-      <c r="B258" s="12"/>
-      <c r="C258" s="18" t="e">
+      <c r="B258" s="9"/>
+      <c r="C258" s="12" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="D258" s="12"/>
-      <c r="E258" s="12"/>
-      <c r="F258" s="22" t="e">
+      <c r="D258" s="9"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G258" s="12"/>
-      <c r="H258" s="12"/>
+      <c r="G258" s="9"/>
+      <c r="H258" s="9"/>
       <c r="I258" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6284,19 +6228,19 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
-      <c r="B259" s="13"/>
-      <c r="C259" s="19" t="e">
-        <f t="shared" ref="C259:C322" si="13">VLOOKUP(D259,Tabla_BAU,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D259" s="13"/>
-      <c r="E259" s="13"/>
-      <c r="F259" s="22" t="e">
-        <f t="shared" ref="F259:F322" si="14">VLOOKUP(G259,Tabla_INI,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G259" s="13"/>
-      <c r="H259" s="13"/>
+      <c r="B259" s="10"/>
+      <c r="C259" s="13" t="e">
+        <f t="shared" ref="C259:C312" si="13">VLOOKUP(D259,Tabla_BAU,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D259" s="10"/>
+      <c r="E259" s="10"/>
+      <c r="F259" s="16" t="e">
+        <f t="shared" ref="F259:F312" si="14">VLOOKUP(G259,Tabla_INI,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G259" s="10"/>
+      <c r="H259" s="10"/>
       <c r="I259" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6305,19 +6249,19 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
-      <c r="B260" s="12"/>
-      <c r="C260" s="18" t="e">
+      <c r="B260" s="9"/>
+      <c r="C260" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D260" s="12"/>
-      <c r="E260" s="12"/>
-      <c r="F260" s="22" t="e">
+      <c r="D260" s="9"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G260" s="12"/>
-      <c r="H260" s="12"/>
+      <c r="G260" s="9"/>
+      <c r="H260" s="9"/>
       <c r="I260" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6326,19 +6270,19 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
-      <c r="B261" s="13"/>
-      <c r="C261" s="19" t="e">
+      <c r="B261" s="10"/>
+      <c r="C261" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D261" s="13"/>
-      <c r="E261" s="13"/>
-      <c r="F261" s="22" t="e">
+      <c r="D261" s="10"/>
+      <c r="E261" s="10"/>
+      <c r="F261" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G261" s="13"/>
-      <c r="H261" s="13"/>
+      <c r="G261" s="10"/>
+      <c r="H261" s="10"/>
       <c r="I261" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6347,19 +6291,19 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
-      <c r="B262" s="12"/>
-      <c r="C262" s="18" t="e">
+      <c r="B262" s="9"/>
+      <c r="C262" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D262" s="12"/>
-      <c r="E262" s="12"/>
-      <c r="F262" s="22" t="e">
+      <c r="D262" s="9"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G262" s="12"/>
-      <c r="H262" s="12"/>
+      <c r="G262" s="9"/>
+      <c r="H262" s="9"/>
       <c r="I262" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6368,19 +6312,19 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
-      <c r="B263" s="13"/>
-      <c r="C263" s="19" t="e">
+      <c r="B263" s="10"/>
+      <c r="C263" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D263" s="13"/>
-      <c r="E263" s="13"/>
-      <c r="F263" s="22" t="e">
+      <c r="D263" s="10"/>
+      <c r="E263" s="10"/>
+      <c r="F263" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G263" s="13"/>
-      <c r="H263" s="13"/>
+      <c r="G263" s="10"/>
+      <c r="H263" s="10"/>
       <c r="I263" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6389,19 +6333,19 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
-      <c r="B264" s="12"/>
-      <c r="C264" s="18" t="e">
+      <c r="B264" s="9"/>
+      <c r="C264" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D264" s="12"/>
-      <c r="E264" s="12"/>
-      <c r="F264" s="22" t="e">
+      <c r="D264" s="9"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G264" s="12"/>
-      <c r="H264" s="12"/>
+      <c r="G264" s="9"/>
+      <c r="H264" s="9"/>
       <c r="I264" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6410,19 +6354,19 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
-      <c r="B265" s="13"/>
-      <c r="C265" s="19" t="e">
+      <c r="B265" s="10"/>
+      <c r="C265" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D265" s="13"/>
-      <c r="E265" s="13"/>
-      <c r="F265" s="22" t="e">
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G265" s="13"/>
-      <c r="H265" s="13"/>
+      <c r="G265" s="10"/>
+      <c r="H265" s="10"/>
       <c r="I265" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6431,19 +6375,19 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
-      <c r="B266" s="12"/>
-      <c r="C266" s="18" t="e">
+      <c r="B266" s="9"/>
+      <c r="C266" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D266" s="12"/>
-      <c r="E266" s="12"/>
-      <c r="F266" s="22" t="e">
+      <c r="D266" s="9"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G266" s="12"/>
-      <c r="H266" s="12"/>
+      <c r="G266" s="9"/>
+      <c r="H266" s="9"/>
       <c r="I266" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6452,19 +6396,19 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
-      <c r="B267" s="13"/>
-      <c r="C267" s="19" t="e">
+      <c r="B267" s="10"/>
+      <c r="C267" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D267" s="13"/>
-      <c r="E267" s="13"/>
-      <c r="F267" s="22" t="e">
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G267" s="13"/>
-      <c r="H267" s="13"/>
+      <c r="G267" s="10"/>
+      <c r="H267" s="10"/>
       <c r="I267" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6473,19 +6417,19 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
-      <c r="B268" s="12"/>
-      <c r="C268" s="18" t="e">
+      <c r="B268" s="9"/>
+      <c r="C268" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D268" s="12"/>
-      <c r="E268" s="12"/>
-      <c r="F268" s="22" t="e">
+      <c r="D268" s="9"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G268" s="12"/>
-      <c r="H268" s="12"/>
+      <c r="G268" s="9"/>
+      <c r="H268" s="9"/>
       <c r="I268" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6494,19 +6438,19 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
-      <c r="B269" s="13"/>
-      <c r="C269" s="19" t="e">
+      <c r="B269" s="10"/>
+      <c r="C269" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D269" s="13"/>
-      <c r="E269" s="13"/>
-      <c r="F269" s="22" t="e">
+      <c r="D269" s="10"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G269" s="13"/>
-      <c r="H269" s="13"/>
+      <c r="G269" s="10"/>
+      <c r="H269" s="10"/>
       <c r="I269" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6515,19 +6459,19 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
-      <c r="B270" s="12"/>
-      <c r="C270" s="18" t="e">
+      <c r="B270" s="9"/>
+      <c r="C270" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D270" s="12"/>
-      <c r="E270" s="12"/>
-      <c r="F270" s="22" t="e">
+      <c r="D270" s="9"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G270" s="12"/>
-      <c r="H270" s="12"/>
+      <c r="G270" s="9"/>
+      <c r="H270" s="9"/>
       <c r="I270" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6536,19 +6480,19 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
-      <c r="B271" s="13"/>
-      <c r="C271" s="19" t="e">
+      <c r="B271" s="10"/>
+      <c r="C271" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D271" s="13"/>
-      <c r="E271" s="13"/>
-      <c r="F271" s="22" t="e">
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G271" s="13"/>
-      <c r="H271" s="13"/>
+      <c r="G271" s="10"/>
+      <c r="H271" s="10"/>
       <c r="I271" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6557,19 +6501,19 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
-      <c r="B272" s="12"/>
-      <c r="C272" s="18" t="e">
+      <c r="B272" s="9"/>
+      <c r="C272" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D272" s="12"/>
-      <c r="E272" s="12"/>
-      <c r="F272" s="22" t="e">
+      <c r="D272" s="9"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G272" s="12"/>
-      <c r="H272" s="12"/>
+      <c r="G272" s="9"/>
+      <c r="H272" s="9"/>
       <c r="I272" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6578,19 +6522,19 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
-      <c r="B273" s="13"/>
-      <c r="C273" s="19" t="e">
+      <c r="B273" s="10"/>
+      <c r="C273" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D273" s="13"/>
-      <c r="E273" s="13"/>
-      <c r="F273" s="22" t="e">
+      <c r="D273" s="10"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G273" s="13"/>
-      <c r="H273" s="13"/>
+      <c r="G273" s="10"/>
+      <c r="H273" s="10"/>
       <c r="I273" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6599,19 +6543,19 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
-      <c r="B274" s="12"/>
-      <c r="C274" s="18" t="e">
+      <c r="B274" s="9"/>
+      <c r="C274" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D274" s="12"/>
-      <c r="E274" s="12"/>
-      <c r="F274" s="22" t="e">
+      <c r="D274" s="9"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G274" s="12"/>
-      <c r="H274" s="12"/>
+      <c r="G274" s="9"/>
+      <c r="H274" s="9"/>
       <c r="I274" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6620,19 +6564,19 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
-      <c r="B275" s="13"/>
-      <c r="C275" s="19" t="e">
+      <c r="B275" s="10"/>
+      <c r="C275" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D275" s="13"/>
-      <c r="E275" s="13"/>
-      <c r="F275" s="22" t="e">
+      <c r="D275" s="10"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G275" s="13"/>
-      <c r="H275" s="13"/>
+      <c r="G275" s="10"/>
+      <c r="H275" s="10"/>
       <c r="I275" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6641,19 +6585,19 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
-      <c r="B276" s="12"/>
-      <c r="C276" s="18" t="e">
+      <c r="B276" s="9"/>
+      <c r="C276" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D276" s="12"/>
-      <c r="E276" s="12"/>
-      <c r="F276" s="22" t="e">
+      <c r="D276" s="9"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G276" s="12"/>
-      <c r="H276" s="12"/>
+      <c r="G276" s="9"/>
+      <c r="H276" s="9"/>
       <c r="I276" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6662,19 +6606,19 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
-      <c r="B277" s="13"/>
-      <c r="C277" s="19" t="e">
+      <c r="B277" s="10"/>
+      <c r="C277" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D277" s="13"/>
-      <c r="E277" s="13"/>
-      <c r="F277" s="22" t="e">
+      <c r="D277" s="10"/>
+      <c r="E277" s="10"/>
+      <c r="F277" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G277" s="13"/>
-      <c r="H277" s="13"/>
+      <c r="G277" s="10"/>
+      <c r="H277" s="10"/>
       <c r="I277" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6683,19 +6627,19 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
-      <c r="B278" s="12"/>
-      <c r="C278" s="18" t="e">
+      <c r="B278" s="9"/>
+      <c r="C278" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D278" s="12"/>
-      <c r="E278" s="12"/>
-      <c r="F278" s="22" t="e">
+      <c r="D278" s="9"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G278" s="12"/>
-      <c r="H278" s="12"/>
+      <c r="G278" s="9"/>
+      <c r="H278" s="9"/>
       <c r="I278" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6704,19 +6648,19 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
-      <c r="B279" s="13"/>
-      <c r="C279" s="19" t="e">
+      <c r="B279" s="10"/>
+      <c r="C279" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D279" s="13"/>
-      <c r="E279" s="13"/>
-      <c r="F279" s="22" t="e">
+      <c r="D279" s="10"/>
+      <c r="E279" s="10"/>
+      <c r="F279" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G279" s="13"/>
-      <c r="H279" s="13"/>
+      <c r="G279" s="10"/>
+      <c r="H279" s="10"/>
       <c r="I279" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6725,19 +6669,19 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
-      <c r="B280" s="12"/>
-      <c r="C280" s="18" t="e">
+      <c r="B280" s="9"/>
+      <c r="C280" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D280" s="12"/>
-      <c r="E280" s="12"/>
-      <c r="F280" s="22" t="e">
+      <c r="D280" s="9"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G280" s="12"/>
-      <c r="H280" s="12"/>
+      <c r="G280" s="9"/>
+      <c r="H280" s="9"/>
       <c r="I280" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6746,19 +6690,19 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
-      <c r="B281" s="13"/>
-      <c r="C281" s="19" t="e">
+      <c r="B281" s="10"/>
+      <c r="C281" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D281" s="13"/>
-      <c r="E281" s="13"/>
-      <c r="F281" s="22" t="e">
+      <c r="D281" s="10"/>
+      <c r="E281" s="10"/>
+      <c r="F281" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G281" s="13"/>
-      <c r="H281" s="13"/>
+      <c r="G281" s="10"/>
+      <c r="H281" s="10"/>
       <c r="I281" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6767,19 +6711,19 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
-      <c r="B282" s="12"/>
-      <c r="C282" s="18" t="e">
+      <c r="B282" s="9"/>
+      <c r="C282" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D282" s="12"/>
-      <c r="E282" s="12"/>
-      <c r="F282" s="22" t="e">
+      <c r="D282" s="9"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G282" s="12"/>
-      <c r="H282" s="12"/>
+      <c r="G282" s="9"/>
+      <c r="H282" s="9"/>
       <c r="I282" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6788,19 +6732,19 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
-      <c r="B283" s="13"/>
-      <c r="C283" s="19" t="e">
+      <c r="B283" s="10"/>
+      <c r="C283" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D283" s="13"/>
-      <c r="E283" s="13"/>
-      <c r="F283" s="22" t="e">
+      <c r="D283" s="10"/>
+      <c r="E283" s="10"/>
+      <c r="F283" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G283" s="13"/>
-      <c r="H283" s="13"/>
+      <c r="G283" s="10"/>
+      <c r="H283" s="10"/>
       <c r="I283" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6809,19 +6753,19 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
-      <c r="B284" s="12"/>
-      <c r="C284" s="18" t="e">
+      <c r="B284" s="9"/>
+      <c r="C284" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D284" s="12"/>
-      <c r="E284" s="12"/>
-      <c r="F284" s="22" t="e">
+      <c r="D284" s="9"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G284" s="12"/>
-      <c r="H284" s="12"/>
+      <c r="G284" s="9"/>
+      <c r="H284" s="9"/>
       <c r="I284" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6830,19 +6774,19 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
-      <c r="B285" s="13"/>
-      <c r="C285" s="19" t="e">
+      <c r="B285" s="10"/>
+      <c r="C285" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D285" s="13"/>
-      <c r="E285" s="13"/>
-      <c r="F285" s="22" t="e">
+      <c r="D285" s="10"/>
+      <c r="E285" s="10"/>
+      <c r="F285" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G285" s="13"/>
-      <c r="H285" s="13"/>
+      <c r="G285" s="10"/>
+      <c r="H285" s="10"/>
       <c r="I285" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6851,19 +6795,19 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
-      <c r="B286" s="12"/>
-      <c r="C286" s="18" t="e">
+      <c r="B286" s="9"/>
+      <c r="C286" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D286" s="12"/>
-      <c r="E286" s="12"/>
-      <c r="F286" s="22" t="e">
+      <c r="D286" s="9"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G286" s="12"/>
-      <c r="H286" s="12"/>
+      <c r="G286" s="9"/>
+      <c r="H286" s="9"/>
       <c r="I286" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6872,19 +6816,19 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
-      <c r="B287" s="13"/>
-      <c r="C287" s="19" t="e">
+      <c r="B287" s="10"/>
+      <c r="C287" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D287" s="13"/>
-      <c r="E287" s="13"/>
-      <c r="F287" s="22" t="e">
+      <c r="D287" s="10"/>
+      <c r="E287" s="10"/>
+      <c r="F287" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G287" s="13"/>
-      <c r="H287" s="13"/>
+      <c r="G287" s="10"/>
+      <c r="H287" s="10"/>
       <c r="I287" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6893,19 +6837,19 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
-      <c r="B288" s="12"/>
-      <c r="C288" s="18" t="e">
+      <c r="B288" s="9"/>
+      <c r="C288" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D288" s="12"/>
-      <c r="E288" s="12"/>
-      <c r="F288" s="22" t="e">
+      <c r="D288" s="9"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G288" s="12"/>
-      <c r="H288" s="12"/>
+      <c r="G288" s="9"/>
+      <c r="H288" s="9"/>
       <c r="I288" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6914,19 +6858,19 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
-      <c r="B289" s="13"/>
-      <c r="C289" s="19" t="e">
+      <c r="B289" s="10"/>
+      <c r="C289" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D289" s="13"/>
-      <c r="E289" s="13"/>
-      <c r="F289" s="22" t="e">
+      <c r="D289" s="10"/>
+      <c r="E289" s="10"/>
+      <c r="F289" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G289" s="13"/>
-      <c r="H289" s="13"/>
+      <c r="G289" s="10"/>
+      <c r="H289" s="10"/>
       <c r="I289" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6935,19 +6879,19 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
-      <c r="B290" s="12"/>
-      <c r="C290" s="18" t="e">
+      <c r="B290" s="9"/>
+      <c r="C290" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D290" s="12"/>
-      <c r="E290" s="12"/>
-      <c r="F290" s="22" t="e">
+      <c r="D290" s="9"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G290" s="12"/>
-      <c r="H290" s="12"/>
+      <c r="G290" s="9"/>
+      <c r="H290" s="9"/>
       <c r="I290" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6956,19 +6900,19 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
-      <c r="B291" s="13"/>
-      <c r="C291" s="19" t="e">
+      <c r="B291" s="10"/>
+      <c r="C291" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D291" s="13"/>
-      <c r="E291" s="13"/>
-      <c r="F291" s="22" t="e">
+      <c r="D291" s="10"/>
+      <c r="E291" s="10"/>
+      <c r="F291" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G291" s="13"/>
-      <c r="H291" s="13"/>
+      <c r="G291" s="10"/>
+      <c r="H291" s="10"/>
       <c r="I291" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6977,19 +6921,19 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
-      <c r="B292" s="12"/>
-      <c r="C292" s="18" t="e">
+      <c r="B292" s="9"/>
+      <c r="C292" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D292" s="12"/>
-      <c r="E292" s="12"/>
-      <c r="F292" s="22" t="e">
+      <c r="D292" s="9"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G292" s="12"/>
-      <c r="H292" s="12"/>
+      <c r="G292" s="9"/>
+      <c r="H292" s="9"/>
       <c r="I292" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -6998,19 +6942,19 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
-      <c r="B293" s="13"/>
-      <c r="C293" s="19" t="e">
+      <c r="B293" s="10"/>
+      <c r="C293" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D293" s="13"/>
-      <c r="E293" s="13"/>
-      <c r="F293" s="22" t="e">
+      <c r="D293" s="10"/>
+      <c r="E293" s="10"/>
+      <c r="F293" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G293" s="13"/>
-      <c r="H293" s="13"/>
+      <c r="G293" s="10"/>
+      <c r="H293" s="10"/>
       <c r="I293" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7019,19 +6963,19 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
-      <c r="B294" s="12"/>
-      <c r="C294" s="18" t="e">
+      <c r="B294" s="9"/>
+      <c r="C294" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D294" s="12"/>
-      <c r="E294" s="12"/>
-      <c r="F294" s="22" t="e">
+      <c r="D294" s="9"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G294" s="12"/>
-      <c r="H294" s="12"/>
+      <c r="G294" s="9"/>
+      <c r="H294" s="9"/>
       <c r="I294" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7040,19 +6984,19 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
-      <c r="B295" s="13"/>
-      <c r="C295" s="19" t="e">
+      <c r="B295" s="10"/>
+      <c r="C295" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D295" s="13"/>
-      <c r="E295" s="13"/>
-      <c r="F295" s="22" t="e">
+      <c r="D295" s="10"/>
+      <c r="E295" s="10"/>
+      <c r="F295" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G295" s="13"/>
-      <c r="H295" s="13"/>
+      <c r="G295" s="10"/>
+      <c r="H295" s="10"/>
       <c r="I295" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7061,19 +7005,19 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
-      <c r="B296" s="12"/>
-      <c r="C296" s="18" t="e">
+      <c r="B296" s="9"/>
+      <c r="C296" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D296" s="12"/>
-      <c r="E296" s="12"/>
-      <c r="F296" s="22" t="e">
+      <c r="D296" s="9"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G296" s="12"/>
-      <c r="H296" s="12"/>
+      <c r="G296" s="9"/>
+      <c r="H296" s="9"/>
       <c r="I296" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7082,19 +7026,19 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
-      <c r="B297" s="13"/>
-      <c r="C297" s="19" t="e">
+      <c r="B297" s="10"/>
+      <c r="C297" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D297" s="13"/>
-      <c r="E297" s="13"/>
-      <c r="F297" s="22" t="e">
+      <c r="D297" s="10"/>
+      <c r="E297" s="10"/>
+      <c r="F297" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G297" s="13"/>
-      <c r="H297" s="13"/>
+      <c r="G297" s="10"/>
+      <c r="H297" s="10"/>
       <c r="I297" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7103,19 +7047,19 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
-      <c r="B298" s="12"/>
-      <c r="C298" s="18" t="e">
+      <c r="B298" s="9"/>
+      <c r="C298" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D298" s="12"/>
-      <c r="E298" s="12"/>
-      <c r="F298" s="22" t="e">
+      <c r="D298" s="9"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G298" s="12"/>
-      <c r="H298" s="12"/>
+      <c r="G298" s="9"/>
+      <c r="H298" s="9"/>
       <c r="I298" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7124,19 +7068,19 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
-      <c r="B299" s="13"/>
-      <c r="C299" s="19" t="e">
+      <c r="B299" s="10"/>
+      <c r="C299" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D299" s="13"/>
-      <c r="E299" s="13"/>
-      <c r="F299" s="22" t="e">
+      <c r="D299" s="10"/>
+      <c r="E299" s="10"/>
+      <c r="F299" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G299" s="13"/>
-      <c r="H299" s="13"/>
+      <c r="G299" s="10"/>
+      <c r="H299" s="10"/>
       <c r="I299" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7145,19 +7089,19 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
-      <c r="B300" s="12"/>
-      <c r="C300" s="18" t="e">
+      <c r="B300" s="9"/>
+      <c r="C300" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D300" s="12"/>
-      <c r="E300" s="12"/>
-      <c r="F300" s="22" t="e">
+      <c r="D300" s="9"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G300" s="12"/>
-      <c r="H300" s="12"/>
+      <c r="G300" s="9"/>
+      <c r="H300" s="9"/>
       <c r="I300" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7166,19 +7110,19 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
-      <c r="B301" s="13"/>
-      <c r="C301" s="19" t="e">
+      <c r="B301" s="10"/>
+      <c r="C301" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D301" s="13"/>
-      <c r="E301" s="13"/>
-      <c r="F301" s="22" t="e">
+      <c r="D301" s="10"/>
+      <c r="E301" s="10"/>
+      <c r="F301" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G301" s="13"/>
-      <c r="H301" s="13"/>
+      <c r="G301" s="10"/>
+      <c r="H301" s="10"/>
       <c r="I301" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7187,19 +7131,19 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
-      <c r="B302" s="12"/>
-      <c r="C302" s="18" t="e">
+      <c r="B302" s="9"/>
+      <c r="C302" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D302" s="12"/>
-      <c r="E302" s="12"/>
-      <c r="F302" s="22" t="e">
+      <c r="D302" s="9"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G302" s="12"/>
-      <c r="H302" s="12"/>
+      <c r="G302" s="9"/>
+      <c r="H302" s="9"/>
       <c r="I302" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7208,19 +7152,19 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
-      <c r="B303" s="13"/>
-      <c r="C303" s="19" t="e">
+      <c r="B303" s="10"/>
+      <c r="C303" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D303" s="13"/>
-      <c r="E303" s="13"/>
-      <c r="F303" s="22" t="e">
+      <c r="D303" s="10"/>
+      <c r="E303" s="10"/>
+      <c r="F303" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G303" s="13"/>
-      <c r="H303" s="13"/>
+      <c r="G303" s="10"/>
+      <c r="H303" s="10"/>
       <c r="I303" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7229,19 +7173,19 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
-      <c r="B304" s="12"/>
-      <c r="C304" s="18" t="e">
+      <c r="B304" s="9"/>
+      <c r="C304" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D304" s="12"/>
-      <c r="E304" s="12"/>
-      <c r="F304" s="22" t="e">
+      <c r="D304" s="9"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G304" s="12"/>
-      <c r="H304" s="12"/>
+      <c r="G304" s="9"/>
+      <c r="H304" s="9"/>
       <c r="I304" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7250,19 +7194,19 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
-      <c r="B305" s="13"/>
-      <c r="C305" s="19" t="e">
+      <c r="B305" s="10"/>
+      <c r="C305" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D305" s="13"/>
-      <c r="E305" s="13"/>
-      <c r="F305" s="22" t="e">
+      <c r="D305" s="10"/>
+      <c r="E305" s="10"/>
+      <c r="F305" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G305" s="13"/>
-      <c r="H305" s="13"/>
+      <c r="G305" s="10"/>
+      <c r="H305" s="10"/>
       <c r="I305" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7271,19 +7215,19 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
-      <c r="B306" s="12"/>
-      <c r="C306" s="18" t="e">
+      <c r="B306" s="9"/>
+      <c r="C306" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D306" s="12"/>
-      <c r="E306" s="12"/>
-      <c r="F306" s="22" t="e">
+      <c r="D306" s="9"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G306" s="12"/>
-      <c r="H306" s="12"/>
+      <c r="G306" s="9"/>
+      <c r="H306" s="9"/>
       <c r="I306" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7292,19 +7236,19 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
-      <c r="B307" s="13"/>
-      <c r="C307" s="19" t="e">
+      <c r="B307" s="10"/>
+      <c r="C307" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D307" s="13"/>
-      <c r="E307" s="13"/>
-      <c r="F307" s="22" t="e">
+      <c r="D307" s="10"/>
+      <c r="E307" s="10"/>
+      <c r="F307" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G307" s="13"/>
-      <c r="H307" s="13"/>
+      <c r="G307" s="10"/>
+      <c r="H307" s="10"/>
       <c r="I307" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7313,19 +7257,19 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
-      <c r="B308" s="12"/>
-      <c r="C308" s="18" t="e">
+      <c r="B308" s="9"/>
+      <c r="C308" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D308" s="12"/>
-      <c r="E308" s="12"/>
-      <c r="F308" s="22" t="e">
+      <c r="D308" s="9"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G308" s="12"/>
-      <c r="H308" s="12"/>
+      <c r="G308" s="9"/>
+      <c r="H308" s="9"/>
       <c r="I308" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7334,19 +7278,19 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
-      <c r="B309" s="13"/>
-      <c r="C309" s="19" t="e">
+      <c r="B309" s="10"/>
+      <c r="C309" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D309" s="13"/>
-      <c r="E309" s="13"/>
-      <c r="F309" s="22" t="e">
+      <c r="D309" s="10"/>
+      <c r="E309" s="10"/>
+      <c r="F309" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G309" s="13"/>
-      <c r="H309" s="13"/>
+      <c r="G309" s="10"/>
+      <c r="H309" s="10"/>
       <c r="I309" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -7354,46 +7298,46 @@
       <c r="J309" s="6"/>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B310" s="12"/>
-      <c r="C310" s="18" t="e">
+      <c r="B310" s="9"/>
+      <c r="C310" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D310" s="12"/>
-      <c r="E310" s="12"/>
-      <c r="F310" s="22" t="e">
+      <c r="D310" s="9"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G310" s="12"/>
-      <c r="H310" s="12"/>
+      <c r="G310" s="9"/>
+      <c r="H310" s="9"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C311" s="19" t="e">
+      <c r="C311" s="13" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D311" s="13"/>
-      <c r="F311" s="22" t="e">
+      <c r="D311" s="10"/>
+      <c r="F311" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G311" s="13"/>
+      <c r="G311" s="10"/>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C312" s="18" t="e">
+      <c r="C312" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="D312" s="12"/>
-      <c r="F312" s="22" t="e">
+      <c r="D312" s="9"/>
+      <c r="F312" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G312" s="12"/>
+      <c r="G312" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JgBX2Dg6r+A+/+XvQ9ctgjVYcge75lf5ZupVG4MCThibPF39JefU3y2Hfl8Uco3d+5FqowiBKP89+OANqFIv+A==" saltValue="0OU/rSsmH3reBIkSW5w2gA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="frwhwMYNa2yDhWAs30f8VVQNOLJzAIuKej5I63I0j5bLVBrhi/FF01zt8hDevjY5uAVFupyQsLyPvO1F7qgYGw==" saltValue="zLLpVGysK69buFVYbPtVFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A309" xr:uid="{4BF257BF-5777-4233-8B3B-B94043BFB1BD}">
       <formula1>Lista_Anno</formula1>
@@ -7448,13 +7392,13 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>5</v>
@@ -7471,13 +7415,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -7494,7 +7438,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
@@ -7511,7 +7455,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.3 Plantilla_Eficiencia_energetica_comercial.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.3 Plantilla_Eficiencia_energetica_comercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81CD9B83-3885-4361-8075-449ECA241B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F978B822-F8B1-4CA5-92E4-64DBB8BC15E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{71D78059-0FA9-459A-8548-6759DAA3D3F6}"/>
   </bookViews>
@@ -161,22 +161,22 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Potencia de lámpara BAU. Inserte su dato</t>
-  </si>
-  <si>
-    <t>Tipo de lámpara BAU. Seleccione de la lista desplegable</t>
-  </si>
-  <si>
-    <t>Potencia de lámpara Iniciativa. Inserte su dato</t>
-  </si>
-  <si>
-    <t>Tipo de lámpara Iniciativa. Seleccione desplegable</t>
-  </si>
-  <si>
     <t>Número de unidades de este tipo o clase. Inserte su dato.</t>
   </si>
   <si>
-    <t>Mes en el que se compraron las lámparas. Seleccione de la lista desplegable</t>
+    <t>Potencia de lámpara BAU. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Tipo de lámpara BAU. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Potencia de lámpara Iniciativa. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Tipo de lámpara Iniciativa. Seleccione desplegable.</t>
+  </si>
+  <si>
+    <t>Mes en el que se compraron las lámparas. Seleccione de la lista desplegable.</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
   <dimension ref="A1:J312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,21 +815,21 @@
         <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="7" t="s">
@@ -7337,7 +7337,7 @@
       <c r="G312" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="frwhwMYNa2yDhWAs30f8VVQNOLJzAIuKej5I63I0j5bLVBrhi/FF01zt8hDevjY5uAVFupyQsLyPvO1F7qgYGw==" saltValue="zLLpVGysK69buFVYbPtVFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VaL2Eo2WOVsC2Q+h5PE2efNhtQfUVf+FHXjxqYEQ25y7mpj86ZlAtzzqu5qmQSK6jtSR3lln9T8Enh0ZUSjeOg==" saltValue="O6RNpYu+J4H+HT7b/VuB7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A309" xr:uid="{4BF257BF-5777-4233-8B3B-B94043BFB1BD}">
       <formula1>Lista_Anno</formula1>
